--- a/Code/Results/Cases/Case_1_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_bus/vm_pu.xlsx
@@ -427,28 +427,28 @@
         <v>1.026918537619107</v>
       </c>
       <c r="E2">
-        <v>0.9835551846983766</v>
+        <v>0.9835551846983767</v>
       </c>
       <c r="F2">
-        <v>1.0023760332394</v>
+        <v>1.002376033239401</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046420055950791</v>
+        <v>1.04642005595079</v>
       </c>
       <c r="J2">
-        <v>0.9935214335785253</v>
+        <v>0.9935214335785254</v>
       </c>
       <c r="K2">
-        <v>1.038015172211618</v>
+        <v>1.038015172211617</v>
       </c>
       <c r="L2">
         <v>0.9952484778255241</v>
       </c>
       <c r="M2">
-        <v>1.013802365100453</v>
+        <v>1.013802365100454</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9791119453836523</v>
+        <v>0.9791119453836518</v>
       </c>
       <c r="D3">
         <v>1.030667154772204</v>
       </c>
       <c r="E3">
-        <v>0.9907857130347952</v>
+        <v>0.9907857130347947</v>
       </c>
       <c r="F3">
         <v>1.0094140616575</v>
@@ -477,13 +477,13 @@
         <v>1.048481995552011</v>
       </c>
       <c r="J3">
-        <v>1.000188702683921</v>
+        <v>1.00018870268392</v>
       </c>
       <c r="K3">
         <v>1.040922122432813</v>
       </c>
       <c r="L3">
-        <v>1.001537866015475</v>
+        <v>1.001537866015474</v>
       </c>
       <c r="M3">
         <v>1.019927888357663</v>
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9845429713737091</v>
+        <v>0.9845429713737089</v>
       </c>
       <c r="D4">
-        <v>1.03301731819465</v>
+        <v>1.033017318194649</v>
       </c>
       <c r="E4">
-        <v>0.9953105805747784</v>
+        <v>0.9953105805747781</v>
       </c>
       <c r="F4">
         <v>1.013819684669016</v>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049755935631386</v>
+        <v>1.049755935631387</v>
       </c>
       <c r="J4">
         <v>1.004350507898766</v>
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9867827054992286</v>
+        <v>0.986782705499228</v>
       </c>
       <c r="D5">
         <v>1.033988160413065</v>
       </c>
       <c r="E5">
-        <v>0.9971783342997097</v>
+        <v>0.997178334299709</v>
       </c>
       <c r="F5">
         <v>1.01563838303388</v>
@@ -553,7 +553,7 @@
         <v>1.050277726267585</v>
       </c>
       <c r="J5">
-        <v>1.00606590027413</v>
+        <v>1.006065900274129</v>
       </c>
       <c r="K5">
         <v>1.043478215920708</v>
@@ -579,7 +579,7 @@
         <v>1.034150186914506</v>
       </c>
       <c r="E6">
-        <v>0.9974899782503472</v>
+        <v>0.9974899782503477</v>
       </c>
       <c r="F6">
         <v>1.015941848100423</v>
@@ -597,7 +597,7 @@
         <v>1.043602435930592</v>
       </c>
       <c r="L6">
-        <v>1.007355594455362</v>
+        <v>1.007355594455363</v>
       </c>
       <c r="M6">
         <v>1.025594813954321</v>
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9845730658311803</v>
+        <v>0.9845730658311792</v>
       </c>
       <c r="D7">
-        <v>1.033030356966407</v>
+        <v>1.033030356966406</v>
       </c>
       <c r="E7">
-        <v>0.9953356702674806</v>
+        <v>0.9953356702674794</v>
       </c>
       <c r="F7">
-        <v>1.013844114900907</v>
+        <v>1.013844114900906</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0497629611243</v>
+        <v>1.049762961124299</v>
       </c>
       <c r="J7">
-        <v>1.00437356075449</v>
+        <v>1.004373560754489</v>
       </c>
       <c r="K7">
-        <v>1.042742958221458</v>
+        <v>1.042742958221457</v>
       </c>
       <c r="L7">
-        <v>1.005487697031891</v>
+        <v>1.00548769703189</v>
       </c>
       <c r="M7">
-        <v>1.023775330070736</v>
+        <v>1.023775330070735</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9733986053592036</v>
+        <v>0.9733986053592025</v>
       </c>
       <c r="D8">
         <v>1.028201587218613</v>
       </c>
       <c r="E8">
-        <v>0.9860320809868665</v>
+        <v>0.9860320809868652</v>
       </c>
       <c r="F8">
-        <v>1.004786645927322</v>
+        <v>1.004786645927321</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,13 +667,13 @@
         <v>1.047129793530644</v>
       </c>
       <c r="J8">
-        <v>0.9958076417785493</v>
+        <v>0.9958076417785483</v>
       </c>
       <c r="K8">
         <v>1.039012633851944</v>
       </c>
       <c r="L8">
-        <v>0.9974046408904378</v>
+        <v>0.9974046408904366</v>
       </c>
       <c r="M8">
         <v>1.015902167097227</v>
@@ -693,10 +693,10 @@
         <v>1.019069642418378</v>
       </c>
       <c r="E9">
-        <v>0.9683425150774801</v>
+        <v>0.9683425150774805</v>
       </c>
       <c r="F9">
-        <v>0.9875818369643532</v>
+        <v>0.9875818369643534</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1.031860723108293</v>
       </c>
       <c r="L9">
-        <v>0.9819709810050572</v>
+        <v>0.9819709810050574</v>
       </c>
       <c r="M9">
         <v>1.00087965544795</v>
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.936485259197403</v>
+        <v>0.9364852591974042</v>
       </c>
       <c r="D10">
         <v>1.012490025093677</v>
       </c>
       <c r="E10">
-        <v>0.9554872519332041</v>
+        <v>0.9554872519332053</v>
       </c>
       <c r="F10">
-        <v>0.9751014577575381</v>
+        <v>0.9751014577575392</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038185023329285</v>
+        <v>1.038185023329286</v>
       </c>
       <c r="J10">
-        <v>0.9674669746080864</v>
+        <v>0.9674669746080875</v>
       </c>
       <c r="K10">
         <v>1.026637371628438</v>
       </c>
       <c r="L10">
-        <v>0.9707095595758721</v>
+        <v>0.9707095595758733</v>
       </c>
       <c r="M10">
-        <v>0.989935301304662</v>
+        <v>0.9899353013046631</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9293473369328971</v>
+        <v>0.9293473369328964</v>
       </c>
       <c r="D11">
         <v>1.009504652696669</v>
       </c>
       <c r="E11">
-        <v>0.949616357379296</v>
+        <v>0.9496163573792953</v>
       </c>
       <c r="F11">
-        <v>0.969410145988556</v>
+        <v>0.9694101459885556</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.036428927970663</v>
       </c>
       <c r="J11">
-        <v>0.9619862908983663</v>
+        <v>0.9619862908983657</v>
       </c>
       <c r="K11">
-        <v>1.024249523878901</v>
+        <v>1.0242495238789</v>
       </c>
       <c r="L11">
-        <v>0.9655553771575527</v>
+        <v>0.9655553771575521</v>
       </c>
       <c r="M11">
-        <v>0.9849329560409781</v>
+        <v>0.9849329560409777</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,7 +801,7 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9266299142198715</v>
+        <v>0.9266299142198713</v>
       </c>
       <c r="D12">
         <v>1.008373258882537</v>
@@ -819,16 +819,16 @@
         <v>1.035759147973804</v>
       </c>
       <c r="J12">
-        <v>0.9599002034154883</v>
+        <v>0.9599002034154882</v>
       </c>
       <c r="K12">
         <v>1.0233417796438</v>
       </c>
       <c r="L12">
-        <v>0.9635942641398459</v>
+        <v>0.9635942641398457</v>
       </c>
       <c r="M12">
-        <v>0.9830308910858846</v>
+        <v>0.9830308910858847</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9272159308058818</v>
+        <v>0.9272159308058811</v>
       </c>
       <c r="D13">
         <v>1.008617000401876</v>
       </c>
       <c r="E13">
-        <v>0.9478656503724189</v>
+        <v>0.9478656503724181</v>
       </c>
       <c r="F13">
-        <v>0.9677141392532876</v>
+        <v>0.9677141392532871</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.03590363631375</v>
       </c>
       <c r="J13">
-        <v>0.9603500480652858</v>
+        <v>0.9603500480652851</v>
       </c>
       <c r="K13">
         <v>1.023537467702134</v>
       </c>
       <c r="L13">
-        <v>0.9640171265802163</v>
+        <v>0.9640171265802152</v>
       </c>
       <c r="M13">
-        <v>0.9834409591641443</v>
+        <v>0.9834409591641438</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,13 +877,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9291241082504409</v>
+        <v>0.9291241082504413</v>
       </c>
       <c r="D14">
-        <v>1.009411602970709</v>
+        <v>1.009411602970708</v>
       </c>
       <c r="E14">
-        <v>0.949432949115568</v>
+        <v>0.9494329491155682</v>
       </c>
       <c r="F14">
         <v>0.9692324426918477</v>
@@ -895,16 +895,16 @@
         <v>1.036373930085476</v>
       </c>
       <c r="J14">
-        <v>0.9618149145243012</v>
+        <v>0.9618149145243015</v>
       </c>
       <c r="K14">
-        <v>1.024174925357905</v>
+        <v>1.024174925357904</v>
       </c>
       <c r="L14">
-        <v>0.9653942531324985</v>
+        <v>0.9653942531324986</v>
       </c>
       <c r="M14">
-        <v>0.9847766558897998</v>
+        <v>0.9847766558897997</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -921,10 +921,10 @@
         <v>1.009898137625064</v>
       </c>
       <c r="E15">
-        <v>0.9503916584868219</v>
+        <v>0.9503916584868218</v>
       </c>
       <c r="F15">
-        <v>0.9701613963519986</v>
+        <v>0.9701613963519987</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.036661327055841</v>
       </c>
       <c r="J15">
-        <v>0.9627106260760437</v>
+        <v>0.9627106260760439</v>
       </c>
       <c r="K15">
-        <v>1.024564868622898</v>
+        <v>1.024564868622897</v>
       </c>
       <c r="L15">
-        <v>0.9662364087806204</v>
+        <v>0.9662364087806207</v>
       </c>
       <c r="M15">
-        <v>0.9855936517398004</v>
+        <v>0.9855936517398005</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9369501369334347</v>
+        <v>0.9369501369334351</v>
       </c>
       <c r="D16">
         <v>1.012685117405399</v>
       </c>
       <c r="E16">
-        <v>0.9558700280735181</v>
+        <v>0.9558700280735184</v>
       </c>
       <c r="F16">
-        <v>0.9754727222169031</v>
+        <v>0.9754727222169032</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.038299205168354</v>
       </c>
       <c r="J16">
-        <v>0.967823963110831</v>
+        <v>0.9678239631108313</v>
       </c>
       <c r="K16">
         <v>1.026793037565711</v>
       </c>
       <c r="L16">
-        <v>0.9710453734767861</v>
+        <v>0.9710453734767862</v>
       </c>
       <c r="M16">
-        <v>0.99026138223913</v>
+        <v>0.9902613822391301</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -997,10 +997,10 @@
         <v>1.01439548972314</v>
       </c>
       <c r="E17">
-        <v>0.9592214078355593</v>
+        <v>0.9592214078355594</v>
       </c>
       <c r="F17">
-        <v>0.978724283623429</v>
+        <v>0.9787242836234286</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.039297130821177</v>
       </c>
       <c r="J17">
-        <v>0.9709477099797067</v>
+        <v>0.9709477099797066</v>
       </c>
       <c r="K17">
         <v>1.028155735545478</v>
       </c>
       <c r="L17">
-        <v>0.9739843183735758</v>
+        <v>0.9739843183735759</v>
       </c>
       <c r="M17">
-        <v>0.993115928396435</v>
+        <v>0.9931159283964349</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9433530629852533</v>
+        <v>0.9433530629852541</v>
       </c>
       <c r="D18">
         <v>1.015380115918542</v>
       </c>
       <c r="E18">
-        <v>0.96114724224055</v>
+        <v>0.961147242240551</v>
       </c>
       <c r="F18">
-        <v>0.9805935194831893</v>
+        <v>0.9805935194831898</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.039869051759888</v>
       </c>
       <c r="J18">
-        <v>0.9727412145438887</v>
+        <v>0.9727412145438895</v>
       </c>
       <c r="K18">
         <v>1.028938546444437</v>
       </c>
       <c r="L18">
-        <v>0.9756721093771972</v>
+        <v>0.9756721093771978</v>
       </c>
       <c r="M18">
-        <v>0.9947558586802522</v>
+        <v>0.9947558586802528</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1073,10 +1073,10 @@
         <v>1.01571369802308</v>
       </c>
       <c r="E19">
-        <v>0.9617991380560821</v>
+        <v>0.9617991380560822</v>
       </c>
       <c r="F19">
-        <v>0.9812263775877654</v>
+        <v>0.981226377587765</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.040062381779778</v>
       </c>
       <c r="J19">
-        <v>0.9733480611649314</v>
+        <v>0.9733480611649313</v>
       </c>
       <c r="K19">
         <v>1.029203475921122</v>
       </c>
       <c r="L19">
-        <v>0.9762432515725871</v>
+        <v>0.9762432515725872</v>
       </c>
       <c r="M19">
-        <v>0.9953109009501004</v>
+        <v>0.9953109009501002</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9405852335038676</v>
+        <v>0.9405852335038668</v>
       </c>
       <c r="D20">
         <v>1.014213341628912</v>
       </c>
       <c r="E20">
-        <v>0.958864869034602</v>
+        <v>0.9588648690346013</v>
       </c>
       <c r="F20">
-        <v>0.9783782829161481</v>
+        <v>0.9783782829161479</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.039191123018126</v>
       </c>
       <c r="J20">
-        <v>0.9706155471964278</v>
+        <v>0.9706155471964273</v>
       </c>
       <c r="K20">
         <v>1.028010787429773</v>
       </c>
       <c r="L20">
-        <v>0.9736717653791863</v>
+        <v>0.9736717653791859</v>
       </c>
       <c r="M20">
-        <v>0.9928122860666585</v>
+        <v>0.9928122860666579</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9285640860791813</v>
+        <v>0.9285640860791811</v>
       </c>
       <c r="D21">
         <v>1.009178251017502</v>
       </c>
       <c r="E21">
-        <v>0.9489728787266326</v>
+        <v>0.9489728787266325</v>
       </c>
       <c r="F21">
-        <v>0.9687867090998098</v>
+        <v>0.9687867090998097</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.036235936377391</v>
       </c>
       <c r="J21">
-        <v>0.9613849838757392</v>
+        <v>0.9613849838757389</v>
       </c>
       <c r="K21">
         <v>1.023987800265185</v>
       </c>
       <c r="L21">
-        <v>0.9649900539439441</v>
+        <v>0.964990053943944</v>
       </c>
       <c r="M21">
-        <v>0.9843845794301571</v>
+        <v>0.984384579430157</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9206190178282411</v>
+        <v>0.9206190178282408</v>
       </c>
       <c r="D22">
         <v>1.005881099551413</v>
       </c>
       <c r="E22">
-        <v>0.9424540571190169</v>
+        <v>0.9424540571190166</v>
       </c>
       <c r="F22">
-        <v>0.9624752028849572</v>
+        <v>0.9624752028849575</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.034275772785685</v>
       </c>
       <c r="J22">
-        <v>0.9552869086192577</v>
+        <v>0.9552869086192576</v>
       </c>
       <c r="K22">
         <v>1.021336944122172</v>
       </c>
       <c r="L22">
-        <v>0.9592587188714962</v>
+        <v>0.9592587188714959</v>
       </c>
       <c r="M22">
-        <v>0.9788285773507593</v>
+        <v>0.9788285773507595</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,13 +1219,13 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9248702842545055</v>
+        <v>0.9248702842545053</v>
       </c>
       <c r="D23">
         <v>1.007642196479716</v>
       </c>
       <c r="E23">
-        <v>0.9459402424250279</v>
+        <v>0.9459402424250281</v>
       </c>
       <c r="F23">
         <v>0.9658495311105597</v>
@@ -1234,19 +1234,19 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035325143399943</v>
+        <v>1.035325143399942</v>
       </c>
       <c r="J23">
-        <v>0.9585495400430313</v>
+        <v>0.9585495400430314</v>
       </c>
       <c r="K23">
         <v>1.022754425051291</v>
       </c>
       <c r="L23">
-        <v>0.9623247231755904</v>
+        <v>0.9623247231755905</v>
       </c>
       <c r="M23">
-        <v>0.9817999718183076</v>
+        <v>0.9817999718183075</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9407807828405856</v>
+        <v>0.9407807828405861</v>
       </c>
       <c r="D24">
         <v>1.014295686554322</v>
       </c>
       <c r="E24">
-        <v>0.9590260626967309</v>
+        <v>0.9590260626967311</v>
       </c>
       <c r="F24">
-        <v>0.9785347098882556</v>
+        <v>0.9785347098882562</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.039239054644053</v>
       </c>
       <c r="J24">
-        <v>0.9707657250207032</v>
+        <v>0.9707657250207035</v>
       </c>
       <c r="K24">
         <v>1.028076320277814</v>
       </c>
       <c r="L24">
-        <v>0.9738130759916164</v>
+        <v>0.9738130759916166</v>
       </c>
       <c r="M24">
-        <v>0.9929495661408367</v>
+        <v>0.9929495661408373</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9577987315960762</v>
+        <v>0.9577987315960763</v>
       </c>
       <c r="D25">
         <v>1.021511203109815</v>
       </c>
       <c r="E25">
-        <v>0.9730872527381276</v>
+        <v>0.9730872527381275</v>
       </c>
       <c r="F25">
-        <v>0.9921935924966967</v>
+        <v>0.9921935924966965</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>1.043386132628652</v>
       </c>
       <c r="J25">
-        <v>0.9838348644014577</v>
+        <v>0.9838348644014576</v>
       </c>
       <c r="K25">
         <v>1.033784516961654</v>
@@ -1322,7 +1322,7 @@
         <v>0.9861182342611857</v>
       </c>
       <c r="M25">
-        <v>1.004914313845621</v>
+        <v>1.00491431384562</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_bus/vm_pu.xlsx
@@ -427,28 +427,28 @@
         <v>1.026918537619107</v>
       </c>
       <c r="E2">
-        <v>0.9835551846983767</v>
+        <v>0.9835551846983766</v>
       </c>
       <c r="F2">
-        <v>1.002376033239401</v>
+        <v>1.0023760332394</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04642005595079</v>
+        <v>1.046420055950791</v>
       </c>
       <c r="J2">
-        <v>0.9935214335785254</v>
+        <v>0.9935214335785253</v>
       </c>
       <c r="K2">
-        <v>1.038015172211617</v>
+        <v>1.038015172211618</v>
       </c>
       <c r="L2">
         <v>0.9952484778255241</v>
       </c>
       <c r="M2">
-        <v>1.013802365100454</v>
+        <v>1.013802365100453</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9791119453836518</v>
+        <v>0.9791119453836523</v>
       </c>
       <c r="D3">
         <v>1.030667154772204</v>
       </c>
       <c r="E3">
-        <v>0.9907857130347947</v>
+        <v>0.9907857130347952</v>
       </c>
       <c r="F3">
         <v>1.0094140616575</v>
@@ -477,13 +477,13 @@
         <v>1.048481995552011</v>
       </c>
       <c r="J3">
-        <v>1.00018870268392</v>
+        <v>1.000188702683921</v>
       </c>
       <c r="K3">
         <v>1.040922122432813</v>
       </c>
       <c r="L3">
-        <v>1.001537866015474</v>
+        <v>1.001537866015475</v>
       </c>
       <c r="M3">
         <v>1.019927888357663</v>
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9845429713737089</v>
+        <v>0.9845429713737091</v>
       </c>
       <c r="D4">
-        <v>1.033017318194649</v>
+        <v>1.03301731819465</v>
       </c>
       <c r="E4">
-        <v>0.9953105805747781</v>
+        <v>0.9953105805747784</v>
       </c>
       <c r="F4">
         <v>1.013819684669016</v>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049755935631387</v>
+        <v>1.049755935631386</v>
       </c>
       <c r="J4">
         <v>1.004350507898766</v>
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.986782705499228</v>
+        <v>0.9867827054992286</v>
       </c>
       <c r="D5">
         <v>1.033988160413065</v>
       </c>
       <c r="E5">
-        <v>0.997178334299709</v>
+        <v>0.9971783342997097</v>
       </c>
       <c r="F5">
         <v>1.01563838303388</v>
@@ -553,7 +553,7 @@
         <v>1.050277726267585</v>
       </c>
       <c r="J5">
-        <v>1.006065900274129</v>
+        <v>1.00606590027413</v>
       </c>
       <c r="K5">
         <v>1.043478215920708</v>
@@ -579,7 +579,7 @@
         <v>1.034150186914506</v>
       </c>
       <c r="E6">
-        <v>0.9974899782503477</v>
+        <v>0.9974899782503472</v>
       </c>
       <c r="F6">
         <v>1.015941848100423</v>
@@ -597,7 +597,7 @@
         <v>1.043602435930592</v>
       </c>
       <c r="L6">
-        <v>1.007355594455363</v>
+        <v>1.007355594455362</v>
       </c>
       <c r="M6">
         <v>1.025594813954321</v>
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9845730658311792</v>
+        <v>0.9845730658311803</v>
       </c>
       <c r="D7">
-        <v>1.033030356966406</v>
+        <v>1.033030356966407</v>
       </c>
       <c r="E7">
-        <v>0.9953356702674794</v>
+        <v>0.9953356702674806</v>
       </c>
       <c r="F7">
-        <v>1.013844114900906</v>
+        <v>1.013844114900907</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049762961124299</v>
+        <v>1.0497629611243</v>
       </c>
       <c r="J7">
-        <v>1.004373560754489</v>
+        <v>1.00437356075449</v>
       </c>
       <c r="K7">
-        <v>1.042742958221457</v>
+        <v>1.042742958221458</v>
       </c>
       <c r="L7">
-        <v>1.00548769703189</v>
+        <v>1.005487697031891</v>
       </c>
       <c r="M7">
-        <v>1.023775330070735</v>
+        <v>1.023775330070736</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9733986053592025</v>
+        <v>0.9733986053592036</v>
       </c>
       <c r="D8">
         <v>1.028201587218613</v>
       </c>
       <c r="E8">
-        <v>0.9860320809868652</v>
+        <v>0.9860320809868665</v>
       </c>
       <c r="F8">
-        <v>1.004786645927321</v>
+        <v>1.004786645927322</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,13 +667,13 @@
         <v>1.047129793530644</v>
       </c>
       <c r="J8">
-        <v>0.9958076417785483</v>
+        <v>0.9958076417785493</v>
       </c>
       <c r="K8">
         <v>1.039012633851944</v>
       </c>
       <c r="L8">
-        <v>0.9974046408904366</v>
+        <v>0.9974046408904378</v>
       </c>
       <c r="M8">
         <v>1.015902167097227</v>
@@ -693,10 +693,10 @@
         <v>1.019069642418378</v>
       </c>
       <c r="E9">
-        <v>0.9683425150774805</v>
+        <v>0.9683425150774801</v>
       </c>
       <c r="F9">
-        <v>0.9875818369643534</v>
+        <v>0.9875818369643532</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1.031860723108293</v>
       </c>
       <c r="L9">
-        <v>0.9819709810050574</v>
+        <v>0.9819709810050572</v>
       </c>
       <c r="M9">
         <v>1.00087965544795</v>
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9364852591974042</v>
+        <v>0.936485259197403</v>
       </c>
       <c r="D10">
         <v>1.012490025093677</v>
       </c>
       <c r="E10">
-        <v>0.9554872519332053</v>
+        <v>0.9554872519332041</v>
       </c>
       <c r="F10">
-        <v>0.9751014577575392</v>
+        <v>0.9751014577575381</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038185023329286</v>
+        <v>1.038185023329285</v>
       </c>
       <c r="J10">
-        <v>0.9674669746080875</v>
+        <v>0.9674669746080864</v>
       </c>
       <c r="K10">
         <v>1.026637371628438</v>
       </c>
       <c r="L10">
-        <v>0.9707095595758733</v>
+        <v>0.9707095595758721</v>
       </c>
       <c r="M10">
-        <v>0.9899353013046631</v>
+        <v>0.989935301304662</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9293473369328964</v>
+        <v>0.9293473369328971</v>
       </c>
       <c r="D11">
         <v>1.009504652696669</v>
       </c>
       <c r="E11">
-        <v>0.9496163573792953</v>
+        <v>0.949616357379296</v>
       </c>
       <c r="F11">
-        <v>0.9694101459885556</v>
+        <v>0.969410145988556</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.036428927970663</v>
       </c>
       <c r="J11">
-        <v>0.9619862908983657</v>
+        <v>0.9619862908983663</v>
       </c>
       <c r="K11">
-        <v>1.0242495238789</v>
+        <v>1.024249523878901</v>
       </c>
       <c r="L11">
-        <v>0.9655553771575521</v>
+        <v>0.9655553771575527</v>
       </c>
       <c r="M11">
-        <v>0.9849329560409777</v>
+        <v>0.9849329560409781</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,7 +801,7 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9266299142198713</v>
+        <v>0.9266299142198715</v>
       </c>
       <c r="D12">
         <v>1.008373258882537</v>
@@ -819,16 +819,16 @@
         <v>1.035759147973804</v>
       </c>
       <c r="J12">
-        <v>0.9599002034154882</v>
+        <v>0.9599002034154883</v>
       </c>
       <c r="K12">
         <v>1.0233417796438</v>
       </c>
       <c r="L12">
-        <v>0.9635942641398457</v>
+        <v>0.9635942641398459</v>
       </c>
       <c r="M12">
-        <v>0.9830308910858847</v>
+        <v>0.9830308910858846</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9272159308058811</v>
+        <v>0.9272159308058818</v>
       </c>
       <c r="D13">
         <v>1.008617000401876</v>
       </c>
       <c r="E13">
-        <v>0.9478656503724181</v>
+        <v>0.9478656503724189</v>
       </c>
       <c r="F13">
-        <v>0.9677141392532871</v>
+        <v>0.9677141392532876</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.03590363631375</v>
       </c>
       <c r="J13">
-        <v>0.9603500480652851</v>
+        <v>0.9603500480652858</v>
       </c>
       <c r="K13">
         <v>1.023537467702134</v>
       </c>
       <c r="L13">
-        <v>0.9640171265802152</v>
+        <v>0.9640171265802163</v>
       </c>
       <c r="M13">
-        <v>0.9834409591641438</v>
+        <v>0.9834409591641443</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,13 +877,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9291241082504413</v>
+        <v>0.9291241082504409</v>
       </c>
       <c r="D14">
-        <v>1.009411602970708</v>
+        <v>1.009411602970709</v>
       </c>
       <c r="E14">
-        <v>0.9494329491155682</v>
+        <v>0.949432949115568</v>
       </c>
       <c r="F14">
         <v>0.9692324426918477</v>
@@ -895,16 +895,16 @@
         <v>1.036373930085476</v>
       </c>
       <c r="J14">
-        <v>0.9618149145243015</v>
+        <v>0.9618149145243012</v>
       </c>
       <c r="K14">
-        <v>1.024174925357904</v>
+        <v>1.024174925357905</v>
       </c>
       <c r="L14">
-        <v>0.9653942531324986</v>
+        <v>0.9653942531324985</v>
       </c>
       <c r="M14">
-        <v>0.9847766558897997</v>
+        <v>0.9847766558897998</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -921,10 +921,10 @@
         <v>1.009898137625064</v>
       </c>
       <c r="E15">
-        <v>0.9503916584868218</v>
+        <v>0.9503916584868219</v>
       </c>
       <c r="F15">
-        <v>0.9701613963519987</v>
+        <v>0.9701613963519986</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.036661327055841</v>
       </c>
       <c r="J15">
-        <v>0.9627106260760439</v>
+        <v>0.9627106260760437</v>
       </c>
       <c r="K15">
-        <v>1.024564868622897</v>
+        <v>1.024564868622898</v>
       </c>
       <c r="L15">
-        <v>0.9662364087806207</v>
+        <v>0.9662364087806204</v>
       </c>
       <c r="M15">
-        <v>0.9855936517398005</v>
+        <v>0.9855936517398004</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9369501369334351</v>
+        <v>0.9369501369334347</v>
       </c>
       <c r="D16">
         <v>1.012685117405399</v>
       </c>
       <c r="E16">
-        <v>0.9558700280735184</v>
+        <v>0.9558700280735181</v>
       </c>
       <c r="F16">
-        <v>0.9754727222169032</v>
+        <v>0.9754727222169031</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.038299205168354</v>
       </c>
       <c r="J16">
-        <v>0.9678239631108313</v>
+        <v>0.967823963110831</v>
       </c>
       <c r="K16">
         <v>1.026793037565711</v>
       </c>
       <c r="L16">
-        <v>0.9710453734767862</v>
+        <v>0.9710453734767861</v>
       </c>
       <c r="M16">
-        <v>0.9902613822391301</v>
+        <v>0.99026138223913</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -997,10 +997,10 @@
         <v>1.01439548972314</v>
       </c>
       <c r="E17">
-        <v>0.9592214078355594</v>
+        <v>0.9592214078355593</v>
       </c>
       <c r="F17">
-        <v>0.9787242836234286</v>
+        <v>0.978724283623429</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.039297130821177</v>
       </c>
       <c r="J17">
-        <v>0.9709477099797066</v>
+        <v>0.9709477099797067</v>
       </c>
       <c r="K17">
         <v>1.028155735545478</v>
       </c>
       <c r="L17">
-        <v>0.9739843183735759</v>
+        <v>0.9739843183735758</v>
       </c>
       <c r="M17">
-        <v>0.9931159283964349</v>
+        <v>0.993115928396435</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9433530629852541</v>
+        <v>0.9433530629852533</v>
       </c>
       <c r="D18">
         <v>1.015380115918542</v>
       </c>
       <c r="E18">
-        <v>0.961147242240551</v>
+        <v>0.96114724224055</v>
       </c>
       <c r="F18">
-        <v>0.9805935194831898</v>
+        <v>0.9805935194831893</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.039869051759888</v>
       </c>
       <c r="J18">
-        <v>0.9727412145438895</v>
+        <v>0.9727412145438887</v>
       </c>
       <c r="K18">
         <v>1.028938546444437</v>
       </c>
       <c r="L18">
-        <v>0.9756721093771978</v>
+        <v>0.9756721093771972</v>
       </c>
       <c r="M18">
-        <v>0.9947558586802528</v>
+        <v>0.9947558586802522</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1073,10 +1073,10 @@
         <v>1.01571369802308</v>
       </c>
       <c r="E19">
-        <v>0.9617991380560822</v>
+        <v>0.9617991380560821</v>
       </c>
       <c r="F19">
-        <v>0.981226377587765</v>
+        <v>0.9812263775877654</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.040062381779778</v>
       </c>
       <c r="J19">
-        <v>0.9733480611649313</v>
+        <v>0.9733480611649314</v>
       </c>
       <c r="K19">
         <v>1.029203475921122</v>
       </c>
       <c r="L19">
-        <v>0.9762432515725872</v>
+        <v>0.9762432515725871</v>
       </c>
       <c r="M19">
-        <v>0.9953109009501002</v>
+        <v>0.9953109009501004</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9405852335038668</v>
+        <v>0.9405852335038676</v>
       </c>
       <c r="D20">
         <v>1.014213341628912</v>
       </c>
       <c r="E20">
-        <v>0.9588648690346013</v>
+        <v>0.958864869034602</v>
       </c>
       <c r="F20">
-        <v>0.9783782829161479</v>
+        <v>0.9783782829161481</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.039191123018126</v>
       </c>
       <c r="J20">
-        <v>0.9706155471964273</v>
+        <v>0.9706155471964278</v>
       </c>
       <c r="K20">
         <v>1.028010787429773</v>
       </c>
       <c r="L20">
-        <v>0.9736717653791859</v>
+        <v>0.9736717653791863</v>
       </c>
       <c r="M20">
-        <v>0.9928122860666579</v>
+        <v>0.9928122860666585</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9285640860791811</v>
+        <v>0.9285640860791813</v>
       </c>
       <c r="D21">
         <v>1.009178251017502</v>
       </c>
       <c r="E21">
-        <v>0.9489728787266325</v>
+        <v>0.9489728787266326</v>
       </c>
       <c r="F21">
-        <v>0.9687867090998097</v>
+        <v>0.9687867090998098</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.036235936377391</v>
       </c>
       <c r="J21">
-        <v>0.9613849838757389</v>
+        <v>0.9613849838757392</v>
       </c>
       <c r="K21">
         <v>1.023987800265185</v>
       </c>
       <c r="L21">
-        <v>0.964990053943944</v>
+        <v>0.9649900539439441</v>
       </c>
       <c r="M21">
-        <v>0.984384579430157</v>
+        <v>0.9843845794301571</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9206190178282408</v>
+        <v>0.9206190178282411</v>
       </c>
       <c r="D22">
         <v>1.005881099551413</v>
       </c>
       <c r="E22">
-        <v>0.9424540571190166</v>
+        <v>0.9424540571190169</v>
       </c>
       <c r="F22">
-        <v>0.9624752028849575</v>
+        <v>0.9624752028849572</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.034275772785685</v>
       </c>
       <c r="J22">
-        <v>0.9552869086192576</v>
+        <v>0.9552869086192577</v>
       </c>
       <c r="K22">
         <v>1.021336944122172</v>
       </c>
       <c r="L22">
-        <v>0.9592587188714959</v>
+        <v>0.9592587188714962</v>
       </c>
       <c r="M22">
-        <v>0.9788285773507595</v>
+        <v>0.9788285773507593</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,13 +1219,13 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9248702842545053</v>
+        <v>0.9248702842545055</v>
       </c>
       <c r="D23">
         <v>1.007642196479716</v>
       </c>
       <c r="E23">
-        <v>0.9459402424250281</v>
+        <v>0.9459402424250279</v>
       </c>
       <c r="F23">
         <v>0.9658495311105597</v>
@@ -1234,19 +1234,19 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035325143399942</v>
+        <v>1.035325143399943</v>
       </c>
       <c r="J23">
-        <v>0.9585495400430314</v>
+        <v>0.9585495400430313</v>
       </c>
       <c r="K23">
         <v>1.022754425051291</v>
       </c>
       <c r="L23">
-        <v>0.9623247231755905</v>
+        <v>0.9623247231755904</v>
       </c>
       <c r="M23">
-        <v>0.9817999718183075</v>
+        <v>0.9817999718183076</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9407807828405861</v>
+        <v>0.9407807828405856</v>
       </c>
       <c r="D24">
         <v>1.014295686554322</v>
       </c>
       <c r="E24">
-        <v>0.9590260626967311</v>
+        <v>0.9590260626967309</v>
       </c>
       <c r="F24">
-        <v>0.9785347098882562</v>
+        <v>0.9785347098882556</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.039239054644053</v>
       </c>
       <c r="J24">
-        <v>0.9707657250207035</v>
+        <v>0.9707657250207032</v>
       </c>
       <c r="K24">
         <v>1.028076320277814</v>
       </c>
       <c r="L24">
-        <v>0.9738130759916166</v>
+        <v>0.9738130759916164</v>
       </c>
       <c r="M24">
-        <v>0.9929495661408373</v>
+        <v>0.9929495661408367</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9577987315960763</v>
+        <v>0.9577987315960762</v>
       </c>
       <c r="D25">
         <v>1.021511203109815</v>
       </c>
       <c r="E25">
-        <v>0.9730872527381275</v>
+        <v>0.9730872527381276</v>
       </c>
       <c r="F25">
-        <v>0.9921935924966965</v>
+        <v>0.9921935924966967</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>1.043386132628652</v>
       </c>
       <c r="J25">
-        <v>0.9838348644014576</v>
+        <v>0.9838348644014577</v>
       </c>
       <c r="K25">
         <v>1.033784516961654</v>
@@ -1322,7 +1322,7 @@
         <v>0.9861182342611857</v>
       </c>
       <c r="M25">
-        <v>1.00491431384562</v>
+        <v>1.004914313845621</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9704184509315918</v>
+        <v>0.970450506678502</v>
       </c>
       <c r="D2">
-        <v>1.026918537619107</v>
+        <v>1.026927505022073</v>
       </c>
       <c r="E2">
-        <v>0.9835551846983766</v>
+        <v>0.9835834779455035</v>
       </c>
       <c r="F2">
-        <v>1.0023760332394</v>
+        <v>1.002398381568955</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046420055950791</v>
+        <v>1.04642768297832</v>
       </c>
       <c r="J2">
-        <v>0.9935214335785253</v>
+        <v>0.993552447651606</v>
       </c>
       <c r="K2">
-        <v>1.038015172211618</v>
+        <v>1.038024022756731</v>
       </c>
       <c r="L2">
-        <v>0.9952484778255241</v>
+        <v>0.995276360030357</v>
       </c>
       <c r="M2">
-        <v>1.013802365100453</v>
+        <v>1.013824403949672</v>
+      </c>
+      <c r="N2">
+        <v>0.9971293923396193</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9791119453836523</v>
+        <v>0.9791365648893253</v>
       </c>
       <c r="D3">
-        <v>1.030667154772204</v>
+        <v>1.030674136900021</v>
       </c>
       <c r="E3">
-        <v>0.9907857130347952</v>
+        <v>0.9908076035088741</v>
       </c>
       <c r="F3">
-        <v>1.0094140616575</v>
+        <v>1.009431373528469</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048481995552011</v>
+        <v>1.048487944133994</v>
       </c>
       <c r="J3">
-        <v>1.000188702683921</v>
+        <v>1.000212611217911</v>
       </c>
       <c r="K3">
-        <v>1.040922122432813</v>
+        <v>1.040929021693791</v>
       </c>
       <c r="L3">
-        <v>1.001537866015475</v>
+        <v>1.001559469839715</v>
       </c>
       <c r="M3">
-        <v>1.019927888357663</v>
+        <v>1.019944983845458</v>
+      </c>
+      <c r="N3">
+        <v>1.001755278455421</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9845429713737091</v>
+        <v>0.9845630543118911</v>
       </c>
       <c r="D4">
-        <v>1.03301731819465</v>
+        <v>1.0330230910921</v>
       </c>
       <c r="E4">
-        <v>0.9953105805747784</v>
+        <v>0.9953285567203596</v>
       </c>
       <c r="F4">
-        <v>1.013819684669016</v>
+        <v>1.013833926719523</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049755935631386</v>
+        <v>1.049760858558384</v>
       </c>
       <c r="J4">
-        <v>1.004350507898766</v>
+        <v>1.004370054970017</v>
       </c>
       <c r="K4">
-        <v>1.042732937971706</v>
+        <v>1.042738646571457</v>
       </c>
       <c r="L4">
-        <v>1.005465934210719</v>
+        <v>1.005483690856319</v>
       </c>
       <c r="M4">
-        <v>1.023754131169032</v>
+        <v>1.023768207081741</v>
+      </c>
+      <c r="N4">
+        <v>1.00464039062961</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9867827054992286</v>
+        <v>0.9868009405106996</v>
       </c>
       <c r="D5">
-        <v>1.033988160413065</v>
+        <v>1.033993441222595</v>
       </c>
       <c r="E5">
-        <v>0.9971783342997097</v>
+        <v>0.9971947143359462</v>
       </c>
       <c r="F5">
-        <v>1.01563838303388</v>
+        <v>1.015651375356091</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050277726267585</v>
+        <v>1.050282231068211</v>
       </c>
       <c r="J5">
-        <v>1.00606590027413</v>
+        <v>1.006083664977405</v>
       </c>
       <c r="K5">
-        <v>1.043478215920708</v>
+        <v>1.043483439508861</v>
       </c>
       <c r="L5">
-        <v>1.007085475571367</v>
+        <v>1.007101661528412</v>
       </c>
       <c r="M5">
-        <v>1.025331698500185</v>
+        <v>1.025344543704987</v>
+      </c>
+      <c r="N5">
+        <v>1.005828956092719</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9871563002197743</v>
+        <v>0.9871742282546191</v>
       </c>
       <c r="D6">
-        <v>1.034150186914506</v>
+        <v>1.03415538600737</v>
       </c>
       <c r="E6">
-        <v>0.9974899782503472</v>
+        <v>0.9975060930537417</v>
       </c>
       <c r="F6">
-        <v>1.015941848100423</v>
+        <v>1.015954632863498</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050364547402959</v>
+        <v>1.050368982726754</v>
       </c>
       <c r="J6">
-        <v>1.006351976082215</v>
+        <v>1.006369444376807</v>
       </c>
       <c r="K6">
-        <v>1.043602435930592</v>
+        <v>1.043607578949802</v>
       </c>
       <c r="L6">
-        <v>1.007355594455362</v>
+        <v>1.007371519293245</v>
       </c>
       <c r="M6">
-        <v>1.025594813954321</v>
+        <v>1.025607454677925</v>
+      </c>
+      <c r="N6">
+        <v>1.006027136768416</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9845730658311803</v>
+        <v>0.9845931238525574</v>
       </c>
       <c r="D7">
-        <v>1.033030356966407</v>
+        <v>1.033036123226781</v>
       </c>
       <c r="E7">
-        <v>0.9953356702674806</v>
+        <v>0.9953536248978136</v>
       </c>
       <c r="F7">
-        <v>1.013844114900907</v>
+        <v>1.013858340097502</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0497629611243</v>
+        <v>1.049767878414675</v>
       </c>
       <c r="J7">
-        <v>1.00437356075449</v>
+        <v>1.004393083815083</v>
       </c>
       <c r="K7">
-        <v>1.042742958221458</v>
+        <v>1.042748660281446</v>
       </c>
       <c r="L7">
-        <v>1.005487697031891</v>
+        <v>1.005505432512488</v>
       </c>
       <c r="M7">
-        <v>1.023775330070736</v>
+        <v>1.023789389391595</v>
+      </c>
+      <c r="N7">
+        <v>1.004656365980614</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9733986053592036</v>
+        <v>0.9734280867152407</v>
       </c>
       <c r="D8">
-        <v>1.028201587218613</v>
+        <v>1.028209866935365</v>
       </c>
       <c r="E8">
-        <v>0.9860320809868665</v>
+        <v>0.98605815962058</v>
       </c>
       <c r="F8">
-        <v>1.004786645927322</v>
+        <v>1.00480725012753</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047129793530644</v>
+        <v>1.047136839903473</v>
       </c>
       <c r="J8">
-        <v>0.9958076417785493</v>
+        <v>0.9958362020961391</v>
       </c>
       <c r="K8">
-        <v>1.039012633851944</v>
+        <v>1.039020808965593</v>
       </c>
       <c r="L8">
-        <v>0.9974046408904378</v>
+        <v>0.9974303535336794</v>
       </c>
       <c r="M8">
-        <v>1.015902167097227</v>
+        <v>1.015922495538167</v>
+      </c>
+      <c r="N8">
+        <v>0.9987161109891337</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9520650056201534</v>
+        <v>0.9521135577899461</v>
       </c>
       <c r="D9">
-        <v>1.019069642418378</v>
+        <v>1.019083023443969</v>
       </c>
       <c r="E9">
-        <v>0.9683425150774801</v>
+        <v>0.9683849440039469</v>
       </c>
       <c r="F9">
-        <v>0.9875818369643532</v>
+        <v>0.9876153690974373</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041994893738192</v>
+        <v>1.042006229706306</v>
       </c>
       <c r="J9">
-        <v>0.9794319316866305</v>
+        <v>0.9794785149095787</v>
       </c>
       <c r="K9">
-        <v>1.031860723108293</v>
+        <v>1.031873897293299</v>
       </c>
       <c r="L9">
-        <v>0.9819709810050572</v>
+        <v>0.9820126620063504</v>
       </c>
       <c r="M9">
-        <v>1.00087965544795</v>
+        <v>1.000912625792954</v>
+      </c>
+      <c r="N9">
+        <v>0.9873411174810914</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.936485259197403</v>
+        <v>0.9365488083957212</v>
       </c>
       <c r="D10">
-        <v>1.012490025093677</v>
+        <v>1.012507423292834</v>
       </c>
       <c r="E10">
-        <v>0.9554872519332041</v>
+        <v>0.9555424401390725</v>
       </c>
       <c r="F10">
-        <v>0.9751014577575381</v>
+        <v>0.9751451576126635</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038185023329285</v>
+        <v>1.038199710692785</v>
       </c>
       <c r="J10">
-        <v>0.9674669746080864</v>
+        <v>0.9675274828051391</v>
       </c>
       <c r="K10">
-        <v>1.026637371628438</v>
+        <v>1.026654465662995</v>
       </c>
       <c r="L10">
-        <v>0.9707095595758721</v>
+        <v>0.9707636252777775</v>
       </c>
       <c r="M10">
-        <v>0.989935301304662</v>
+        <v>0.9899781585256821</v>
+      </c>
+      <c r="N10">
+        <v>0.9790189069800607</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9293473369328971</v>
+        <v>0.9294181107824288</v>
       </c>
       <c r="D11">
-        <v>1.009504652696669</v>
+        <v>1.009523985666924</v>
       </c>
       <c r="E11">
-        <v>0.949616357379296</v>
+        <v>0.9496776586701104</v>
       </c>
       <c r="F11">
-        <v>0.969410145988556</v>
+        <v>0.9694587404312349</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036428927970663</v>
+        <v>1.036445221996645</v>
       </c>
       <c r="J11">
-        <v>0.9619862908983663</v>
+        <v>0.9620534310549468</v>
       </c>
       <c r="K11">
-        <v>1.024249523878901</v>
+        <v>1.024268501156252</v>
       </c>
       <c r="L11">
-        <v>0.9655553771575527</v>
+        <v>0.9656153539025835</v>
       </c>
       <c r="M11">
-        <v>0.9849329560409781</v>
+        <v>0.9849805562508755</v>
+      </c>
+      <c r="N11">
+        <v>0.9752046986761805</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9266299142198715</v>
+        <v>0.9267035026044673</v>
       </c>
       <c r="D12">
-        <v>1.008373258882537</v>
+        <v>1.008393345296612</v>
       </c>
       <c r="E12">
-        <v>0.9473844972223485</v>
+        <v>0.9474481739127236</v>
       </c>
       <c r="F12">
-        <v>0.9672481161123699</v>
+        <v>0.9672986163512658</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035759147973804</v>
+        <v>1.035776066449623</v>
       </c>
       <c r="J12">
-        <v>0.9599002034154883</v>
+        <v>0.9599699140363092</v>
       </c>
       <c r="K12">
-        <v>1.0233417796438</v>
+        <v>1.023361489542672</v>
       </c>
       <c r="L12">
-        <v>0.9635942641398459</v>
+        <v>0.9636565339633293</v>
       </c>
       <c r="M12">
-        <v>0.9830308910858846</v>
+        <v>0.9830803353037613</v>
+      </c>
+      <c r="N12">
+        <v>0.9737526451268447</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9272159308058818</v>
+        <v>0.9272889091380834</v>
       </c>
       <c r="D13">
-        <v>1.008617000401876</v>
+        <v>1.008636923523953</v>
       </c>
       <c r="E13">
-        <v>0.9478656503724189</v>
+        <v>0.9479288124862746</v>
       </c>
       <c r="F13">
-        <v>0.9677141392532876</v>
+        <v>0.9677642264636547</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03590363631375</v>
+        <v>1.035920419510663</v>
       </c>
       <c r="J13">
-        <v>0.9603500480652858</v>
+        <v>0.9604192021583356</v>
       </c>
       <c r="K13">
-        <v>1.023537467702134</v>
+        <v>1.023557018856668</v>
       </c>
       <c r="L13">
-        <v>0.9640171265802163</v>
+        <v>0.9640788998387951</v>
       </c>
       <c r="M13">
-        <v>0.9834409591641443</v>
+        <v>0.9834900038735049</v>
+      </c>
+      <c r="N13">
+        <v>0.9740657777075563</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9291241082504409</v>
+        <v>0.9291951119370293</v>
       </c>
       <c r="D14">
-        <v>1.009411602970709</v>
+        <v>1.009430997475148</v>
       </c>
       <c r="E14">
-        <v>0.949432949115568</v>
+        <v>0.9494944445124792</v>
       </c>
       <c r="F14">
-        <v>0.9692324426918477</v>
+        <v>0.9692811927866243</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036373930085476</v>
+        <v>1.036390275135755</v>
       </c>
       <c r="J14">
-        <v>0.9618149145243012</v>
+        <v>0.9618822648621989</v>
       </c>
       <c r="K14">
-        <v>1.024174925357905</v>
+        <v>1.024193962484386</v>
       </c>
       <c r="L14">
-        <v>0.9653942531324985</v>
+        <v>0.9654544173359499</v>
       </c>
       <c r="M14">
-        <v>0.9847766558897998</v>
+        <v>0.9848244067626186</v>
+      </c>
+      <c r="N14">
+        <v>0.9750854146191126</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9302908054837875</v>
+        <v>0.9303606106047706</v>
       </c>
       <c r="D15">
-        <v>1.009898137625064</v>
+        <v>1.009917211224773</v>
       </c>
       <c r="E15">
-        <v>0.9503916584868219</v>
+        <v>0.9504521413981154</v>
       </c>
       <c r="F15">
-        <v>0.9701613963519986</v>
+        <v>0.9702093347010339</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036661327055841</v>
+        <v>1.036677405961477</v>
       </c>
       <c r="J15">
-        <v>0.9627106260760437</v>
+        <v>0.9627768798103146</v>
       </c>
       <c r="K15">
-        <v>1.024564868622898</v>
+        <v>1.024583593601613</v>
       </c>
       <c r="L15">
-        <v>0.9662364087806204</v>
+        <v>0.966295595017848</v>
       </c>
       <c r="M15">
-        <v>0.9855936517398004</v>
+        <v>0.9856406167733751</v>
+      </c>
+      <c r="N15">
+        <v>0.9757088511592586</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9369501369334347</v>
+        <v>0.9370132237461769</v>
       </c>
       <c r="D16">
-        <v>1.012685117405399</v>
+        <v>1.012702391751055</v>
       </c>
       <c r="E16">
-        <v>0.9558700280735181</v>
+        <v>0.9559248242769206</v>
       </c>
       <c r="F16">
-        <v>0.9754727222169031</v>
+        <v>0.9755161087051719</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038299205168354</v>
+        <v>1.038313789523736</v>
       </c>
       <c r="J16">
-        <v>0.967823963110831</v>
+        <v>0.9678840451841911</v>
       </c>
       <c r="K16">
-        <v>1.026793037565711</v>
+        <v>1.026810010946934</v>
       </c>
       <c r="L16">
-        <v>0.9710453734767861</v>
+        <v>0.9710990596428708</v>
       </c>
       <c r="M16">
-        <v>0.99026138223913</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.990303935444992</v>
+      </c>
+      <c r="N16">
+        <v>0.9792673086141498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9410177481271427</v>
+        <v>0.9410768298043959</v>
       </c>
       <c r="D17">
-        <v>1.01439548972314</v>
+        <v>1.01441169119435</v>
       </c>
       <c r="E17">
-        <v>0.9592214078355593</v>
+        <v>0.9592728047937155</v>
       </c>
       <c r="F17">
-        <v>0.978724283623429</v>
+        <v>0.9787649553280052</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039297130821177</v>
+        <v>1.039310822050168</v>
       </c>
       <c r="J17">
-        <v>0.9709477099797067</v>
+        <v>0.9710040925294445</v>
       </c>
       <c r="K17">
-        <v>1.028155735545478</v>
+        <v>1.028171663259505</v>
       </c>
       <c r="L17">
-        <v>0.9739843183735758</v>
+        <v>0.9740347108860258</v>
       </c>
       <c r="M17">
-        <v>0.993115928396435</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9931558460146525</v>
+      </c>
+      <c r="N17">
+        <v>0.9814406576589122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9433530629852533</v>
+        <v>0.9434098773808899</v>
       </c>
       <c r="D18">
-        <v>1.015380115918542</v>
+        <v>1.015395710017787</v>
       </c>
       <c r="E18">
-        <v>0.96114724224055</v>
+        <v>0.9611967119479049</v>
       </c>
       <c r="F18">
-        <v>0.9805935194831893</v>
+        <v>0.9806326540749459</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039869051759888</v>
+        <v>1.039882236707874</v>
       </c>
       <c r="J18">
-        <v>0.9727412145438887</v>
+        <v>0.9727954960423799</v>
       </c>
       <c r="K18">
-        <v>1.028938546444437</v>
+        <v>1.028953881771692</v>
       </c>
       <c r="L18">
-        <v>0.9756721093771972</v>
+        <v>0.9757206324859117</v>
       </c>
       <c r="M18">
-        <v>0.9947558586802522</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9947942825626539</v>
+      </c>
+      <c r="N18">
+        <v>0.9826882878629227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9441432255417787</v>
+        <v>0.9441992779677164</v>
       </c>
       <c r="D19">
-        <v>1.01571369802308</v>
+        <v>1.015729088002809</v>
       </c>
       <c r="E19">
-        <v>0.9617991380560821</v>
+        <v>0.9618479595934732</v>
       </c>
       <c r="F19">
-        <v>0.9812263775877654</v>
+        <v>0.9812649955609849</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040062381779778</v>
+        <v>1.040075396471433</v>
       </c>
       <c r="J19">
-        <v>0.9733480611649314</v>
+        <v>0.9734016354545432</v>
       </c>
       <c r="K19">
-        <v>1.029203475921122</v>
+        <v>1.029218612095713</v>
       </c>
       <c r="L19">
-        <v>0.9762432515725871</v>
+        <v>0.9762911456349174</v>
       </c>
       <c r="M19">
-        <v>0.9953109009501004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9953488225523611</v>
+      </c>
+      <c r="N19">
+        <v>0.9831103979292832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9405852335038676</v>
+        <v>0.9406447376363035</v>
       </c>
       <c r="D20">
-        <v>1.014213341628912</v>
+        <v>1.01422965626907</v>
       </c>
       <c r="E20">
-        <v>0.958864869034602</v>
+        <v>0.9589166248559144</v>
       </c>
       <c r="F20">
-        <v>0.9783782829161481</v>
+        <v>0.9784192410049545</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039191123018126</v>
+        <v>1.039204908526373</v>
       </c>
       <c r="J20">
-        <v>0.9706155471964278</v>
+        <v>0.970672320685615</v>
       </c>
       <c r="K20">
-        <v>1.028010787429773</v>
+        <v>1.028026825486909</v>
       </c>
       <c r="L20">
-        <v>0.9736717653791863</v>
+        <v>0.9737225058212294</v>
       </c>
       <c r="M20">
-        <v>0.9928122860666585</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9928524818697251</v>
+      </c>
+      <c r="N20">
+        <v>0.9812095758462733</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9285640860791813</v>
+        <v>0.9286356674374709</v>
       </c>
       <c r="D21">
-        <v>1.009178251017502</v>
+        <v>1.009197800176209</v>
       </c>
       <c r="E21">
-        <v>0.9489728787266326</v>
+        <v>0.9490348618879213</v>
       </c>
       <c r="F21">
-        <v>0.9687867090998098</v>
+        <v>0.9688358503921753</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036235936377391</v>
+        <v>1.036252409647526</v>
       </c>
       <c r="J21">
-        <v>0.9613849838757392</v>
+        <v>0.9614528622661486</v>
       </c>
       <c r="K21">
-        <v>1.023987800265185</v>
+        <v>1.024006987798615</v>
       </c>
       <c r="L21">
-        <v>0.9649900539439441</v>
+        <v>0.9650506891445965</v>
       </c>
       <c r="M21">
-        <v>0.9843845794301571</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9844327089162346</v>
+      </c>
+      <c r="N21">
+        <v>0.9747861634498224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9206190178282411</v>
+        <v>0.9206989651283276</v>
       </c>
       <c r="D22">
-        <v>1.005881099551413</v>
+        <v>1.005902887365084</v>
       </c>
       <c r="E22">
-        <v>0.9424540571190169</v>
+        <v>0.942523087801456</v>
       </c>
       <c r="F22">
-        <v>0.9624752028849572</v>
+        <v>0.962530006380382</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034275772785685</v>
+        <v>1.034294098968859</v>
       </c>
       <c r="J22">
-        <v>0.9552869086192577</v>
+        <v>0.9553623999059676</v>
       </c>
       <c r="K22">
-        <v>1.021336944122172</v>
+        <v>1.021358306921445</v>
       </c>
       <c r="L22">
-        <v>0.9592587188714962</v>
+        <v>0.9593261494999166</v>
       </c>
       <c r="M22">
-        <v>0.9788285773507593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9788821797829315</v>
+      </c>
+      <c r="N22">
+        <v>0.9705410555954338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9248702842545055</v>
+        <v>0.9249457148357405</v>
       </c>
       <c r="D23">
-        <v>1.007642196479716</v>
+        <v>1.007662775928027</v>
       </c>
       <c r="E23">
-        <v>0.9459402424250279</v>
+        <v>0.9460054720122014</v>
       </c>
       <c r="F23">
-        <v>0.9658495311105597</v>
+        <v>0.9659012783946584</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035325143399943</v>
+        <v>1.035342470141549</v>
       </c>
       <c r="J23">
-        <v>0.9585495400430313</v>
+        <v>0.9586209291490825</v>
       </c>
       <c r="K23">
-        <v>1.022754425051291</v>
+        <v>1.022774614138031</v>
       </c>
       <c r="L23">
-        <v>0.9623247231755904</v>
+        <v>0.9623884909453366</v>
       </c>
       <c r="M23">
-        <v>0.9817999718183076</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9818506218308917</v>
+      </c>
+      <c r="N23">
+        <v>0.9728124261126748</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9407807828405856</v>
+        <v>0.9408400958725024</v>
       </c>
       <c r="D24">
-        <v>1.014295686554322</v>
+        <v>1.014311950001788</v>
       </c>
       <c r="E24">
-        <v>0.9590260626967309</v>
+        <v>0.9590776561930081</v>
       </c>
       <c r="F24">
-        <v>0.9785347098882556</v>
+        <v>0.9785755384300608</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039239054644053</v>
+        <v>1.039252797506562</v>
       </c>
       <c r="J24">
-        <v>0.9707657250207032</v>
+        <v>0.9708223216868133</v>
       </c>
       <c r="K24">
-        <v>1.028076320277814</v>
+        <v>1.028092308421845</v>
       </c>
       <c r="L24">
-        <v>0.9738130759916164</v>
+        <v>0.9738636590605034</v>
       </c>
       <c r="M24">
-        <v>0.9929495661408367</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9929896361104832</v>
+      </c>
+      <c r="N24">
+        <v>0.9813140534559071</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9577987315960762</v>
+        <v>0.9578420046290864</v>
       </c>
       <c r="D25">
-        <v>1.021511203109815</v>
+        <v>1.021523170687828</v>
       </c>
       <c r="E25">
-        <v>0.9730872527381276</v>
+        <v>0.9731251689143102</v>
       </c>
       <c r="F25">
-        <v>0.9921935924966967</v>
+        <v>0.9922235447807283</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043386132628652</v>
+        <v>1.04339628404407</v>
       </c>
       <c r="J25">
-        <v>0.9838348644014577</v>
+        <v>0.9838764941854774</v>
       </c>
       <c r="K25">
-        <v>1.033784516961654</v>
+        <v>1.033796308565557</v>
       </c>
       <c r="L25">
-        <v>0.9861182342611857</v>
+        <v>0.9861555191931707</v>
       </c>
       <c r="M25">
-        <v>1.004914313845621</v>
+        <v>1.004943791760621</v>
+      </c>
+      <c r="N25">
+        <v>0.9904015126359866</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.970450506678502</v>
+        <v>1.009692429529761</v>
       </c>
       <c r="D2">
-        <v>1.026927505022073</v>
+        <v>1.047265806303844</v>
       </c>
       <c r="E2">
-        <v>0.9835834779455035</v>
+        <v>1.026891153495376</v>
       </c>
       <c r="F2">
-        <v>1.002398381568955</v>
+        <v>1.044030252476866</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04642768297832</v>
+        <v>1.054581579181573</v>
       </c>
       <c r="J2">
-        <v>0.993552447651606</v>
+        <v>1.031587056541673</v>
       </c>
       <c r="K2">
-        <v>1.038024022756731</v>
+        <v>1.058103703441208</v>
       </c>
       <c r="L2">
-        <v>0.995276360030357</v>
+        <v>1.037988144957287</v>
       </c>
       <c r="M2">
-        <v>1.013824403949672</v>
+        <v>1.054908452467659</v>
       </c>
       <c r="N2">
-        <v>0.9971293923396193</v>
+        <v>1.033052028486652</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9791365648893253</v>
+        <v>1.01699225758222</v>
       </c>
       <c r="D3">
-        <v>1.030674136900021</v>
+        <v>1.051492220416382</v>
       </c>
       <c r="E3">
-        <v>0.9908076035088741</v>
+        <v>1.03281511366451</v>
       </c>
       <c r="F3">
-        <v>1.009431373528469</v>
+        <v>1.049538128605037</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048487944133994</v>
+        <v>1.056314642530232</v>
       </c>
       <c r="J3">
-        <v>1.000212611217911</v>
+        <v>1.037030176259041</v>
       </c>
       <c r="K3">
-        <v>1.040929021693791</v>
+        <v>1.06150606092341</v>
       </c>
       <c r="L3">
-        <v>1.001559469839715</v>
+        <v>1.043044653891989</v>
       </c>
       <c r="M3">
-        <v>1.019944983845458</v>
+        <v>1.059574093261471</v>
       </c>
       <c r="N3">
-        <v>1.001755278455421</v>
+        <v>1.038502878058353</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9845630543118911</v>
+        <v>1.021584680804511</v>
       </c>
       <c r="D4">
-        <v>1.0330230910921</v>
+        <v>1.054156028109544</v>
       </c>
       <c r="E4">
-        <v>0.9953285567203596</v>
+        <v>1.03654836610491</v>
       </c>
       <c r="F4">
-        <v>1.013833926719523</v>
+        <v>1.053009820335261</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049760858558384</v>
+        <v>1.057394442987651</v>
       </c>
       <c r="J4">
-        <v>1.004370054970017</v>
+        <v>1.040451912573497</v>
       </c>
       <c r="K4">
-        <v>1.042738646571457</v>
+        <v>1.063641986643912</v>
       </c>
       <c r="L4">
-        <v>1.005483690856319</v>
+        <v>1.046224822005674</v>
       </c>
       <c r="M4">
-        <v>1.023768207081741</v>
+        <v>1.062507942376691</v>
       </c>
       <c r="N4">
-        <v>1.00464039062961</v>
+        <v>1.041929473630854</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9868009405106996</v>
+        <v>1.023485642014286</v>
       </c>
       <c r="D5">
-        <v>1.033993441222595</v>
+        <v>1.055259651360203</v>
       </c>
       <c r="E5">
-        <v>0.9971947143359462</v>
+        <v>1.038095109199149</v>
       </c>
       <c r="F5">
-        <v>1.015651375356091</v>
+        <v>1.054448295016787</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050282231068211</v>
+        <v>1.057838804248389</v>
       </c>
       <c r="J5">
-        <v>1.006083664977405</v>
+        <v>1.041867588607969</v>
       </c>
       <c r="K5">
-        <v>1.043483439508861</v>
+        <v>1.064524884648905</v>
       </c>
       <c r="L5">
-        <v>1.007101661528412</v>
+        <v>1.047540878421068</v>
       </c>
       <c r="M5">
-        <v>1.025344543704987</v>
+        <v>1.063721900605307</v>
       </c>
       <c r="N5">
-        <v>1.005828956092719</v>
+        <v>1.043347160087675</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9871742282546191</v>
+        <v>1.023803126961272</v>
       </c>
       <c r="D6">
-        <v>1.03415538600737</v>
+        <v>1.055444022874992</v>
       </c>
       <c r="E6">
-        <v>0.9975060930537417</v>
+        <v>1.038353515591518</v>
       </c>
       <c r="F6">
-        <v>1.015954632863498</v>
+        <v>1.054688617870418</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050368982726754</v>
+        <v>1.057912862634355</v>
       </c>
       <c r="J6">
-        <v>1.006369444376807</v>
+        <v>1.042103981634971</v>
       </c>
       <c r="K6">
-        <v>1.043607578949802</v>
+        <v>1.064672263299314</v>
       </c>
       <c r="L6">
-        <v>1.007371519293245</v>
+        <v>1.047760655024326</v>
       </c>
       <c r="M6">
-        <v>1.025607454677925</v>
+        <v>1.063924616301424</v>
       </c>
       <c r="N6">
-        <v>1.006027136768416</v>
+        <v>1.04358388881989</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9845931238525574</v>
+        <v>1.021610196090927</v>
       </c>
       <c r="D7">
-        <v>1.033036123226781</v>
+        <v>1.054170837646346</v>
       </c>
       <c r="E7">
-        <v>0.9953536248978136</v>
+        <v>1.036569121487082</v>
       </c>
       <c r="F7">
-        <v>1.013858340097502</v>
+        <v>1.053029122565215</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049767878414675</v>
+        <v>1.057400417759979</v>
       </c>
       <c r="J7">
-        <v>1.004393083815083</v>
+        <v>1.040470917066137</v>
       </c>
       <c r="K7">
-        <v>1.042748660281446</v>
+        <v>1.06365384224263</v>
       </c>
       <c r="L7">
-        <v>1.005505432512488</v>
+        <v>1.046242487924014</v>
       </c>
       <c r="M7">
-        <v>1.023789389391595</v>
+        <v>1.062524238497556</v>
       </c>
       <c r="N7">
-        <v>1.004656365980614</v>
+        <v>1.041948505112053</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9734280867152407</v>
+        <v>1.012187631239368</v>
       </c>
       <c r="D8">
-        <v>1.028209866935365</v>
+        <v>1.048709304457961</v>
       </c>
       <c r="E8">
-        <v>0.98605815962058</v>
+        <v>1.028914637122992</v>
       </c>
       <c r="F8">
-        <v>1.00480725012753</v>
+        <v>1.045911438187326</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047136839903473</v>
+        <v>1.055176125561969</v>
       </c>
       <c r="J8">
-        <v>0.9958362020961391</v>
+        <v>1.033448107892627</v>
       </c>
       <c r="K8">
-        <v>1.039020808965593</v>
+        <v>1.059267551854682</v>
       </c>
       <c r="L8">
-        <v>0.9974303535336794</v>
+        <v>1.039716683027377</v>
       </c>
       <c r="M8">
-        <v>1.015922495538167</v>
+        <v>1.05650344954379</v>
       </c>
       <c r="N8">
-        <v>0.9987161109891337</v>
+        <v>1.03491572274399</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9521135577899461</v>
+        <v>0.9944969422058986</v>
       </c>
       <c r="D9">
-        <v>1.019083023443969</v>
+        <v>1.038505133672272</v>
       </c>
       <c r="E9">
-        <v>0.9683849440039469</v>
+        <v>1.014601254823529</v>
       </c>
       <c r="F9">
-        <v>0.9876153690974373</v>
+        <v>1.032609990699774</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042006229706306</v>
+        <v>1.050919536870396</v>
       </c>
       <c r="J9">
-        <v>0.9794785149095787</v>
+        <v>1.02024553552358</v>
       </c>
       <c r="K9">
-        <v>1.031873897293299</v>
+        <v>1.051002923018177</v>
       </c>
       <c r="L9">
-        <v>0.9820126620063504</v>
+        <v>1.027461796876</v>
       </c>
       <c r="M9">
-        <v>1.000912625792954</v>
+        <v>1.045195256650416</v>
       </c>
       <c r="N9">
-        <v>0.9873411174810914</v>
+        <v>1.021694401207822</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9365488083957212</v>
+        <v>0.9818422027726</v>
       </c>
       <c r="D10">
-        <v>1.012507423292834</v>
+        <v>1.031255244668729</v>
       </c>
       <c r="E10">
-        <v>0.9555424401390725</v>
+        <v>1.004411136947546</v>
       </c>
       <c r="F10">
-        <v>0.9751451576126635</v>
+        <v>1.023150349867566</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038199710692785</v>
+        <v>1.047826479997157</v>
       </c>
       <c r="J10">
-        <v>0.9675274828051391</v>
+        <v>1.010795234096848</v>
       </c>
       <c r="K10">
-        <v>1.026654465662995</v>
+        <v>1.045082211303048</v>
       </c>
       <c r="L10">
-        <v>0.9707636252777775</v>
+        <v>1.01870120109697</v>
       </c>
       <c r="M10">
-        <v>0.9899781585256821</v>
+        <v>1.037113830264053</v>
       </c>
       <c r="N10">
-        <v>0.9790189069800607</v>
+        <v>1.0122306792691</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9294181107824288</v>
+        <v>0.9761245154528556</v>
       </c>
       <c r="D11">
-        <v>1.009523985666924</v>
+        <v>1.027995276669326</v>
       </c>
       <c r="E11">
-        <v>0.9496776586701104</v>
+        <v>0.9998209888344048</v>
       </c>
       <c r="F11">
-        <v>0.9694587404312349</v>
+        <v>1.018892774997073</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036445221996645</v>
+        <v>1.04641919371923</v>
       </c>
       <c r="J11">
-        <v>0.9620534310549468</v>
+        <v>1.006525414744472</v>
       </c>
       <c r="K11">
-        <v>1.024268501156252</v>
+        <v>1.042407873801022</v>
       </c>
       <c r="L11">
-        <v>0.9656153539025835</v>
+        <v>1.01474628183351</v>
       </c>
       <c r="M11">
-        <v>0.9849805562508755</v>
+        <v>1.033466984649312</v>
       </c>
       <c r="N11">
-        <v>0.9752046986761805</v>
+        <v>1.007954796283488</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9267035026044673</v>
+        <v>0.9739616236514222</v>
       </c>
       <c r="D12">
-        <v>1.008393345296612</v>
+        <v>1.026764822834404</v>
       </c>
       <c r="E12">
-        <v>0.9474481739127236</v>
+        <v>0.998086951836757</v>
       </c>
       <c r="F12">
-        <v>0.9672986163512658</v>
+        <v>1.017285014479418</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035776066449623</v>
+        <v>1.045885533037666</v>
       </c>
       <c r="J12">
-        <v>0.9599699140363092</v>
+        <v>1.004910369734312</v>
       </c>
       <c r="K12">
-        <v>1.023361489542672</v>
+        <v>1.041396608260174</v>
       </c>
       <c r="L12">
-        <v>0.9636565339633293</v>
+        <v>1.013250894835436</v>
       </c>
       <c r="M12">
-        <v>0.9830803353037613</v>
+        <v>1.03208838779739</v>
       </c>
       <c r="N12">
-        <v>0.9737526451268447</v>
+        <v>1.006337457724165</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9272889091380834</v>
+        <v>0.9744273979376002</v>
       </c>
       <c r="D13">
-        <v>1.008636923523953</v>
+        <v>1.027029668961037</v>
       </c>
       <c r="E13">
-        <v>0.9479288124862746</v>
+        <v>0.9984602640956001</v>
       </c>
       <c r="F13">
-        <v>0.9677642264636547</v>
+        <v>1.017631110582545</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035920419510663</v>
+        <v>1.046000512258523</v>
       </c>
       <c r="J13">
-        <v>0.9604192021583356</v>
+        <v>1.005258157329967</v>
       </c>
       <c r="K13">
-        <v>1.023557018856668</v>
+        <v>1.041614360215681</v>
       </c>
       <c r="L13">
-        <v>0.9640788998387951</v>
+        <v>1.013572889300058</v>
       </c>
       <c r="M13">
-        <v>0.9834900038735049</v>
+        <v>1.03238521918955</v>
       </c>
       <c r="N13">
-        <v>0.9740657777075563</v>
+        <v>1.006685739218098</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9291951119370293</v>
+        <v>0.9759465481939246</v>
       </c>
       <c r="D14">
-        <v>1.009430997475148</v>
+        <v>1.027893974723248</v>
       </c>
       <c r="E14">
-        <v>0.9494944445124792</v>
+        <v>0.9996782600182493</v>
       </c>
       <c r="F14">
-        <v>0.9692811927866243</v>
+        <v>1.018760426382178</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036390275135755</v>
+        <v>1.046375308636972</v>
       </c>
       <c r="J14">
-        <v>0.9618822648621989</v>
+        <v>1.006392521638912</v>
       </c>
       <c r="K14">
-        <v>1.024193962484386</v>
+        <v>1.042324655302581</v>
       </c>
       <c r="L14">
-        <v>0.9654544173359499</v>
+        <v>1.014623223265919</v>
       </c>
       <c r="M14">
-        <v>0.9848244067626186</v>
+        <v>1.03335353028751</v>
       </c>
       <c r="N14">
-        <v>0.9750854146191126</v>
+        <v>1.007821714454475</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9303606106047706</v>
+        <v>0.9768772609636887</v>
       </c>
       <c r="D15">
-        <v>1.009917211224773</v>
+        <v>1.028423865297914</v>
       </c>
       <c r="E15">
-        <v>0.9504521413981154</v>
+        <v>1.000424782890958</v>
       </c>
       <c r="F15">
-        <v>0.9702093347010339</v>
+        <v>1.019452683749701</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036677405961477</v>
+        <v>1.046604761483165</v>
       </c>
       <c r="J15">
-        <v>0.9627768798103146</v>
+        <v>1.007087517580794</v>
       </c>
       <c r="K15">
-        <v>1.024583593601613</v>
+        <v>1.042759879193818</v>
       </c>
       <c r="L15">
-        <v>0.966295595017848</v>
+        <v>1.015266809790876</v>
       </c>
       <c r="M15">
-        <v>0.9856406167733751</v>
+        <v>1.033946900504919</v>
       </c>
       <c r="N15">
-        <v>0.9757088511592586</v>
+        <v>1.008517697370312</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9370132237461769</v>
+        <v>0.9822163765666646</v>
       </c>
       <c r="D16">
-        <v>1.012702391751055</v>
+        <v>1.031468937107645</v>
       </c>
       <c r="E16">
-        <v>0.9559248242769206</v>
+        <v>1.004711830938847</v>
       </c>
       <c r="F16">
-        <v>0.9755161087051719</v>
+        <v>1.023429339542439</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038313789523736</v>
+        <v>1.047918385326014</v>
       </c>
       <c r="J16">
-        <v>0.9678840451841911</v>
+        <v>1.011074669495854</v>
       </c>
       <c r="K16">
-        <v>1.026810010946934</v>
+        <v>1.045257261837974</v>
       </c>
       <c r="L16">
-        <v>0.9710990596428708</v>
+        <v>1.018960100503813</v>
       </c>
       <c r="M16">
-        <v>0.990303935444992</v>
+        <v>1.03735259967212</v>
       </c>
       <c r="N16">
-        <v>0.9792673086141498</v>
+        <v>1.012510511498424</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9410768298043959</v>
+        <v>0.9854995011574524</v>
       </c>
       <c r="D17">
-        <v>1.01441169119435</v>
+        <v>1.033345758263817</v>
       </c>
       <c r="E17">
-        <v>0.9592728047937155</v>
+        <v>1.007351822110206</v>
       </c>
       <c r="F17">
-        <v>0.9787649553280052</v>
+        <v>1.025879185358771</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039310822050168</v>
+        <v>1.048723706543042</v>
       </c>
       <c r="J17">
-        <v>0.9710040925294445</v>
+        <v>1.013526547226315</v>
       </c>
       <c r="K17">
-        <v>1.028171663259505</v>
+        <v>1.046793329767999</v>
       </c>
       <c r="L17">
-        <v>0.9740347108860258</v>
+        <v>1.021232163579753</v>
       </c>
       <c r="M17">
-        <v>0.9931558460146525</v>
+        <v>1.039448179908924</v>
       </c>
       <c r="N17">
-        <v>0.9814406576589122</v>
+        <v>1.014965871176496</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9434098773808899</v>
+        <v>0.9873917634838201</v>
       </c>
       <c r="D18">
-        <v>1.015395710017787</v>
+        <v>1.034428932903171</v>
       </c>
       <c r="E18">
-        <v>0.9611967119479049</v>
+        <v>1.008874705602918</v>
       </c>
       <c r="F18">
-        <v>0.9806326540749459</v>
+        <v>1.027292708061814</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039882236707874</v>
+        <v>1.04918693133783</v>
       </c>
       <c r="J18">
-        <v>0.9727954960423799</v>
+        <v>1.014939705168737</v>
       </c>
       <c r="K18">
-        <v>1.028953881771692</v>
+        <v>1.047678711747553</v>
       </c>
       <c r="L18">
-        <v>0.9757206324859117</v>
+        <v>1.022541988456041</v>
       </c>
       <c r="M18">
-        <v>0.9947942825626539</v>
+        <v>1.040656396049486</v>
       </c>
       <c r="N18">
-        <v>0.9826882878629227</v>
+        <v>1.016381035965288</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9441992779677164</v>
+        <v>0.9880332149675524</v>
       </c>
       <c r="D19">
-        <v>1.015729088002809</v>
+        <v>1.034796349999873</v>
       </c>
       <c r="E19">
-        <v>0.9618479595934732</v>
+        <v>1.009391156350916</v>
       </c>
       <c r="F19">
-        <v>0.9812649955609849</v>
+        <v>1.027772123686814</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040075396471433</v>
+        <v>1.049343796087371</v>
       </c>
       <c r="J19">
-        <v>0.9734016354545432</v>
+        <v>1.015418741624306</v>
       </c>
       <c r="K19">
-        <v>1.029218612095713</v>
+        <v>1.047978845861957</v>
       </c>
       <c r="L19">
-        <v>0.9762911456349174</v>
+        <v>1.02298604685624</v>
       </c>
       <c r="M19">
-        <v>0.9953488225523611</v>
+        <v>1.041066026969391</v>
       </c>
       <c r="N19">
-        <v>0.9831103979292832</v>
+        <v>1.01686075270757</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9406447376363035</v>
+        <v>0.9851496265503489</v>
       </c>
       <c r="D20">
-        <v>1.01422965626907</v>
+        <v>1.033145596843289</v>
       </c>
       <c r="E20">
-        <v>0.9589166248559144</v>
+        <v>1.007070348280781</v>
       </c>
       <c r="F20">
-        <v>0.9784192410049545</v>
+        <v>1.025617950196788</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039204908526373</v>
+        <v>1.04863798101939</v>
       </c>
       <c r="J20">
-        <v>0.970672320685615</v>
+        <v>1.013265256330988</v>
       </c>
       <c r="K20">
-        <v>1.028026825486909</v>
+        <v>1.046629627351972</v>
       </c>
       <c r="L20">
-        <v>0.9737225058212294</v>
+        <v>1.020990003103434</v>
       </c>
       <c r="M20">
-        <v>0.9928524818697251</v>
+        <v>1.039224814984687</v>
       </c>
       <c r="N20">
-        <v>0.9812095758462733</v>
+        <v>1.014704209218127</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9286356674374709</v>
+        <v>0.9755003040636245</v>
       </c>
       <c r="D21">
-        <v>1.009197800176209</v>
+        <v>1.027640010315617</v>
       </c>
       <c r="E21">
-        <v>0.9490348618879213</v>
+        <v>0.9993204128129767</v>
       </c>
       <c r="F21">
-        <v>0.9688358503921753</v>
+        <v>1.018428614907856</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036252409647526</v>
+        <v>1.046265248432053</v>
       </c>
       <c r="J21">
-        <v>0.9614528622661486</v>
+        <v>1.00605930158128</v>
       </c>
       <c r="K21">
-        <v>1.024006987798615</v>
+        <v>1.042115996177425</v>
       </c>
       <c r="L21">
-        <v>0.9650506891445965</v>
+        <v>1.014314671630241</v>
       </c>
       <c r="M21">
-        <v>0.9844327089162346</v>
+        <v>1.033069065022837</v>
       </c>
       <c r="N21">
-        <v>0.9747861634498224</v>
+        <v>1.00748802118614</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9206989651283276</v>
+        <v>0.9692052773820233</v>
       </c>
       <c r="D22">
-        <v>1.005902887365084</v>
+        <v>1.024064450914751</v>
       </c>
       <c r="E22">
-        <v>0.942523087801456</v>
+        <v>0.9942782570993454</v>
       </c>
       <c r="F22">
-        <v>0.962530006380382</v>
+        <v>1.013754986009549</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034294098968859</v>
+        <v>1.044709746465945</v>
       </c>
       <c r="J22">
-        <v>0.9553623999059676</v>
+        <v>1.00135921506707</v>
       </c>
       <c r="K22">
-        <v>1.021358306921445</v>
+        <v>1.039173799295338</v>
       </c>
       <c r="L22">
-        <v>0.9593261494999166</v>
+        <v>1.00996392142575</v>
       </c>
       <c r="M22">
-        <v>0.9788821797829315</v>
+        <v>1.029058791564511</v>
       </c>
       <c r="N22">
-        <v>0.9705410555954338</v>
+        <v>1.002781260009973</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9249457148357405</v>
+        <v>0.9725652336097916</v>
       </c>
       <c r="D23">
-        <v>1.007662775928027</v>
+        <v>1.025971245711788</v>
       </c>
       <c r="E23">
-        <v>0.9460054720122014</v>
+        <v>0.9969681230420776</v>
       </c>
       <c r="F23">
-        <v>0.9659012783946584</v>
+        <v>1.01624785605727</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035342470141549</v>
+        <v>1.045540646422898</v>
       </c>
       <c r="J23">
-        <v>0.9586209291490825</v>
+        <v>1.00386773659049</v>
       </c>
       <c r="K23">
-        <v>1.022774614138031</v>
+        <v>1.040743867196981</v>
       </c>
       <c r="L23">
-        <v>0.9623884909453366</v>
+        <v>1.012285671922849</v>
       </c>
       <c r="M23">
-        <v>0.9818506218308917</v>
+        <v>1.031198646365095</v>
       </c>
       <c r="N23">
-        <v>0.9728124261126748</v>
+        <v>1.005293343921688</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9408400958725024</v>
+        <v>0.9853077898179783</v>
       </c>
       <c r="D24">
-        <v>1.014311950001788</v>
+        <v>1.033236076741117</v>
       </c>
       <c r="E24">
-        <v>0.9590776561930081</v>
+        <v>1.007197586484168</v>
       </c>
       <c r="F24">
-        <v>0.9785755384300608</v>
+        <v>1.02573603865668</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039252797506562</v>
+        <v>1.048676736743977</v>
       </c>
       <c r="J24">
-        <v>0.9708223216868133</v>
+        <v>1.013383374742474</v>
       </c>
       <c r="K24">
-        <v>1.028092308421845</v>
+        <v>1.04670363002968</v>
       </c>
       <c r="L24">
-        <v>0.9738636590605034</v>
+        <v>1.021099472531194</v>
       </c>
       <c r="M24">
-        <v>0.9929896361104832</v>
+        <v>1.039325787418229</v>
       </c>
       <c r="N24">
-        <v>0.9813140534559071</v>
+        <v>1.014822495371305</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9578420046290864</v>
+        <v>0.9992117539069068</v>
       </c>
       <c r="D25">
-        <v>1.021523170687828</v>
+        <v>1.041217434323026</v>
       </c>
       <c r="E25">
-        <v>0.9731251689143102</v>
+        <v>1.018408381627914</v>
       </c>
       <c r="F25">
-        <v>0.9922235447807283</v>
+        <v>1.03614658570381</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04339628404407</v>
+        <v>1.052062687155758</v>
       </c>
       <c r="J25">
-        <v>0.9838764941854774</v>
+        <v>1.023765674827639</v>
       </c>
       <c r="K25">
-        <v>1.033796308565557</v>
+        <v>1.053207906149941</v>
       </c>
       <c r="L25">
-        <v>0.9861555191931707</v>
+        <v>1.030727497441325</v>
       </c>
       <c r="M25">
-        <v>1.004943791760621</v>
+        <v>1.048208538952274</v>
       </c>
       <c r="N25">
-        <v>0.9904015126359866</v>
+        <v>1.025219539513458</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009692429529761</v>
+        <v>0.9632914553605529</v>
       </c>
       <c r="D2">
-        <v>1.047265806303844</v>
+        <v>1.035385073080805</v>
       </c>
       <c r="E2">
-        <v>1.026891153495376</v>
+        <v>0.9825409934273126</v>
       </c>
       <c r="F2">
-        <v>1.044030252476866</v>
+        <v>0.9904011200702353</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054581579181573</v>
+        <v>1.048078718629076</v>
       </c>
       <c r="J2">
-        <v>1.031587056541673</v>
+        <v>0.9866284292009603</v>
       </c>
       <c r="K2">
-        <v>1.058103703441208</v>
+        <v>1.046372503079775</v>
       </c>
       <c r="L2">
-        <v>1.037988144957287</v>
+        <v>0.9942490404822428</v>
       </c>
       <c r="M2">
-        <v>1.054908452467659</v>
+        <v>1.001995822417086</v>
       </c>
       <c r="N2">
-        <v>1.033052028486652</v>
+        <v>0.9978454411544136</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01699225758222</v>
+        <v>0.9724483908703203</v>
       </c>
       <c r="D3">
-        <v>1.051492220416382</v>
+        <v>1.037639904338396</v>
       </c>
       <c r="E3">
-        <v>1.03281511366451</v>
+        <v>0.9903905569114577</v>
       </c>
       <c r="F3">
-        <v>1.049538128605037</v>
+        <v>0.9986144128867149</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056314642530232</v>
+        <v>1.048933565243284</v>
       </c>
       <c r="J3">
-        <v>1.037030176259041</v>
+        <v>0.9937193987250561</v>
       </c>
       <c r="K3">
-        <v>1.06150606092341</v>
+        <v>1.047812803703778</v>
       </c>
       <c r="L3">
-        <v>1.043044653891989</v>
+        <v>1.001147887085328</v>
       </c>
       <c r="M3">
-        <v>1.059574093261471</v>
+        <v>1.009265053312248</v>
       </c>
       <c r="N3">
-        <v>1.038502878058353</v>
+        <v>1.000407980667735</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021584680804511</v>
+        <v>0.9781608672679124</v>
       </c>
       <c r="D4">
-        <v>1.054156028109544</v>
+        <v>1.03906320245839</v>
       </c>
       <c r="E4">
-        <v>1.03654836610491</v>
+        <v>0.9952948975938949</v>
       </c>
       <c r="F4">
-        <v>1.053009820335261</v>
+        <v>1.003745492411788</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057394442987651</v>
+        <v>1.049456820618406</v>
       </c>
       <c r="J4">
-        <v>1.040451912573497</v>
+        <v>0.9981402130944674</v>
       </c>
       <c r="K4">
-        <v>1.063641986643912</v>
+        <v>1.048711964964708</v>
       </c>
       <c r="L4">
-        <v>1.046224822005674</v>
+        <v>1.005450442736892</v>
       </c>
       <c r="M4">
-        <v>1.062507942376691</v>
+        <v>1.01379892186153</v>
       </c>
       <c r="N4">
-        <v>1.041929473630854</v>
+        <v>1.002003020150638</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023485642014286</v>
+        <v>0.9805150332475264</v>
       </c>
       <c r="D5">
-        <v>1.055259651360203</v>
+        <v>1.039653290404831</v>
       </c>
       <c r="E5">
-        <v>1.038095109199149</v>
+        <v>0.9973176309559156</v>
       </c>
       <c r="F5">
-        <v>1.054448295016787</v>
+        <v>1.005861570501164</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057838804248389</v>
+        <v>1.049669868290493</v>
       </c>
       <c r="J5">
-        <v>1.041867588607969</v>
+        <v>0.9999612863197866</v>
       </c>
       <c r="K5">
-        <v>1.064524884648905</v>
+        <v>1.0490823695028</v>
       </c>
       <c r="L5">
-        <v>1.047540878421068</v>
+        <v>1.007223122020318</v>
       </c>
       <c r="M5">
-        <v>1.063721900605307</v>
+        <v>1.015666924162078</v>
       </c>
       <c r="N5">
-        <v>1.043347160087675</v>
+        <v>1.002659402134238</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023803126961272</v>
+        <v>0.9809076272105828</v>
       </c>
       <c r="D6">
-        <v>1.055444022874992</v>
+        <v>1.039751891862073</v>
       </c>
       <c r="E6">
-        <v>1.038353515591518</v>
+        <v>0.9976550429770713</v>
       </c>
       <c r="F6">
-        <v>1.054688617870418</v>
+        <v>1.006214541999921</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057912862634355</v>
+        <v>1.049705239766833</v>
       </c>
       <c r="J6">
-        <v>1.042103981634971</v>
+        <v>1.000264929496724</v>
       </c>
       <c r="K6">
-        <v>1.064672263299314</v>
+        <v>1.049144123083707</v>
       </c>
       <c r="L6">
-        <v>1.047760655024326</v>
+        <v>1.007518713715667</v>
       </c>
       <c r="M6">
-        <v>1.063924616301424</v>
+        <v>1.015978410507878</v>
       </c>
       <c r="N6">
-        <v>1.04358388881989</v>
+        <v>1.002768805764302</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021610196090927</v>
+        <v>0.9781925054225232</v>
       </c>
       <c r="D7">
-        <v>1.054170837646346</v>
+        <v>1.039071119363518</v>
       </c>
       <c r="E7">
-        <v>1.036569121487082</v>
+        <v>0.9953220754086732</v>
       </c>
       <c r="F7">
-        <v>1.053029122565215</v>
+        <v>1.00377392515975</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057400417759979</v>
+        <v>1.049459694314966</v>
       </c>
       <c r="J7">
-        <v>1.040470917066137</v>
+        <v>0.9981646901513138</v>
       </c>
       <c r="K7">
-        <v>1.06365384224263</v>
+        <v>1.0487169438867</v>
       </c>
       <c r="L7">
-        <v>1.046242487924014</v>
+        <v>1.005474268115075</v>
       </c>
       <c r="M7">
-        <v>1.062524238497556</v>
+        <v>1.013824028400227</v>
       </c>
       <c r="N7">
-        <v>1.041948505112053</v>
+        <v>1.00201184528754</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012187631239368</v>
+        <v>0.9664323873109463</v>
       </c>
       <c r="D8">
-        <v>1.048709304457961</v>
+        <v>1.03615468316065</v>
       </c>
       <c r="E8">
-        <v>1.028914637122992</v>
+        <v>0.9852317831816474</v>
       </c>
       <c r="F8">
-        <v>1.045911438187326</v>
+        <v>0.9932166734027466</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055176125561969</v>
+        <v>1.04837395036274</v>
       </c>
       <c r="J8">
-        <v>1.033448107892627</v>
+        <v>0.9890612404599727</v>
       </c>
       <c r="K8">
-        <v>1.059267551854682</v>
+        <v>1.046866212633325</v>
       </c>
       <c r="L8">
-        <v>1.039716683027377</v>
+        <v>0.9966155864553028</v>
       </c>
       <c r="M8">
-        <v>1.05650344954379</v>
+        <v>1.004489319981778</v>
       </c>
       <c r="N8">
-        <v>1.03491572274399</v>
+        <v>0.9987251214933248</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9944969422058986</v>
+        <v>0.9438970787795357</v>
       </c>
       <c r="D9">
-        <v>1.038505133672272</v>
+        <v>1.03072740384561</v>
       </c>
       <c r="E9">
-        <v>1.014601254823529</v>
+        <v>0.9659676428267934</v>
       </c>
       <c r="F9">
-        <v>1.032609990699774</v>
+        <v>0.9730592788643415</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050919536870396</v>
+        <v>1.046220228076348</v>
       </c>
       <c r="J9">
-        <v>1.02024553552358</v>
+        <v>0.9715993449548674</v>
       </c>
       <c r="K9">
-        <v>1.051002923018177</v>
+        <v>1.043340873341011</v>
       </c>
       <c r="L9">
-        <v>1.027461796876</v>
+        <v>0.9796381082587795</v>
       </c>
       <c r="M9">
-        <v>1.045195256650416</v>
+        <v>0.9866051161057561</v>
       </c>
       <c r="N9">
-        <v>1.021694401207822</v>
+        <v>0.992402261218203</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9818422027726</v>
+        <v>0.927351258492593</v>
       </c>
       <c r="D10">
-        <v>1.031255244668729</v>
+        <v>1.026892103065849</v>
       </c>
       <c r="E10">
-        <v>1.004411136947546</v>
+        <v>0.9518891566844835</v>
       </c>
       <c r="F10">
-        <v>1.023150349867566</v>
+        <v>0.9583308446160398</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047826479997157</v>
+        <v>1.044603730206696</v>
       </c>
       <c r="J10">
-        <v>1.010795234096848</v>
+        <v>0.9587763313110689</v>
       </c>
       <c r="K10">
-        <v>1.045082211303048</v>
+        <v>1.040792214321507</v>
       </c>
       <c r="L10">
-        <v>1.01870120109697</v>
+        <v>0.9671850186131061</v>
       </c>
       <c r="M10">
-        <v>1.037113830264053</v>
+        <v>0.973495536408533</v>
       </c>
       <c r="N10">
-        <v>1.0122306792691</v>
+        <v>0.9877508295237044</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9761245154528556</v>
+        <v>0.9197401204439619</v>
       </c>
       <c r="D11">
-        <v>1.027995276669326</v>
+        <v>1.025173513167678</v>
       </c>
       <c r="E11">
-        <v>0.9998209888344048</v>
+        <v>0.9454331977963126</v>
       </c>
       <c r="F11">
-        <v>1.018892774997073</v>
+        <v>0.9515786049281799</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04641919371923</v>
+        <v>1.04385564531903</v>
       </c>
       <c r="J11">
-        <v>1.006525414744472</v>
+        <v>0.9528798880042477</v>
       </c>
       <c r="K11">
-        <v>1.042407873801022</v>
+        <v>1.039635811896517</v>
       </c>
       <c r="L11">
-        <v>1.01474628183351</v>
+        <v>0.9614631429283022</v>
       </c>
       <c r="M11">
-        <v>1.033466984649312</v>
+        <v>0.9674753384620228</v>
       </c>
       <c r="N11">
-        <v>1.007954796283488</v>
+        <v>0.98561112283104</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9739616236514222</v>
+        <v>0.9168368720461614</v>
       </c>
       <c r="D12">
-        <v>1.026764822834404</v>
+        <v>1.024525803524029</v>
       </c>
       <c r="E12">
-        <v>0.998086951836757</v>
+        <v>0.9429740944070837</v>
       </c>
       <c r="F12">
-        <v>1.017285014479418</v>
+        <v>0.9490070211179878</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045885533037666</v>
+        <v>1.043569993714334</v>
       </c>
       <c r="J12">
-        <v>1.004910369734312</v>
+        <v>0.9506313135342757</v>
       </c>
       <c r="K12">
-        <v>1.041396608260174</v>
+        <v>1.039197743789364</v>
       </c>
       <c r="L12">
-        <v>1.013250894835436</v>
+        <v>0.9592819203309624</v>
       </c>
       <c r="M12">
-        <v>1.03208838779739</v>
+        <v>0.9651810184351434</v>
       </c>
       <c r="N12">
-        <v>1.006337457724165</v>
+        <v>0.9847951479627901</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9744273979376002</v>
+        <v>0.9174632380914083</v>
       </c>
       <c r="D13">
-        <v>1.027029668961037</v>
+        <v>1.024665174205682</v>
       </c>
       <c r="E13">
-        <v>0.9984602640956001</v>
+        <v>0.9435044712832158</v>
       </c>
       <c r="F13">
-        <v>1.017631110582545</v>
+        <v>0.9495616388579807</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046000512258523</v>
+        <v>1.043631628902988</v>
       </c>
       <c r="J13">
-        <v>1.005258157329967</v>
+        <v>0.9511164034847495</v>
       </c>
       <c r="K13">
-        <v>1.041614360215681</v>
+        <v>1.039292107519113</v>
       </c>
       <c r="L13">
-        <v>1.013572889300058</v>
+        <v>0.9597524431134715</v>
       </c>
       <c r="M13">
-        <v>1.03238521918955</v>
+        <v>0.9656759076315259</v>
       </c>
       <c r="N13">
-        <v>1.006685739218098</v>
+        <v>0.9849711784861754</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9759465481939246</v>
+        <v>0.9195017485977889</v>
       </c>
       <c r="D14">
-        <v>1.027893974723248</v>
+        <v>1.025120168174504</v>
       </c>
       <c r="E14">
-        <v>0.9996782600182493</v>
+        <v>0.9452312187073486</v>
       </c>
       <c r="F14">
-        <v>1.018760426382178</v>
+        <v>0.9513673789746482</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046375308636972</v>
+        <v>1.043832195499357</v>
       </c>
       <c r="J14">
-        <v>1.006392521638912</v>
+        <v>0.9526952542332746</v>
       </c>
       <c r="K14">
-        <v>1.042324655302581</v>
+        <v>1.039599778843835</v>
       </c>
       <c r="L14">
-        <v>1.014623223265919</v>
+        <v>0.9612840230120183</v>
       </c>
       <c r="M14">
-        <v>1.03335353028751</v>
+        <v>0.9672869176519392</v>
       </c>
       <c r="N14">
-        <v>1.007821714454475</v>
+        <v>0.9855441214237685</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9768772609636887</v>
+        <v>0.9207473540836291</v>
       </c>
       <c r="D15">
-        <v>1.028423865297914</v>
+        <v>1.025399244741586</v>
       </c>
       <c r="E15">
-        <v>1.000424782890958</v>
+        <v>0.9462867998194869</v>
       </c>
       <c r="F15">
-        <v>1.019452683749701</v>
+        <v>0.9524713018161718</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046604761483165</v>
+        <v>1.043954722224961</v>
       </c>
       <c r="J15">
-        <v>1.007087517580794</v>
+        <v>0.9536600793074242</v>
       </c>
       <c r="K15">
-        <v>1.042759879193818</v>
+        <v>1.039788195614872</v>
       </c>
       <c r="L15">
-        <v>1.015266809790876</v>
+        <v>0.962220067167132</v>
       </c>
       <c r="M15">
-        <v>1.033946900504919</v>
+        <v>0.9682715925156536</v>
       </c>
       <c r="N15">
-        <v>1.008517697370312</v>
+        <v>0.9858942453143208</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9822163765666646</v>
+        <v>0.9278462419008268</v>
       </c>
       <c r="D16">
-        <v>1.031468937107645</v>
+        <v>1.02700488746277</v>
       </c>
       <c r="E16">
-        <v>1.004711830938847</v>
+        <v>0.9523094665883092</v>
       </c>
       <c r="F16">
-        <v>1.023429339542439</v>
+        <v>0.9587704887041232</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047918385326014</v>
+        <v>1.044652319463048</v>
       </c>
       <c r="J16">
-        <v>1.011074669495854</v>
+        <v>0.9591598683440112</v>
       </c>
       <c r="K16">
-        <v>1.045257261837974</v>
+        <v>1.040867799798015</v>
       </c>
       <c r="L16">
-        <v>1.018960100503813</v>
+        <v>0.9675573014111051</v>
       </c>
       <c r="M16">
-        <v>1.03735259967212</v>
+        <v>0.9738873073642029</v>
       </c>
       <c r="N16">
-        <v>1.012510511498424</v>
+        <v>0.9878899999694649</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9854995011574524</v>
+        <v>0.9321737443381599</v>
       </c>
       <c r="D17">
-        <v>1.033345758263817</v>
+        <v>1.027996140582893</v>
       </c>
       <c r="E17">
-        <v>1.007351822110206</v>
+        <v>0.9559864252527023</v>
       </c>
       <c r="F17">
-        <v>1.025879185358771</v>
+        <v>0.9626167958723663</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048723706543042</v>
+        <v>1.045076660211481</v>
       </c>
       <c r="J17">
-        <v>1.013526547226315</v>
+        <v>0.9625132991415249</v>
       </c>
       <c r="K17">
-        <v>1.046793329767999</v>
+        <v>1.041530478508691</v>
       </c>
       <c r="L17">
-        <v>1.021232163579753</v>
+        <v>0.9708128421590257</v>
       </c>
       <c r="M17">
-        <v>1.039448179908924</v>
+        <v>0.9773136527580365</v>
       </c>
       <c r="N17">
-        <v>1.014965871176496</v>
+        <v>0.9891067471936866</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9873917634838201</v>
+        <v>0.934655495945933</v>
       </c>
       <c r="D18">
-        <v>1.034428932903171</v>
+        <v>1.028568786590876</v>
       </c>
       <c r="E18">
-        <v>1.008874705602918</v>
+        <v>0.9580969453937698</v>
       </c>
       <c r="F18">
-        <v>1.027292708061814</v>
+        <v>0.9648246763341146</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04918693133783</v>
+        <v>1.045319568836325</v>
       </c>
       <c r="J18">
-        <v>1.014939705168737</v>
+        <v>0.9644366203376691</v>
       </c>
       <c r="K18">
-        <v>1.047678711747553</v>
+        <v>1.04191195683684</v>
       </c>
       <c r="L18">
-        <v>1.022541988456041</v>
+        <v>0.9726804270845965</v>
       </c>
       <c r="M18">
-        <v>1.040656396049486</v>
+        <v>0.9792795219742595</v>
       </c>
       <c r="N18">
-        <v>1.016381035965288</v>
+        <v>0.9898045135983187</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9880332149675524</v>
+        <v>0.9354947629493697</v>
       </c>
       <c r="D19">
-        <v>1.034796349999873</v>
+        <v>1.02876312333249</v>
       </c>
       <c r="E19">
-        <v>1.009391156350916</v>
+        <v>0.9588109714805227</v>
       </c>
       <c r="F19">
-        <v>1.027772123686814</v>
+        <v>0.9655716647824172</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049343796087371</v>
+        <v>1.045401628902553</v>
       </c>
       <c r="J19">
-        <v>1.015418741624306</v>
+        <v>0.9650870637213531</v>
       </c>
       <c r="K19">
-        <v>1.047978845861957</v>
+        <v>1.042041190761846</v>
       </c>
       <c r="L19">
-        <v>1.02298604685624</v>
+        <v>0.9733120873042822</v>
       </c>
       <c r="M19">
-        <v>1.041066026969391</v>
+        <v>0.9799444716496528</v>
       </c>
       <c r="N19">
-        <v>1.01686075270757</v>
+        <v>0.9900404720782816</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9851496265503489</v>
+        <v>0.9317138904361638</v>
       </c>
       <c r="D20">
-        <v>1.033145596843289</v>
+        <v>1.02789036540856</v>
       </c>
       <c r="E20">
-        <v>1.007070348280781</v>
+        <v>0.9555955050581573</v>
       </c>
       <c r="F20">
-        <v>1.025617950196788</v>
+        <v>0.9622078541616653</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04863798101939</v>
+        <v>1.045031612141646</v>
       </c>
       <c r="J20">
-        <v>1.013265256330988</v>
+        <v>0.9621569321976492</v>
       </c>
       <c r="K20">
-        <v>1.046629627351972</v>
+        <v>1.041459905763725</v>
       </c>
       <c r="L20">
-        <v>1.020990003103434</v>
+        <v>0.9704668347923132</v>
       </c>
       <c r="M20">
-        <v>1.039224814984687</v>
+        <v>0.9769494597773413</v>
       </c>
       <c r="N20">
-        <v>1.014704209218127</v>
+        <v>0.9889774523250082</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9755003040636245</v>
+        <v>0.9189036410191463</v>
       </c>
       <c r="D21">
-        <v>1.027640010315617</v>
+        <v>1.024986447669199</v>
       </c>
       <c r="E21">
-        <v>0.9993204128129767</v>
+        <v>0.9447244835190256</v>
       </c>
       <c r="F21">
-        <v>1.018428614907856</v>
+        <v>0.9508374511995797</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046265248432053</v>
+        <v>1.043773353298405</v>
       </c>
       <c r="J21">
-        <v>1.00605930158128</v>
+        <v>0.9522319936310238</v>
       </c>
       <c r="K21">
-        <v>1.042115996177425</v>
+        <v>1.03950941803967</v>
       </c>
       <c r="L21">
-        <v>1.014314671630241</v>
+        <v>0.9608346100536931</v>
       </c>
       <c r="M21">
-        <v>1.033069065022837</v>
+        <v>0.9668141791931523</v>
       </c>
       <c r="N21">
-        <v>1.00748802118614</v>
+        <v>0.9853760098945078</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9692052773820233</v>
+        <v>0.910402987242647</v>
       </c>
       <c r="D22">
-        <v>1.024064450914751</v>
+        <v>1.02310613893882</v>
       </c>
       <c r="E22">
-        <v>0.9942782570993454</v>
+        <v>0.9375315671782044</v>
       </c>
       <c r="F22">
-        <v>1.013754986009549</v>
+        <v>0.9433163795037071</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044709746465945</v>
+        <v>1.042936875306526</v>
       </c>
       <c r="J22">
-        <v>1.00135921506707</v>
+        <v>0.9456497326400248</v>
       </c>
       <c r="K22">
-        <v>1.039173799295338</v>
+        <v>1.038233347409473</v>
       </c>
       <c r="L22">
-        <v>1.00996392142575</v>
+        <v>0.9544511406327324</v>
       </c>
       <c r="M22">
-        <v>1.029058791564511</v>
+        <v>0.9601010760631655</v>
       </c>
       <c r="N22">
-        <v>1.002781260009973</v>
+        <v>0.9829875279012936</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9725652336097916</v>
+        <v>0.9149551545209316</v>
       </c>
       <c r="D23">
-        <v>1.025971245711788</v>
+        <v>1.024108341034332</v>
       </c>
       <c r="E23">
-        <v>0.9969681230420776</v>
+        <v>0.9413813006443147</v>
       </c>
       <c r="F23">
-        <v>1.01624785605727</v>
+        <v>0.9473414929789068</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045540646422898</v>
+        <v>1.043384818678454</v>
       </c>
       <c r="J23">
-        <v>1.00386773659049</v>
+        <v>0.9491741285937515</v>
       </c>
       <c r="K23">
-        <v>1.040743867196981</v>
+        <v>1.038914756993025</v>
       </c>
       <c r="L23">
-        <v>1.012285671922849</v>
+        <v>0.9578686185931821</v>
       </c>
       <c r="M23">
-        <v>1.031198646365095</v>
+        <v>0.9636946302057277</v>
       </c>
       <c r="N23">
-        <v>1.005293343921688</v>
+        <v>0.9842663696683525</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9853077898179783</v>
+        <v>0.9319218090061125</v>
       </c>
       <c r="D24">
-        <v>1.033236076741117</v>
+        <v>1.027938177714621</v>
       </c>
       <c r="E24">
-        <v>1.007197586484168</v>
+        <v>0.9557722502003942</v>
       </c>
       <c r="F24">
-        <v>1.02573603865668</v>
+        <v>0.9623927468181669</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048676736743977</v>
+        <v>1.045051981606987</v>
       </c>
       <c r="J24">
-        <v>1.013383374742474</v>
+        <v>0.9623180595717873</v>
       </c>
       <c r="K24">
-        <v>1.04670363002968</v>
+        <v>1.041491810114895</v>
       </c>
       <c r="L24">
-        <v>1.021099472531194</v>
+        <v>0.9706232769381888</v>
       </c>
       <c r="M24">
-        <v>1.039325787418229</v>
+        <v>0.9771141233572774</v>
       </c>
       <c r="N24">
-        <v>1.014822495371305</v>
+        <v>0.9890359118427414</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9992117539069068</v>
+        <v>0.949966145091384</v>
       </c>
       <c r="D25">
-        <v>1.041217434323026</v>
+        <v>1.032166847508331</v>
       </c>
       <c r="E25">
-        <v>1.018408381627914</v>
+        <v>0.9711460070698046</v>
       </c>
       <c r="F25">
-        <v>1.03614658570381</v>
+        <v>0.9784775877630008</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052062687155758</v>
+        <v>1.046807301455765</v>
       </c>
       <c r="J25">
-        <v>1.023765674827639</v>
+        <v>0.9763031992607354</v>
       </c>
       <c r="K25">
-        <v>1.053207906149941</v>
+        <v>1.044285523978518</v>
       </c>
       <c r="L25">
-        <v>1.030727497441325</v>
+        <v>0.9842093921391534</v>
       </c>
       <c r="M25">
-        <v>1.048208538952274</v>
+        <v>0.9914194600315293</v>
       </c>
       <c r="N25">
-        <v>1.025219539513458</v>
+        <v>0.9941072242145363</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9632914553605529</v>
+        <v>1.035434270339478</v>
       </c>
       <c r="D2">
-        <v>1.035385073080805</v>
+        <v>1.03369087082837</v>
       </c>
       <c r="E2">
-        <v>0.9825409934273126</v>
+        <v>1.043521688405821</v>
       </c>
       <c r="F2">
-        <v>0.9904011200702353</v>
+        <v>1.052325948720622</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048078718629076</v>
+        <v>1.032945189209992</v>
       </c>
       <c r="J2">
-        <v>0.9866284292009603</v>
+        <v>1.040548066182423</v>
       </c>
       <c r="K2">
-        <v>1.046372503079775</v>
+        <v>1.036492492875783</v>
       </c>
       <c r="L2">
-        <v>0.9942490404822428</v>
+        <v>1.04629531870936</v>
       </c>
       <c r="M2">
-        <v>1.001995822417086</v>
+        <v>1.055074991578402</v>
       </c>
       <c r="N2">
-        <v>0.9978454411544136</v>
+        <v>1.017192570817582</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9724483908703203</v>
+        <v>1.037196827573088</v>
       </c>
       <c r="D3">
-        <v>1.037639904338396</v>
+        <v>1.034129597227759</v>
       </c>
       <c r="E3">
-        <v>0.9903905569114577</v>
+        <v>1.045080494862234</v>
       </c>
       <c r="F3">
-        <v>0.9986144128867149</v>
+        <v>1.053952840104193</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048933565243284</v>
+        <v>1.033032541169069</v>
       </c>
       <c r="J3">
-        <v>0.9937193987250561</v>
+        <v>1.041950070006049</v>
       </c>
       <c r="K3">
-        <v>1.047812803703778</v>
+        <v>1.036741240582125</v>
       </c>
       <c r="L3">
-        <v>1.001147887085328</v>
+        <v>1.047663223591214</v>
       </c>
       <c r="M3">
-        <v>1.009265053312248</v>
+        <v>1.056512617831267</v>
       </c>
       <c r="N3">
-        <v>1.000407980667735</v>
+        <v>1.017681221255893</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9781608672679124</v>
+        <v>1.038334867433945</v>
       </c>
       <c r="D4">
-        <v>1.03906320245839</v>
+        <v>1.034412835668525</v>
       </c>
       <c r="E4">
-        <v>0.9952948975938949</v>
+        <v>1.046086972311852</v>
       </c>
       <c r="F4">
-        <v>1.003745492411788</v>
+        <v>1.055003019729354</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049456820618406</v>
+        <v>1.033087175249729</v>
       </c>
       <c r="J4">
-        <v>0.9981402130944674</v>
+        <v>1.042854568334637</v>
       </c>
       <c r="K4">
-        <v>1.048711964964708</v>
+        <v>1.036900820779807</v>
       </c>
       <c r="L4">
-        <v>1.005450442736892</v>
+        <v>1.048545692905292</v>
       </c>
       <c r="M4">
-        <v>1.01379892186153</v>
+        <v>1.057439858918786</v>
       </c>
       <c r="N4">
-        <v>1.002003020150638</v>
+        <v>1.017995881716732</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9805150332475264</v>
+        <v>1.038812726966742</v>
       </c>
       <c r="D5">
-        <v>1.039653290404831</v>
+        <v>1.034531753038344</v>
       </c>
       <c r="E5">
-        <v>0.9973176309559156</v>
+        <v>1.046509586566416</v>
       </c>
       <c r="F5">
-        <v>1.005861570501164</v>
+        <v>1.055443921971726</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049669868290493</v>
+        <v>1.033109691271158</v>
       </c>
       <c r="J5">
-        <v>0.9999612863197866</v>
+        <v>1.043234186462089</v>
       </c>
       <c r="K5">
-        <v>1.0490823695028</v>
+        <v>1.036967578214165</v>
       </c>
       <c r="L5">
-        <v>1.007223122020318</v>
+        <v>1.048916057831095</v>
       </c>
       <c r="M5">
-        <v>1.015666924162078</v>
+        <v>1.057828963970866</v>
       </c>
       <c r="N5">
-        <v>1.002659402134238</v>
+        <v>1.018127802744199</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9809076272105828</v>
+        <v>1.038892928542982</v>
       </c>
       <c r="D6">
-        <v>1.039751891862073</v>
+        <v>1.034551710600387</v>
       </c>
       <c r="E6">
-        <v>0.9976550429770713</v>
+        <v>1.046580515858118</v>
       </c>
       <c r="F6">
-        <v>1.006214541999921</v>
+        <v>1.055517916952532</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049705239766833</v>
+        <v>1.033113445294711</v>
       </c>
       <c r="J6">
-        <v>1.000264929496724</v>
+        <v>1.043297889229946</v>
       </c>
       <c r="K6">
-        <v>1.049144123083707</v>
+        <v>1.036978767706788</v>
       </c>
       <c r="L6">
-        <v>1.007518713715667</v>
+        <v>1.04897820738402</v>
       </c>
       <c r="M6">
-        <v>1.015978410507878</v>
+        <v>1.057894255271886</v>
       </c>
       <c r="N6">
-        <v>1.002768805764302</v>
+        <v>1.018149931734307</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9781925054225232</v>
+        <v>1.038341254845494</v>
       </c>
       <c r="D7">
-        <v>1.039071119363518</v>
+        <v>1.034414425262879</v>
       </c>
       <c r="E7">
-        <v>0.9953220754086732</v>
+        <v>1.04609262128756</v>
       </c>
       <c r="F7">
-        <v>1.00377392515975</v>
+        <v>1.055008913401431</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049459694314966</v>
+        <v>1.033087477886468</v>
       </c>
       <c r="J7">
-        <v>0.9981646901513138</v>
+        <v>1.042859643282012</v>
       </c>
       <c r="K7">
-        <v>1.0487169438867</v>
+        <v>1.036901714093554</v>
       </c>
       <c r="L7">
-        <v>1.005474268115075</v>
+        <v>1.04855064418117</v>
       </c>
       <c r="M7">
-        <v>1.013824028400227</v>
+        <v>1.057445060922897</v>
       </c>
       <c r="N7">
-        <v>1.00201184528754</v>
+        <v>1.017997645869982</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9664323873109463</v>
+        <v>1.036030451513626</v>
       </c>
       <c r="D8">
-        <v>1.03615468316065</v>
+        <v>1.033839273690455</v>
       </c>
       <c r="E8">
-        <v>0.9852317831816474</v>
+        <v>1.044048951693083</v>
       </c>
       <c r="F8">
-        <v>0.9932166734027466</v>
+        <v>1.052876294895634</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04837395036274</v>
+        <v>1.032975101215413</v>
       </c>
       <c r="J8">
-        <v>0.9890612404599727</v>
+        <v>1.041022444249276</v>
       </c>
       <c r="K8">
-        <v>1.046866212633325</v>
+        <v>1.036576842915293</v>
       </c>
       <c r="L8">
-        <v>0.9966155864553028</v>
+        <v>1.046758165181541</v>
       </c>
       <c r="M8">
-        <v>1.004489319981778</v>
+        <v>1.055561471714006</v>
       </c>
       <c r="N8">
-        <v>0.9987251214933248</v>
+        <v>1.017358031435108</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9438970787795357</v>
+        <v>1.031939074479626</v>
       </c>
       <c r="D9">
-        <v>1.03072740384561</v>
+        <v>1.032820880923414</v>
       </c>
       <c r="E9">
-        <v>0.9659676428267934</v>
+        <v>1.040430561481363</v>
       </c>
       <c r="F9">
-        <v>0.9730592788643415</v>
+        <v>1.049098450987253</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046220228076348</v>
+        <v>1.032762616498003</v>
       </c>
       <c r="J9">
-        <v>0.9715993449548674</v>
+        <v>1.03776393087929</v>
       </c>
       <c r="K9">
-        <v>1.043340873341011</v>
+        <v>1.035993864392361</v>
       </c>
       <c r="L9">
-        <v>0.9796381082587795</v>
+        <v>1.043578753614481</v>
       </c>
       <c r="M9">
-        <v>0.9866051161057561</v>
+        <v>1.052218883744749</v>
       </c>
       <c r="N9">
-        <v>0.992402261218203</v>
+        <v>1.016219065580962</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.927351258492593</v>
+        <v>1.02919748458759</v>
       </c>
       <c r="D10">
-        <v>1.026892103065849</v>
+        <v>1.032138724530178</v>
       </c>
       <c r="E10">
-        <v>0.9518891566844835</v>
+        <v>1.038006005078891</v>
       </c>
       <c r="F10">
-        <v>0.9583308446160398</v>
+        <v>1.046565754991037</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044603730206696</v>
+        <v>1.032611235019801</v>
       </c>
       <c r="J10">
-        <v>0.9587763313110689</v>
+        <v>1.035576652469598</v>
       </c>
       <c r="K10">
-        <v>1.040792214321507</v>
+        <v>1.035598175952241</v>
       </c>
       <c r="L10">
-        <v>0.9671850186131061</v>
+        <v>1.041444451710952</v>
       </c>
       <c r="M10">
-        <v>0.973495536408533</v>
+        <v>1.049974023300615</v>
       </c>
       <c r="N10">
-        <v>0.9877508295237044</v>
+        <v>1.015451521655385</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9197401204439619</v>
+        <v>1.028006815935777</v>
       </c>
       <c r="D11">
-        <v>1.025173513167678</v>
+        <v>1.031842591373054</v>
       </c>
       <c r="E11">
-        <v>0.9454331977963126</v>
+        <v>1.036953062389154</v>
       </c>
       <c r="F11">
-        <v>0.9515786049281799</v>
+        <v>1.045465548047732</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04385564531903</v>
+        <v>1.03254337757278</v>
       </c>
       <c r="J11">
-        <v>0.9528798880042477</v>
+        <v>1.034625831321246</v>
       </c>
       <c r="K11">
-        <v>1.039635811896517</v>
+        <v>1.035425175869674</v>
       </c>
       <c r="L11">
-        <v>0.9614631429283022</v>
+        <v>1.040516636375775</v>
       </c>
       <c r="M11">
-        <v>0.9674753384620228</v>
+        <v>1.048997912322495</v>
       </c>
       <c r="N11">
-        <v>0.98561112283104</v>
+        <v>1.015117159059255</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9168368720461614</v>
+        <v>1.027563998401609</v>
       </c>
       <c r="D12">
-        <v>1.024525803524029</v>
+        <v>1.031732481955445</v>
       </c>
       <c r="E12">
-        <v>0.9429740944070837</v>
+        <v>1.036561473345419</v>
       </c>
       <c r="F12">
-        <v>0.9490070211179878</v>
+        <v>1.045056336719752</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043569993714334</v>
+        <v>1.032517825337996</v>
       </c>
       <c r="J12">
-        <v>0.9506313135342757</v>
+        <v>1.03427208172782</v>
       </c>
       <c r="K12">
-        <v>1.039197743789364</v>
+        <v>1.03536066630855</v>
       </c>
       <c r="L12">
-        <v>0.9592819203309624</v>
+        <v>1.04017144294781</v>
       </c>
       <c r="M12">
-        <v>0.9651810184351434</v>
+        <v>1.048634716010404</v>
       </c>
       <c r="N12">
-        <v>0.9847951479627901</v>
+        <v>1.014992654995565</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9174632380914083</v>
+        <v>1.027659009454146</v>
       </c>
       <c r="D13">
-        <v>1.024665174205682</v>
+        <v>1.031756105868167</v>
       </c>
       <c r="E13">
-        <v>0.9435044712832158</v>
+        <v>1.036645492445112</v>
       </c>
       <c r="F13">
-        <v>0.9495616388579807</v>
+        <v>1.045144138860896</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043631628902988</v>
+        <v>1.032523322082516</v>
       </c>
       <c r="J13">
-        <v>0.9511164034847495</v>
+        <v>1.034347988341905</v>
       </c>
       <c r="K13">
-        <v>1.039292107519113</v>
+        <v>1.035374515117966</v>
       </c>
       <c r="L13">
-        <v>0.9597524431134715</v>
+        <v>1.040245513734996</v>
       </c>
       <c r="M13">
-        <v>0.9656759076315259</v>
+        <v>1.048712651364154</v>
       </c>
       <c r="N13">
-        <v>0.9849711784861754</v>
+        <v>1.015019375505401</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9195017485977889</v>
+        <v>1.027970223828762</v>
       </c>
       <c r="D14">
-        <v>1.025120168174504</v>
+        <v>1.031833491980787</v>
       </c>
       <c r="E14">
-        <v>0.9452312187073486</v>
+        <v>1.036920703377269</v>
       </c>
       <c r="F14">
-        <v>0.9513673789746482</v>
+        <v>1.045431733725094</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043832195499357</v>
+        <v>1.03254127249594</v>
       </c>
       <c r="J14">
-        <v>0.9526952542332746</v>
+        <v>1.034596602026187</v>
       </c>
       <c r="K14">
-        <v>1.039599778843835</v>
+        <v>1.035419848579175</v>
       </c>
       <c r="L14">
-        <v>0.9612840230120183</v>
+        <v>1.040488114111587</v>
       </c>
       <c r="M14">
-        <v>0.9672869176519392</v>
+        <v>1.048967903235413</v>
       </c>
       <c r="N14">
-        <v>0.9855441214237685</v>
+        <v>1.015106873803183</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9207473540836291</v>
+        <v>1.028161899829406</v>
       </c>
       <c r="D15">
-        <v>1.025399244741586</v>
+        <v>1.031881157258411</v>
       </c>
       <c r="E15">
-        <v>0.9462867998194869</v>
+        <v>1.037090205975958</v>
       </c>
       <c r="F15">
-        <v>0.9524713018161718</v>
+        <v>1.045608857688032</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043954722224961</v>
+        <v>1.032552286357553</v>
       </c>
       <c r="J15">
-        <v>0.9536600793074242</v>
+        <v>1.034749704863978</v>
       </c>
       <c r="K15">
-        <v>1.039788195614872</v>
+        <v>1.035447746955084</v>
       </c>
       <c r="L15">
-        <v>0.962220067167132</v>
+        <v>1.040637513403958</v>
       </c>
       <c r="M15">
-        <v>0.9682715925156536</v>
+        <v>1.049125089080877</v>
       </c>
       <c r="N15">
-        <v>0.9858942453143208</v>
+        <v>1.015160743580069</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9278462419008268</v>
+        <v>1.029276429182645</v>
       </c>
       <c r="D16">
-        <v>1.02700488746277</v>
+        <v>1.032158362096536</v>
       </c>
       <c r="E16">
-        <v>0.9523094665883092</v>
+        <v>1.038075819006261</v>
       </c>
       <c r="F16">
-        <v>0.9587704887041232</v>
+        <v>1.046638696417366</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044652319463048</v>
+        <v>1.032615689848718</v>
       </c>
       <c r="J16">
-        <v>0.9591598683440112</v>
+        <v>1.03563967586177</v>
       </c>
       <c r="K16">
-        <v>1.040867799798015</v>
+        <v>1.035609622368353</v>
       </c>
       <c r="L16">
-        <v>0.9675573014111051</v>
+        <v>1.041505949752652</v>
       </c>
       <c r="M16">
-        <v>0.9738873073642029</v>
+        <v>1.050038717637092</v>
       </c>
       <c r="N16">
-        <v>0.9878899999694649</v>
+        <v>1.015473669423649</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9321737443381599</v>
+        <v>1.029974583013321</v>
       </c>
       <c r="D17">
-        <v>1.027996140582893</v>
+        <v>1.032332043994542</v>
       </c>
       <c r="E17">
-        <v>0.9559864252527023</v>
+        <v>1.038693229586195</v>
       </c>
       <c r="F17">
-        <v>0.9626167958723663</v>
+        <v>1.047283730864842</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045076660211481</v>
+        <v>1.032654843082645</v>
       </c>
       <c r="J17">
-        <v>0.9625132991415249</v>
+        <v>1.036196926581372</v>
       </c>
       <c r="K17">
-        <v>1.041530478508691</v>
+        <v>1.03571071724533</v>
       </c>
       <c r="L17">
-        <v>0.9708128421590257</v>
+        <v>1.042049710738166</v>
       </c>
       <c r="M17">
-        <v>0.9773136527580365</v>
+        <v>1.050610713114638</v>
       </c>
       <c r="N17">
-        <v>0.9891067471936866</v>
+        <v>1.015669417779463</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.934655495945933</v>
+        <v>1.030381463793026</v>
       </c>
       <c r="D18">
-        <v>1.028568786590876</v>
+        <v>1.032433276798916</v>
       </c>
       <c r="E18">
-        <v>0.9580969453937698</v>
+        <v>1.039053057212056</v>
       </c>
       <c r="F18">
-        <v>0.9648246763341146</v>
+        <v>1.047659628677356</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045319568836325</v>
+        <v>1.032677457799857</v>
       </c>
       <c r="J18">
-        <v>0.9644366203376691</v>
+        <v>1.036521604000939</v>
       </c>
       <c r="K18">
-        <v>1.04191195683684</v>
+        <v>1.035769523561727</v>
       </c>
       <c r="L18">
-        <v>0.9726804270845965</v>
+        <v>1.042366526201189</v>
       </c>
       <c r="M18">
-        <v>0.9792795219742595</v>
+        <v>1.050943956471512</v>
       </c>
       <c r="N18">
-        <v>0.9898045135983187</v>
+        <v>1.015783400775957</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9354947629493697</v>
+        <v>1.030520142405105</v>
       </c>
       <c r="D19">
-        <v>1.02876312333249</v>
+        <v>1.032467782170206</v>
       </c>
       <c r="E19">
-        <v>0.9588109714805227</v>
+        <v>1.039175699103591</v>
       </c>
       <c r="F19">
-        <v>0.9655716647824172</v>
+        <v>1.047787742912237</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045401628902553</v>
+        <v>1.032685131064524</v>
       </c>
       <c r="J19">
-        <v>0.9650870637213531</v>
+        <v>1.036632250397652</v>
       </c>
       <c r="K19">
-        <v>1.042041190761846</v>
+        <v>1.035789547739303</v>
       </c>
       <c r="L19">
-        <v>0.9733120873042822</v>
+        <v>1.042474492932317</v>
       </c>
       <c r="M19">
-        <v>0.9799444716496528</v>
+        <v>1.051057517773256</v>
       </c>
       <c r="N19">
-        <v>0.9900404720782816</v>
+        <v>1.015822233319549</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9317138904361638</v>
+        <v>1.029899713068031</v>
       </c>
       <c r="D20">
-        <v>1.02789036540856</v>
+        <v>1.032313417104346</v>
       </c>
       <c r="E20">
-        <v>0.9555955050581573</v>
+        <v>1.03862701815222</v>
       </c>
       <c r="F20">
-        <v>0.9622078541616653</v>
+        <v>1.04721456003349</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045031612141646</v>
+        <v>1.032650665347487</v>
       </c>
       <c r="J20">
-        <v>0.9621569321976492</v>
+        <v>1.036137175932497</v>
       </c>
       <c r="K20">
-        <v>1.041459905763725</v>
+        <v>1.035699887331889</v>
       </c>
       <c r="L20">
-        <v>0.9704668347923132</v>
+        <v>1.041991406744922</v>
       </c>
       <c r="M20">
-        <v>0.9769494597773413</v>
+        <v>1.050549384049782</v>
       </c>
       <c r="N20">
-        <v>0.9889774523250082</v>
+        <v>1.015648435904005</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9189036410191463</v>
+        <v>1.027878594285656</v>
       </c>
       <c r="D21">
-        <v>1.024986447669199</v>
+        <v>1.031810706793355</v>
       </c>
       <c r="E21">
-        <v>0.9447244835190256</v>
+        <v>1.036839673963553</v>
       </c>
       <c r="F21">
-        <v>0.9508374511995797</v>
+        <v>1.045347059382663</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043773353298405</v>
+        <v>1.03253599612574</v>
       </c>
       <c r="J21">
-        <v>0.9522319936310238</v>
+        <v>1.034523407404736</v>
       </c>
       <c r="K21">
-        <v>1.03950941803967</v>
+        <v>1.035406505892391</v>
       </c>
       <c r="L21">
-        <v>0.9608346100536931</v>
+        <v>1.04041668995551</v>
       </c>
       <c r="M21">
-        <v>0.9668141791931523</v>
+        <v>1.048892755290202</v>
       </c>
       <c r="N21">
-        <v>0.9853760098945078</v>
+        <v>1.015081116246134</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.910402987242647</v>
+        <v>1.026604644434086</v>
       </c>
       <c r="D22">
-        <v>1.02310613893882</v>
+        <v>1.031493983181272</v>
       </c>
       <c r="E22">
-        <v>0.9375315671782044</v>
+        <v>1.035713119686494</v>
       </c>
       <c r="F22">
-        <v>0.9433163795037071</v>
+        <v>1.044169724198714</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042936875306526</v>
+        <v>1.032461891549654</v>
       </c>
       <c r="J22">
-        <v>0.9456497326400248</v>
+        <v>1.033505448912615</v>
       </c>
       <c r="K22">
-        <v>1.038233347409473</v>
+        <v>1.035220601262663</v>
       </c>
       <c r="L22">
-        <v>0.9544511406327324</v>
+        <v>1.03942334761012</v>
       </c>
       <c r="M22">
-        <v>0.9601010760631655</v>
+        <v>1.047847542815665</v>
       </c>
       <c r="N22">
-        <v>0.9829875279012936</v>
+        <v>1.014722641776887</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9149551545209316</v>
+        <v>1.027280298009889</v>
       </c>
       <c r="D23">
-        <v>1.024108341034332</v>
+        <v>1.031661945602234</v>
       </c>
       <c r="E23">
-        <v>0.9413813006443147</v>
+        <v>1.036310595804439</v>
       </c>
       <c r="F23">
-        <v>0.9473414929789068</v>
+        <v>1.044794156664648</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043384818678454</v>
+        <v>1.032501366133955</v>
       </c>
       <c r="J23">
-        <v>0.9491741285937515</v>
+        <v>1.034045407249994</v>
       </c>
       <c r="K23">
-        <v>1.038914756993025</v>
+        <v>1.035319289569375</v>
       </c>
       <c r="L23">
-        <v>0.9578686185931821</v>
+        <v>1.039950250253424</v>
       </c>
       <c r="M23">
-        <v>0.9636946302057277</v>
+        <v>1.048401977814483</v>
       </c>
       <c r="N23">
-        <v>0.9842663696683525</v>
+        <v>1.01491284602706</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9319218090061125</v>
+        <v>1.029933544625557</v>
       </c>
       <c r="D24">
-        <v>1.027938177714621</v>
+        <v>1.032321834019883</v>
       </c>
       <c r="E24">
-        <v>0.9557722502003942</v>
+        <v>1.038656937168404</v>
       </c>
       <c r="F24">
-        <v>0.9623927468181669</v>
+        <v>1.04724581640485</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045051981606987</v>
+        <v>1.032652553774431</v>
       </c>
       <c r="J24">
-        <v>0.9623180595717873</v>
+        <v>1.036164175783279</v>
       </c>
       <c r="K24">
-        <v>1.041491810114895</v>
+        <v>1.035704781400131</v>
       </c>
       <c r="L24">
-        <v>0.9706232769381888</v>
+        <v>1.042017752894628</v>
       </c>
       <c r="M24">
-        <v>0.9771141233572774</v>
+        <v>1.050577097225272</v>
       </c>
       <c r="N24">
-        <v>0.9890359118427414</v>
+        <v>1.015657917308899</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.949966145091384</v>
+        <v>1.032999193218948</v>
       </c>
       <c r="D25">
-        <v>1.032166847508331</v>
+        <v>1.033084733688609</v>
       </c>
       <c r="E25">
-        <v>0.9711460070698046</v>
+        <v>1.041368114414363</v>
       </c>
       <c r="F25">
-        <v>0.9784775877630008</v>
+        <v>1.050077549419802</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046807301455765</v>
+        <v>1.032819262844663</v>
       </c>
       <c r="J25">
-        <v>0.9763031992607354</v>
+        <v>1.038608913530145</v>
       </c>
       <c r="K25">
-        <v>1.044285523978518</v>
+        <v>1.036145820804346</v>
       </c>
       <c r="L25">
-        <v>0.9842093921391534</v>
+        <v>1.044403246905675</v>
       </c>
       <c r="M25">
-        <v>0.9914194600315293</v>
+        <v>1.053085874245875</v>
       </c>
       <c r="N25">
-        <v>0.9941072242145363</v>
+        <v>1.016514948707568</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035434270339478</v>
+        <v>0.9632914553605526</v>
       </c>
       <c r="D2">
-        <v>1.03369087082837</v>
+        <v>1.035385073080805</v>
       </c>
       <c r="E2">
-        <v>1.043521688405821</v>
+        <v>0.9825409934273123</v>
       </c>
       <c r="F2">
-        <v>1.052325948720622</v>
+        <v>0.990401120070235</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032945189209992</v>
+        <v>1.048078718629076</v>
       </c>
       <c r="J2">
-        <v>1.040548066182423</v>
+        <v>0.9866284292009601</v>
       </c>
       <c r="K2">
-        <v>1.036492492875783</v>
+        <v>1.046372503079775</v>
       </c>
       <c r="L2">
-        <v>1.04629531870936</v>
+        <v>0.9942490404822425</v>
       </c>
       <c r="M2">
-        <v>1.055074991578402</v>
+        <v>1.001995822417086</v>
       </c>
       <c r="N2">
-        <v>1.017192570817582</v>
+        <v>0.9978454411544136</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037196827573088</v>
+        <v>0.9724483908703211</v>
       </c>
       <c r="D3">
-        <v>1.034129597227759</v>
+        <v>1.037639904338396</v>
       </c>
       <c r="E3">
-        <v>1.045080494862234</v>
+        <v>0.9903905569114584</v>
       </c>
       <c r="F3">
-        <v>1.053952840104193</v>
+        <v>0.9986144128867156</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033032541169069</v>
+        <v>1.048933565243284</v>
       </c>
       <c r="J3">
-        <v>1.041950070006049</v>
+        <v>0.9937193987250567</v>
       </c>
       <c r="K3">
-        <v>1.036741240582125</v>
+        <v>1.047812803703778</v>
       </c>
       <c r="L3">
-        <v>1.047663223591214</v>
+        <v>1.001147887085329</v>
       </c>
       <c r="M3">
-        <v>1.056512617831267</v>
+        <v>1.009265053312249</v>
       </c>
       <c r="N3">
-        <v>1.017681221255893</v>
+        <v>1.000407980667735</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038334867433945</v>
+        <v>0.978160867267911</v>
       </c>
       <c r="D4">
-        <v>1.034412835668525</v>
+        <v>1.03906320245839</v>
       </c>
       <c r="E4">
-        <v>1.046086972311852</v>
+        <v>0.9952948975938933</v>
       </c>
       <c r="F4">
-        <v>1.055003019729354</v>
+        <v>1.003745492411786</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033087175249729</v>
+        <v>1.049456820618406</v>
       </c>
       <c r="J4">
-        <v>1.042854568334637</v>
+        <v>0.998140213094466</v>
       </c>
       <c r="K4">
-        <v>1.036900820779807</v>
+        <v>1.048711964964708</v>
       </c>
       <c r="L4">
-        <v>1.048545692905292</v>
+        <v>1.00545044273689</v>
       </c>
       <c r="M4">
-        <v>1.057439858918786</v>
+        <v>1.013798921861528</v>
       </c>
       <c r="N4">
-        <v>1.017995881716732</v>
+        <v>1.002003020150638</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038812726966742</v>
+        <v>0.9805150332475265</v>
       </c>
       <c r="D5">
-        <v>1.034531753038344</v>
+        <v>1.039653290404831</v>
       </c>
       <c r="E5">
-        <v>1.046509586566416</v>
+        <v>0.9973176309559157</v>
       </c>
       <c r="F5">
-        <v>1.055443921971726</v>
+        <v>1.005861570501164</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033109691271158</v>
+        <v>1.049669868290493</v>
       </c>
       <c r="J5">
-        <v>1.043234186462089</v>
+        <v>0.9999612863197868</v>
       </c>
       <c r="K5">
-        <v>1.036967578214165</v>
+        <v>1.0490823695028</v>
       </c>
       <c r="L5">
-        <v>1.048916057831095</v>
+        <v>1.007223122020318</v>
       </c>
       <c r="M5">
-        <v>1.057828963970866</v>
+        <v>1.015666924162079</v>
       </c>
       <c r="N5">
-        <v>1.018127802744199</v>
+        <v>1.002659402134238</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038892928542982</v>
+        <v>0.9809076272105839</v>
       </c>
       <c r="D6">
-        <v>1.034551710600387</v>
+        <v>1.039751891862073</v>
       </c>
       <c r="E6">
-        <v>1.046580515858118</v>
+        <v>0.9976550429770725</v>
       </c>
       <c r="F6">
-        <v>1.055517916952532</v>
+        <v>1.006214541999922</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033113445294711</v>
+        <v>1.049705239766833</v>
       </c>
       <c r="J6">
-        <v>1.043297889229946</v>
+        <v>1.000264929496726</v>
       </c>
       <c r="K6">
-        <v>1.036978767706788</v>
+        <v>1.049144123083707</v>
       </c>
       <c r="L6">
-        <v>1.04897820738402</v>
+        <v>1.007518713715668</v>
       </c>
       <c r="M6">
-        <v>1.057894255271886</v>
+        <v>1.015978410507879</v>
       </c>
       <c r="N6">
-        <v>1.018149931734307</v>
+        <v>1.002768805764302</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038341254845494</v>
+        <v>0.978192505422522</v>
       </c>
       <c r="D7">
-        <v>1.034414425262879</v>
+        <v>1.039071119363518</v>
       </c>
       <c r="E7">
-        <v>1.04609262128756</v>
+        <v>0.9953220754086719</v>
       </c>
       <c r="F7">
-        <v>1.055008913401431</v>
+        <v>1.003773925159749</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033087477886468</v>
+        <v>1.049459694314966</v>
       </c>
       <c r="J7">
-        <v>1.042859643282012</v>
+        <v>0.9981646901513125</v>
       </c>
       <c r="K7">
-        <v>1.036901714093554</v>
+        <v>1.048716943886701</v>
       </c>
       <c r="L7">
-        <v>1.04855064418117</v>
+        <v>1.005474268115073</v>
       </c>
       <c r="M7">
-        <v>1.057445060922897</v>
+        <v>1.013824028400225</v>
       </c>
       <c r="N7">
-        <v>1.017997645869982</v>
+        <v>1.00201184528754</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036030451513626</v>
+        <v>0.9664323873109461</v>
       </c>
       <c r="D8">
-        <v>1.033839273690455</v>
+        <v>1.03615468316065</v>
       </c>
       <c r="E8">
-        <v>1.044048951693083</v>
+        <v>0.9852317831816471</v>
       </c>
       <c r="F8">
-        <v>1.052876294895634</v>
+        <v>0.9932166734027464</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032975101215413</v>
+        <v>1.04837395036274</v>
       </c>
       <c r="J8">
-        <v>1.041022444249276</v>
+        <v>0.9890612404599725</v>
       </c>
       <c r="K8">
-        <v>1.036576842915293</v>
+        <v>1.046866212633326</v>
       </c>
       <c r="L8">
-        <v>1.046758165181541</v>
+        <v>0.9966155864553026</v>
       </c>
       <c r="M8">
-        <v>1.055561471714006</v>
+        <v>1.004489319981778</v>
       </c>
       <c r="N8">
-        <v>1.017358031435108</v>
+        <v>0.9987251214933248</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031939074479626</v>
+        <v>0.9438970787795363</v>
       </c>
       <c r="D9">
-        <v>1.032820880923414</v>
+        <v>1.03072740384561</v>
       </c>
       <c r="E9">
-        <v>1.040430561481363</v>
+        <v>0.965967642826794</v>
       </c>
       <c r="F9">
-        <v>1.049098450987253</v>
+        <v>0.9730592788643423</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032762616498003</v>
+        <v>1.046220228076348</v>
       </c>
       <c r="J9">
-        <v>1.03776393087929</v>
+        <v>0.9715993449548681</v>
       </c>
       <c r="K9">
-        <v>1.035993864392361</v>
+        <v>1.043340873341011</v>
       </c>
       <c r="L9">
-        <v>1.043578753614481</v>
+        <v>0.9796381082587803</v>
       </c>
       <c r="M9">
-        <v>1.052218883744749</v>
+        <v>0.9866051161057566</v>
       </c>
       <c r="N9">
-        <v>1.016219065580962</v>
+        <v>0.9924022612182033</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02919748458759</v>
+        <v>0.9273512584925936</v>
       </c>
       <c r="D10">
-        <v>1.032138724530178</v>
+        <v>1.026892103065849</v>
       </c>
       <c r="E10">
-        <v>1.038006005078891</v>
+        <v>0.9518891566844838</v>
       </c>
       <c r="F10">
-        <v>1.046565754991037</v>
+        <v>0.9583308446160401</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032611235019801</v>
+        <v>1.044603730206696</v>
       </c>
       <c r="J10">
-        <v>1.035576652469598</v>
+        <v>0.9587763313110694</v>
       </c>
       <c r="K10">
-        <v>1.035598175952241</v>
+        <v>1.040792214321507</v>
       </c>
       <c r="L10">
-        <v>1.041444451710952</v>
+        <v>0.9671850186131066</v>
       </c>
       <c r="M10">
-        <v>1.049974023300615</v>
+        <v>0.9734955364085336</v>
       </c>
       <c r="N10">
-        <v>1.015451521655385</v>
+        <v>0.9877508295237045</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028006815935777</v>
+        <v>0.9197401204439618</v>
       </c>
       <c r="D11">
-        <v>1.031842591373054</v>
+        <v>1.025173513167678</v>
       </c>
       <c r="E11">
-        <v>1.036953062389154</v>
+        <v>0.9454331977963124</v>
       </c>
       <c r="F11">
-        <v>1.045465548047732</v>
+        <v>0.9515786049281799</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03254337757278</v>
+        <v>1.04385564531903</v>
       </c>
       <c r="J11">
-        <v>1.034625831321246</v>
+        <v>0.9528798880042476</v>
       </c>
       <c r="K11">
-        <v>1.035425175869674</v>
+        <v>1.039635811896517</v>
       </c>
       <c r="L11">
-        <v>1.040516636375775</v>
+        <v>0.961463142928302</v>
       </c>
       <c r="M11">
-        <v>1.048997912322495</v>
+        <v>0.9674753384620227</v>
       </c>
       <c r="N11">
-        <v>1.015117159059255</v>
+        <v>0.9856111228310402</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027563998401609</v>
+        <v>0.9168368720461615</v>
       </c>
       <c r="D12">
-        <v>1.031732481955445</v>
+        <v>1.024525803524029</v>
       </c>
       <c r="E12">
-        <v>1.036561473345419</v>
+        <v>0.9429740944070838</v>
       </c>
       <c r="F12">
-        <v>1.045056336719752</v>
+        <v>0.9490070211179881</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032517825337996</v>
+        <v>1.043569993714334</v>
       </c>
       <c r="J12">
-        <v>1.03427208172782</v>
+        <v>0.9506313135342758</v>
       </c>
       <c r="K12">
-        <v>1.03536066630855</v>
+        <v>1.039197743789365</v>
       </c>
       <c r="L12">
-        <v>1.04017144294781</v>
+        <v>0.9592819203309625</v>
       </c>
       <c r="M12">
-        <v>1.048634716010404</v>
+        <v>0.9651810184351435</v>
       </c>
       <c r="N12">
-        <v>1.014992654995565</v>
+        <v>0.98479514796279</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027659009454146</v>
+        <v>0.9174632380914075</v>
       </c>
       <c r="D13">
-        <v>1.031756105868167</v>
+        <v>1.024665174205682</v>
       </c>
       <c r="E13">
-        <v>1.036645492445112</v>
+        <v>0.9435044712832149</v>
       </c>
       <c r="F13">
-        <v>1.045144138860896</v>
+        <v>0.9495616388579802</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032523322082516</v>
+        <v>1.043631628902989</v>
       </c>
       <c r="J13">
-        <v>1.034347988341905</v>
+        <v>0.9511164034847487</v>
       </c>
       <c r="K13">
-        <v>1.035374515117966</v>
+        <v>1.039292107519113</v>
       </c>
       <c r="L13">
-        <v>1.040245513734996</v>
+        <v>0.9597524431134709</v>
       </c>
       <c r="M13">
-        <v>1.048712651364154</v>
+        <v>0.9656759076315253</v>
       </c>
       <c r="N13">
-        <v>1.015019375505401</v>
+        <v>0.9849711784861752</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027970223828762</v>
+        <v>0.9195017485977891</v>
       </c>
       <c r="D14">
-        <v>1.031833491980787</v>
+        <v>1.025120168174504</v>
       </c>
       <c r="E14">
-        <v>1.036920703377269</v>
+        <v>0.9452312187073488</v>
       </c>
       <c r="F14">
-        <v>1.045431733725094</v>
+        <v>0.9513673789746486</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03254127249594</v>
+        <v>1.043832195499357</v>
       </c>
       <c r="J14">
-        <v>1.034596602026187</v>
+        <v>0.9526952542332749</v>
       </c>
       <c r="K14">
-        <v>1.035419848579175</v>
+        <v>1.039599778843835</v>
       </c>
       <c r="L14">
-        <v>1.040488114111587</v>
+        <v>0.9612840230120185</v>
       </c>
       <c r="M14">
-        <v>1.048967903235413</v>
+        <v>0.9672869176519395</v>
       </c>
       <c r="N14">
-        <v>1.015106873803183</v>
+        <v>0.9855441214237686</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028161899829406</v>
+        <v>0.9207473540836278</v>
       </c>
       <c r="D15">
-        <v>1.031881157258411</v>
+        <v>1.025399244741585</v>
       </c>
       <c r="E15">
-        <v>1.037090205975958</v>
+        <v>0.9462867998194858</v>
       </c>
       <c r="F15">
-        <v>1.045608857688032</v>
+        <v>0.9524713018161707</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032552286357553</v>
+        <v>1.04395472222496</v>
       </c>
       <c r="J15">
-        <v>1.034749704863978</v>
+        <v>0.9536600793074231</v>
       </c>
       <c r="K15">
-        <v>1.035447746955084</v>
+        <v>1.039788195614872</v>
       </c>
       <c r="L15">
-        <v>1.040637513403958</v>
+        <v>0.9622200671671309</v>
       </c>
       <c r="M15">
-        <v>1.049125089080877</v>
+        <v>0.9682715925156529</v>
       </c>
       <c r="N15">
-        <v>1.015160743580069</v>
+        <v>0.9858942453143203</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029276429182645</v>
+        <v>0.9278462419008265</v>
       </c>
       <c r="D16">
-        <v>1.032158362096536</v>
+        <v>1.02700488746277</v>
       </c>
       <c r="E16">
-        <v>1.038075819006261</v>
+        <v>0.9523094665883087</v>
       </c>
       <c r="F16">
-        <v>1.046638696417366</v>
+        <v>0.9587704887041225</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032615689848718</v>
+        <v>1.044652319463048</v>
       </c>
       <c r="J16">
-        <v>1.03563967586177</v>
+        <v>0.9591598683440111</v>
       </c>
       <c r="K16">
-        <v>1.035609622368353</v>
+        <v>1.040867799798015</v>
       </c>
       <c r="L16">
-        <v>1.041505949752652</v>
+        <v>0.9675573014111047</v>
       </c>
       <c r="M16">
-        <v>1.050038717637092</v>
+        <v>0.9738873073642024</v>
       </c>
       <c r="N16">
-        <v>1.015473669423649</v>
+        <v>0.9878899999694649</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029974583013321</v>
+        <v>0.9321737443381604</v>
       </c>
       <c r="D17">
-        <v>1.032332043994542</v>
+        <v>1.027996140582894</v>
       </c>
       <c r="E17">
-        <v>1.038693229586195</v>
+        <v>0.9559864252527026</v>
       </c>
       <c r="F17">
-        <v>1.047283730864842</v>
+        <v>0.9626167958723665</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032654843082645</v>
+        <v>1.045076660211481</v>
       </c>
       <c r="J17">
-        <v>1.036196926581372</v>
+        <v>0.9625132991415252</v>
       </c>
       <c r="K17">
-        <v>1.03571071724533</v>
+        <v>1.041530478508691</v>
       </c>
       <c r="L17">
-        <v>1.042049710738166</v>
+        <v>0.9708128421590261</v>
       </c>
       <c r="M17">
-        <v>1.050610713114638</v>
+        <v>0.9773136527580368</v>
       </c>
       <c r="N17">
-        <v>1.015669417779463</v>
+        <v>0.9891067471936866</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030381463793026</v>
+        <v>0.9346554959459338</v>
       </c>
       <c r="D18">
-        <v>1.032433276798916</v>
+        <v>1.028568786590875</v>
       </c>
       <c r="E18">
-        <v>1.039053057212056</v>
+        <v>0.9580969453937703</v>
       </c>
       <c r="F18">
-        <v>1.047659628677356</v>
+        <v>0.9648246763341153</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032677457799857</v>
+        <v>1.045319568836325</v>
       </c>
       <c r="J18">
-        <v>1.036521604000939</v>
+        <v>0.9644366203376696</v>
       </c>
       <c r="K18">
-        <v>1.035769523561727</v>
+        <v>1.04191195683684</v>
       </c>
       <c r="L18">
-        <v>1.042366526201189</v>
+        <v>0.9726804270845971</v>
       </c>
       <c r="M18">
-        <v>1.050943956471512</v>
+        <v>0.9792795219742599</v>
       </c>
       <c r="N18">
-        <v>1.015783400775957</v>
+        <v>0.9898045135983188</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030520142405105</v>
+        <v>0.9354947629493695</v>
       </c>
       <c r="D19">
-        <v>1.032467782170206</v>
+        <v>1.02876312333249</v>
       </c>
       <c r="E19">
-        <v>1.039175699103591</v>
+        <v>0.9588109714805222</v>
       </c>
       <c r="F19">
-        <v>1.047787742912237</v>
+        <v>0.9655716647824165</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032685131064524</v>
+        <v>1.045401628902553</v>
       </c>
       <c r="J19">
-        <v>1.036632250397652</v>
+        <v>0.9650870637213528</v>
       </c>
       <c r="K19">
-        <v>1.035789547739303</v>
+        <v>1.042041190761846</v>
       </c>
       <c r="L19">
-        <v>1.042474492932317</v>
+        <v>0.9733120873042819</v>
       </c>
       <c r="M19">
-        <v>1.051057517773256</v>
+        <v>0.9799444716496523</v>
       </c>
       <c r="N19">
-        <v>1.015822233319549</v>
+        <v>0.9900404720782815</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029899713068031</v>
+        <v>0.9317138904361628</v>
       </c>
       <c r="D20">
-        <v>1.032313417104346</v>
+        <v>1.027890365408561</v>
       </c>
       <c r="E20">
-        <v>1.03862701815222</v>
+        <v>0.9555955050581565</v>
       </c>
       <c r="F20">
-        <v>1.04721456003349</v>
+        <v>0.9622078541616645</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032650665347487</v>
+        <v>1.045031612141646</v>
       </c>
       <c r="J20">
-        <v>1.036137175932497</v>
+        <v>0.9621569321976483</v>
       </c>
       <c r="K20">
-        <v>1.035699887331889</v>
+        <v>1.041459905763725</v>
       </c>
       <c r="L20">
-        <v>1.041991406744922</v>
+        <v>0.9704668347923124</v>
       </c>
       <c r="M20">
-        <v>1.050549384049782</v>
+        <v>0.9769494597773406</v>
       </c>
       <c r="N20">
-        <v>1.015648435904005</v>
+        <v>0.9889774523250079</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027878594285656</v>
+        <v>0.9189036410191459</v>
       </c>
       <c r="D21">
-        <v>1.031810706793355</v>
+        <v>1.024986447669199</v>
       </c>
       <c r="E21">
-        <v>1.036839673963553</v>
+        <v>0.944724483519025</v>
       </c>
       <c r="F21">
-        <v>1.045347059382663</v>
+        <v>0.9508374511995792</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03253599612574</v>
+        <v>1.043773353298405</v>
       </c>
       <c r="J21">
-        <v>1.034523407404736</v>
+        <v>0.9522319936310234</v>
       </c>
       <c r="K21">
-        <v>1.035406505892391</v>
+        <v>1.03950941803967</v>
       </c>
       <c r="L21">
-        <v>1.04041668995551</v>
+        <v>0.9608346100536929</v>
       </c>
       <c r="M21">
-        <v>1.048892755290202</v>
+        <v>0.9668141791931518</v>
       </c>
       <c r="N21">
-        <v>1.015081116246134</v>
+        <v>0.9853760098945076</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026604644434086</v>
+        <v>0.9104029872426469</v>
       </c>
       <c r="D22">
-        <v>1.031493983181272</v>
+        <v>1.02310613893882</v>
       </c>
       <c r="E22">
-        <v>1.035713119686494</v>
+        <v>0.9375315671782041</v>
       </c>
       <c r="F22">
-        <v>1.044169724198714</v>
+        <v>0.9433163795037067</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032461891549654</v>
+        <v>1.042936875306526</v>
       </c>
       <c r="J22">
-        <v>1.033505448912615</v>
+        <v>0.9456497326400246</v>
       </c>
       <c r="K22">
-        <v>1.035220601262663</v>
+        <v>1.038233347409473</v>
       </c>
       <c r="L22">
-        <v>1.03942334761012</v>
+        <v>0.9544511406327321</v>
       </c>
       <c r="M22">
-        <v>1.047847542815665</v>
+        <v>0.9601010760631652</v>
       </c>
       <c r="N22">
-        <v>1.014722641776887</v>
+        <v>0.9829875279012936</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027280298009889</v>
+        <v>0.9149551545209317</v>
       </c>
       <c r="D23">
-        <v>1.031661945602234</v>
+        <v>1.024108341034332</v>
       </c>
       <c r="E23">
-        <v>1.036310595804439</v>
+        <v>0.9413813006443148</v>
       </c>
       <c r="F23">
-        <v>1.044794156664648</v>
+        <v>0.947341492978907</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032501366133955</v>
+        <v>1.043384818678454</v>
       </c>
       <c r="J23">
-        <v>1.034045407249994</v>
+        <v>0.9491741285937518</v>
       </c>
       <c r="K23">
-        <v>1.035319289569375</v>
+        <v>1.038914756993025</v>
       </c>
       <c r="L23">
-        <v>1.039950250253424</v>
+        <v>0.9578686185931823</v>
       </c>
       <c r="M23">
-        <v>1.048401977814483</v>
+        <v>0.963694630205728</v>
       </c>
       <c r="N23">
-        <v>1.01491284602706</v>
+        <v>0.9842663696683527</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029933544625557</v>
+        <v>0.9319218090061123</v>
       </c>
       <c r="D24">
-        <v>1.032321834019883</v>
+        <v>1.027938177714621</v>
       </c>
       <c r="E24">
-        <v>1.038656937168404</v>
+        <v>0.955772250200394</v>
       </c>
       <c r="F24">
-        <v>1.04724581640485</v>
+        <v>0.962392746818167</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032652553774431</v>
+        <v>1.045051981606987</v>
       </c>
       <c r="J24">
-        <v>1.036164175783279</v>
+        <v>0.9623180595717871</v>
       </c>
       <c r="K24">
-        <v>1.035704781400131</v>
+        <v>1.041491810114895</v>
       </c>
       <c r="L24">
-        <v>1.042017752894628</v>
+        <v>0.9706232769381886</v>
       </c>
       <c r="M24">
-        <v>1.050577097225272</v>
+        <v>0.9771141233572774</v>
       </c>
       <c r="N24">
-        <v>1.015657917308899</v>
+        <v>0.9890359118427413</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032999193218948</v>
+        <v>0.9499661450913827</v>
       </c>
       <c r="D25">
-        <v>1.033084733688609</v>
+        <v>1.032166847508331</v>
       </c>
       <c r="E25">
-        <v>1.041368114414363</v>
+        <v>0.9711460070698029</v>
       </c>
       <c r="F25">
-        <v>1.050077549419802</v>
+        <v>0.9784775877629995</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032819262844663</v>
+        <v>1.046807301455765</v>
       </c>
       <c r="J25">
-        <v>1.038608913530145</v>
+        <v>0.9763031992607342</v>
       </c>
       <c r="K25">
-        <v>1.036145820804346</v>
+        <v>1.044285523978518</v>
       </c>
       <c r="L25">
-        <v>1.044403246905675</v>
+        <v>0.9842093921391519</v>
       </c>
       <c r="M25">
-        <v>1.053085874245875</v>
+        <v>0.9914194600315279</v>
       </c>
       <c r="N25">
-        <v>1.016514948707568</v>
+        <v>0.9941072242145359</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9632914553605526</v>
+        <v>1.009089277852055</v>
       </c>
       <c r="D2">
-        <v>1.035385073080805</v>
+        <v>1.04350680149051</v>
       </c>
       <c r="E2">
-        <v>0.9825409934273123</v>
+        <v>1.026540940027206</v>
       </c>
       <c r="F2">
-        <v>0.990401120070235</v>
+        <v>1.042741916824296</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048078718629076</v>
+        <v>1.052089071053066</v>
       </c>
       <c r="J2">
-        <v>0.9866284292009601</v>
+        <v>1.031001487707401</v>
       </c>
       <c r="K2">
-        <v>1.046372503079775</v>
+        <v>1.0543915509953</v>
       </c>
       <c r="L2">
-        <v>0.9942490404822425</v>
+        <v>1.037642497567266</v>
       </c>
       <c r="M2">
-        <v>1.001995822417086</v>
+        <v>1.053636251449248</v>
       </c>
       <c r="N2">
-        <v>0.9978454411544136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014208796374713</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.05102181031141</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.049529725589923</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9724483908703211</v>
+        <v>1.012355249713295</v>
       </c>
       <c r="D3">
-        <v>1.037639904338396</v>
+        <v>1.045371832676339</v>
       </c>
       <c r="E3">
-        <v>0.9903905569114584</v>
+        <v>1.028979247495734</v>
       </c>
       <c r="F3">
-        <v>0.9986144128867156</v>
+        <v>1.044971122085927</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048933565243284</v>
+        <v>1.052701774238346</v>
       </c>
       <c r="J3">
-        <v>0.9937193987250567</v>
+        <v>1.032514672599544</v>
       </c>
       <c r="K3">
-        <v>1.047812803703778</v>
+        <v>1.055455308792697</v>
       </c>
       <c r="L3">
-        <v>1.001147887085329</v>
+        <v>1.039254288857611</v>
       </c>
       <c r="M3">
-        <v>1.009265053312249</v>
+        <v>1.055059192462729</v>
       </c>
       <c r="N3">
-        <v>1.000407980667735</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014720704247236</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.052147955743392</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.050279244060766</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.978160867267911</v>
+        <v>1.014436040188728</v>
       </c>
       <c r="D4">
-        <v>1.03906320245839</v>
+        <v>1.046565681047885</v>
       </c>
       <c r="E4">
-        <v>0.9952948975938933</v>
+        <v>1.030538810356367</v>
       </c>
       <c r="F4">
-        <v>1.003745492411786</v>
+        <v>1.046398036888329</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049456820618406</v>
+        <v>1.053085789970017</v>
       </c>
       <c r="J4">
-        <v>0.998140213094466</v>
+        <v>1.033477542991571</v>
       </c>
       <c r="K4">
-        <v>1.048711964964708</v>
+        <v>1.056132795920594</v>
       </c>
       <c r="L4">
-        <v>1.00545044273689</v>
+        <v>1.040282117319674</v>
       </c>
       <c r="M4">
-        <v>1.013798921861528</v>
+        <v>1.05596696051083</v>
       </c>
       <c r="N4">
-        <v>1.002003020150638</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015046381445977</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.052866381578628</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.050759153067143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9805150332475265</v>
+        <v>1.01530464421512</v>
       </c>
       <c r="D5">
-        <v>1.039653290404831</v>
+        <v>1.047069098590103</v>
       </c>
       <c r="E5">
-        <v>0.9973176309559157</v>
+        <v>1.031191860434209</v>
       </c>
       <c r="F5">
-        <v>1.005861570501164</v>
+        <v>1.046996643413967</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049669868290493</v>
+        <v>1.053246186738653</v>
       </c>
       <c r="J5">
-        <v>0.9999612863197868</v>
+        <v>1.033879905972509</v>
       </c>
       <c r="K5">
-        <v>1.0490823695028</v>
+        <v>1.056419577232747</v>
       </c>
       <c r="L5">
-        <v>1.007223122020318</v>
+        <v>1.040712316904428</v>
       </c>
       <c r="M5">
-        <v>1.015666924162079</v>
+        <v>1.056347883427144</v>
       </c>
       <c r="N5">
-        <v>1.002659402134238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015182619714411</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.053167851408563</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.050968991200596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9809076272105839</v>
+        <v>1.0154517787496</v>
       </c>
       <c r="D6">
-        <v>1.039751891862073</v>
+        <v>1.047159003785284</v>
       </c>
       <c r="E6">
-        <v>0.9976550429770725</v>
+        <v>1.031303287769674</v>
       </c>
       <c r="F6">
-        <v>1.006214541999922</v>
+        <v>1.047099822772312</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049705239766833</v>
+        <v>1.053275262806872</v>
       </c>
       <c r="J6">
-        <v>1.000264929496726</v>
+        <v>1.033948932997354</v>
       </c>
       <c r="K6">
-        <v>1.049144123083707</v>
+        <v>1.056473078641949</v>
       </c>
       <c r="L6">
-        <v>1.007518713715668</v>
+        <v>1.040786345548585</v>
       </c>
       <c r="M6">
-        <v>1.015978410507879</v>
+        <v>1.056414516724718</v>
       </c>
       <c r="N6">
-        <v>1.002768805764302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015206187002593</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.053220586288276</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.051015437407635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.978192505422522</v>
+        <v>1.014452330541421</v>
       </c>
       <c r="D7">
-        <v>1.039071119363518</v>
+        <v>1.046587298322752</v>
       </c>
       <c r="E7">
-        <v>0.9953220754086719</v>
+        <v>1.030552990384589</v>
       </c>
       <c r="F7">
-        <v>1.003773925159749</v>
+        <v>1.046413768386268</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049459694314966</v>
+        <v>1.053094153348885</v>
       </c>
       <c r="J7">
-        <v>0.9981646901513125</v>
+        <v>1.033487474257498</v>
       </c>
       <c r="K7">
-        <v>1.048716943886701</v>
+        <v>1.056151356131805</v>
       </c>
       <c r="L7">
-        <v>1.005474268115073</v>
+        <v>1.040293255955597</v>
       </c>
       <c r="M7">
-        <v>1.013824028400225</v>
+        <v>1.055979697744614</v>
       </c>
       <c r="N7">
-        <v>1.00201184528754</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01505027698124</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.052876462075968</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.050792094429702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9664323873109461</v>
+        <v>1.01020569249688</v>
       </c>
       <c r="D8">
-        <v>1.03615468316065</v>
+        <v>1.044158128976547</v>
       </c>
       <c r="E8">
-        <v>0.9852317831816471</v>
+        <v>1.027375569493812</v>
       </c>
       <c r="F8">
-        <v>0.9932166734027464</v>
+        <v>1.043508055655705</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04837395036274</v>
+        <v>1.052306391842531</v>
       </c>
       <c r="J8">
-        <v>0.9890612404599725</v>
+        <v>1.031521935227863</v>
       </c>
       <c r="K8">
-        <v>1.046866212633326</v>
+        <v>1.054771413418276</v>
       </c>
       <c r="L8">
-        <v>0.9966155864553026</v>
+        <v>1.03819706232972</v>
       </c>
       <c r="M8">
-        <v>1.004489319981778</v>
+        <v>1.05412925008063</v>
       </c>
       <c r="N8">
-        <v>0.9987251214933248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014385567081491</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.051411979983731</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.049820881691382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9438970787795363</v>
+        <v>1.002456746470574</v>
       </c>
       <c r="D9">
-        <v>1.03072740384561</v>
+        <v>1.039752276061184</v>
       </c>
       <c r="E9">
-        <v>0.965967642826794</v>
+        <v>1.021623931283257</v>
       </c>
       <c r="F9">
-        <v>0.9730592788643423</v>
+        <v>1.038252978653032</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046220228076348</v>
+        <v>1.050811656873757</v>
       </c>
       <c r="J9">
-        <v>0.9715993449548681</v>
+        <v>1.0279230479696</v>
       </c>
       <c r="K9">
-        <v>1.043340873341011</v>
+        <v>1.052231720766149</v>
       </c>
       <c r="L9">
-        <v>0.9796381082587803</v>
+        <v>1.034375653729783</v>
       </c>
       <c r="M9">
-        <v>0.9866051161057566</v>
+        <v>1.050754483835672</v>
       </c>
       <c r="N9">
-        <v>0.9924022612182033</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013167186151266</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.048741113644014</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.048022082142855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9273512584925936</v>
+        <v>0.9971417444065438</v>
       </c>
       <c r="D10">
-        <v>1.026892103065849</v>
+        <v>1.036791453069714</v>
       </c>
       <c r="E10">
-        <v>0.9518891566844838</v>
+        <v>1.017735606742029</v>
       </c>
       <c r="F10">
-        <v>0.9583308446160401</v>
+        <v>1.034742764980308</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044603730206696</v>
+        <v>1.049775445169869</v>
       </c>
       <c r="J10">
-        <v>0.9587763313110694</v>
+        <v>1.025469225868349</v>
       </c>
       <c r="K10">
-        <v>1.040792214321507</v>
+        <v>1.050526749368363</v>
       </c>
       <c r="L10">
-        <v>0.9671850186131066</v>
+        <v>1.031791856496634</v>
       </c>
       <c r="M10">
-        <v>0.9734955364085336</v>
+        <v>1.048511836977967</v>
       </c>
       <c r="N10">
-        <v>0.9877508295237045</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012339278498763</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.047017137784315</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.046833160152677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9197401204439618</v>
+        <v>0.9950948729522738</v>
       </c>
       <c r="D11">
-        <v>1.025173513167678</v>
+        <v>1.035865185825353</v>
       </c>
       <c r="E11">
-        <v>0.9454331977963124</v>
+        <v>1.016415044693626</v>
       </c>
       <c r="F11">
-        <v>0.9515786049281799</v>
+        <v>1.033836150934216</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04385564531903</v>
+        <v>1.049523241229112</v>
       </c>
       <c r="J11">
-        <v>0.9528798880042476</v>
+        <v>1.024673144318752</v>
       </c>
       <c r="K11">
-        <v>1.039635811896517</v>
+        <v>1.050141014886837</v>
       </c>
       <c r="L11">
-        <v>0.961463142928302</v>
+        <v>1.031033897481956</v>
       </c>
       <c r="M11">
-        <v>0.9674753384620227</v>
+        <v>1.048146984073117</v>
       </c>
       <c r="N11">
-        <v>0.9856111228310402</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012095472787101</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.047160281310588</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.04659278130555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9168368720461615</v>
+        <v>0.99443755335791</v>
       </c>
       <c r="D12">
-        <v>1.024525803524029</v>
+        <v>1.035645147998377</v>
       </c>
       <c r="E12">
-        <v>0.9429740944070838</v>
+        <v>1.016060135993158</v>
       </c>
       <c r="F12">
-        <v>0.9490070211179881</v>
+        <v>1.03372430350495</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043569993714334</v>
+        <v>1.049501415255495</v>
       </c>
       <c r="J12">
-        <v>0.9506313135342758</v>
+        <v>1.024479205922859</v>
       </c>
       <c r="K12">
-        <v>1.039197743789365</v>
+        <v>1.05011988753306</v>
       </c>
       <c r="L12">
-        <v>0.9592819203309625</v>
+        <v>1.030885984337294</v>
       </c>
       <c r="M12">
-        <v>0.9651810184351435</v>
+        <v>1.048232716197404</v>
       </c>
       <c r="N12">
-        <v>0.98479514796279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.01205013108869</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.047551540142837</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.046577844011075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9174632380914075</v>
+        <v>0.9948120336894284</v>
       </c>
       <c r="D13">
-        <v>1.024665174205682</v>
+        <v>1.035972952529125</v>
       </c>
       <c r="E13">
-        <v>0.9435044712832149</v>
+        <v>1.016432539912179</v>
       </c>
       <c r="F13">
-        <v>0.9495616388579802</v>
+        <v>1.034234147095653</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043631628902989</v>
+        <v>1.049667681860349</v>
       </c>
       <c r="J13">
-        <v>0.9511164034847487</v>
+        <v>1.024744161337528</v>
       </c>
       <c r="K13">
-        <v>1.039292107519113</v>
+        <v>1.050400128578621</v>
       </c>
       <c r="L13">
-        <v>0.9597524431134709</v>
+        <v>1.031208547117159</v>
       </c>
       <c r="M13">
-        <v>0.9656759076315253</v>
+        <v>1.048691671827741</v>
       </c>
       <c r="N13">
-        <v>0.9849711784861752</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012158038897906</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.048188892396713</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.046773523827106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9195017485977891</v>
+        <v>0.9955425363107661</v>
       </c>
       <c r="D14">
-        <v>1.025120168174504</v>
+        <v>1.03645338331383</v>
       </c>
       <c r="E14">
-        <v>0.9452312187073488</v>
+        <v>1.017023332318106</v>
       </c>
       <c r="F14">
-        <v>0.9513673789746486</v>
+        <v>1.034873961953618</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043832195499357</v>
+        <v>1.049869932775649</v>
       </c>
       <c r="J14">
-        <v>0.9526952542332749</v>
+        <v>1.025137854879211</v>
       </c>
       <c r="K14">
-        <v>1.039599778843835</v>
+        <v>1.050735210098602</v>
       </c>
       <c r="L14">
-        <v>0.9612840230120185</v>
+        <v>1.031647756547736</v>
       </c>
       <c r="M14">
-        <v>0.9672869176519395</v>
+        <v>1.049183016292079</v>
       </c>
       <c r="N14">
-        <v>0.9855441214237686</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012303206511838</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.048749410613619</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.04701183307346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9207473540836278</v>
+        <v>0.9959471681195623</v>
       </c>
       <c r="D15">
-        <v>1.025399244741585</v>
+        <v>1.036697594706017</v>
       </c>
       <c r="E15">
-        <v>0.9462867998194858</v>
+        <v>1.017330834636002</v>
       </c>
       <c r="F15">
-        <v>0.9524713018161707</v>
+        <v>1.035175853790531</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04395472222496</v>
+        <v>1.049964069806336</v>
       </c>
       <c r="J15">
-        <v>0.9536600793074231</v>
+        <v>1.025337411087791</v>
       </c>
       <c r="K15">
-        <v>1.039788195614872</v>
+        <v>1.050890840318099</v>
       </c>
       <c r="L15">
-        <v>0.9622200671671309</v>
+        <v>1.031862999296931</v>
       </c>
       <c r="M15">
-        <v>0.9682715925156529</v>
+        <v>1.049395136629422</v>
       </c>
       <c r="N15">
-        <v>0.9858942453143203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012373372724275</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.048954370122248</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.047127645486653</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9278462419008265</v>
+        <v>0.9981204262419285</v>
       </c>
       <c r="D16">
-        <v>1.02700488746277</v>
+        <v>1.037894657096258</v>
       </c>
       <c r="E16">
-        <v>0.9523094665883087</v>
+        <v>1.018904922806688</v>
       </c>
       <c r="F16">
-        <v>0.9587704887041225</v>
+        <v>1.036585187478893</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044652319463048</v>
+        <v>1.050386128489302</v>
       </c>
       <c r="J16">
-        <v>0.9591598683440111</v>
+        <v>1.026331791461967</v>
       </c>
       <c r="K16">
-        <v>1.040867799798015</v>
+        <v>1.051577065655053</v>
       </c>
       <c r="L16">
-        <v>0.9675573014111047</v>
+        <v>1.032905330213091</v>
       </c>
       <c r="M16">
-        <v>0.9738873073642024</v>
+        <v>1.050289043249103</v>
       </c>
       <c r="N16">
-        <v>0.9878899999694649</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012705499011401</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.049622446096601</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.047615938713116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9321737443381604</v>
+        <v>0.9994069851793809</v>
       </c>
       <c r="D17">
-        <v>1.027996140582894</v>
+        <v>1.038562474646376</v>
       </c>
       <c r="E17">
-        <v>0.9559864252527026</v>
+        <v>1.019804568219554</v>
       </c>
       <c r="F17">
-        <v>0.9626167958723665</v>
+        <v>1.037328608148896</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045076660211481</v>
+        <v>1.050601759720401</v>
       </c>
       <c r="J17">
-        <v>0.9625132991415252</v>
+        <v>1.026887971161785</v>
       </c>
       <c r="K17">
-        <v>1.041530478508691</v>
+        <v>1.051926538309055</v>
       </c>
       <c r="L17">
-        <v>0.9708128421590261</v>
+        <v>1.033474039162114</v>
       </c>
       <c r="M17">
-        <v>0.9773136527580368</v>
+        <v>1.050712326024231</v>
       </c>
       <c r="N17">
-        <v>0.9891067471936866</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012883993576269</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.049828859453216</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.047865573545917</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9346554959459338</v>
+        <v>1.000047115540219</v>
       </c>
       <c r="D18">
-        <v>1.028568786590875</v>
+        <v>1.038814837398788</v>
       </c>
       <c r="E18">
-        <v>0.9580969453937703</v>
+        <v>1.020191556755445</v>
       </c>
       <c r="F18">
-        <v>0.9648246763341153</v>
+        <v>1.037535244397966</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045319568836325</v>
+        <v>1.050649972042155</v>
       </c>
       <c r="J18">
-        <v>0.9644366203376696</v>
+        <v>1.027108343025025</v>
       </c>
       <c r="K18">
-        <v>1.04191195683684</v>
+        <v>1.05199560113922</v>
       </c>
       <c r="L18">
-        <v>0.9726804270845971</v>
+        <v>1.033670627744683</v>
       </c>
       <c r="M18">
-        <v>0.9792795219742599</v>
+        <v>1.050736066253791</v>
       </c>
       <c r="N18">
-        <v>0.9898045135983188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012942656515843</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.049611764733465</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.047902944146361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9354947629493695</v>
+        <v>1.000105090292421</v>
       </c>
       <c r="D19">
-        <v>1.02876312333249</v>
+        <v>1.038711642506917</v>
       </c>
       <c r="E19">
-        <v>0.9588109714805222</v>
+        <v>1.020116486687785</v>
       </c>
       <c r="F19">
-        <v>0.9655716647824165</v>
+        <v>1.037261712589207</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045401628902553</v>
+        <v>1.050556054760267</v>
       </c>
       <c r="J19">
-        <v>0.9650870637213528</v>
+        <v>1.027029524009482</v>
       </c>
       <c r="K19">
-        <v>1.042041190761846</v>
+        <v>1.051832876037512</v>
       </c>
       <c r="L19">
-        <v>0.9733120873042819</v>
+        <v>1.033534056916558</v>
       </c>
       <c r="M19">
-        <v>0.9799444716496523</v>
+        <v>1.050405564130476</v>
       </c>
       <c r="N19">
-        <v>0.9900404720782815</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012896919281791</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.049027792428613</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.047794193417784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9317138904361628</v>
+        <v>0.9985290804413575</v>
       </c>
       <c r="D20">
-        <v>1.027890365408561</v>
+        <v>1.037592676506238</v>
       </c>
       <c r="E20">
-        <v>0.9555955050581565</v>
+        <v>1.018753931301843</v>
       </c>
       <c r="F20">
-        <v>0.9622078541616645</v>
+        <v>1.035669796461973</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045031612141646</v>
+        <v>1.050061958718125</v>
       </c>
       <c r="J20">
-        <v>0.9621569321976483</v>
+        <v>1.026116821561673</v>
       </c>
       <c r="K20">
-        <v>1.041459905763725</v>
+        <v>1.051005214418045</v>
       </c>
       <c r="L20">
-        <v>0.9704668347923124</v>
+        <v>1.032474840886777</v>
       </c>
       <c r="M20">
-        <v>0.9769494597773406</v>
+        <v>1.049113150529055</v>
       </c>
       <c r="N20">
-        <v>0.9889774523250079</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012559462219219</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.047482567556287</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.047212879793818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9189036410191459</v>
+        <v>0.994492662993479</v>
       </c>
       <c r="D21">
-        <v>1.024986447669199</v>
+        <v>1.035311712694572</v>
       </c>
       <c r="E21">
-        <v>0.944724483519025</v>
+        <v>1.015780275082439</v>
       </c>
       <c r="F21">
-        <v>0.9508374511995792</v>
+        <v>1.032931341548978</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043773353298405</v>
+        <v>1.049232934876339</v>
       </c>
       <c r="J21">
-        <v>0.9522319936310234</v>
+        <v>1.024222462073728</v>
       </c>
       <c r="K21">
-        <v>1.03950941803967</v>
+        <v>1.049653614620048</v>
       </c>
       <c r="L21">
-        <v>0.9608346100536929</v>
+        <v>1.030468728145891</v>
       </c>
       <c r="M21">
-        <v>0.9668141791931518</v>
+        <v>1.047314571032871</v>
       </c>
       <c r="N21">
-        <v>0.9853760098945076</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011915669204561</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.046018678958956</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.046260444278107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9104029872426469</v>
+        <v>0.9919249412936529</v>
       </c>
       <c r="D22">
-        <v>1.02310613893882</v>
+        <v>1.033868979377498</v>
       </c>
       <c r="E22">
-        <v>0.9375315671782041</v>
+        <v>1.013905203190123</v>
       </c>
       <c r="F22">
-        <v>0.9433163795037067</v>
+        <v>1.031221301981846</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042936875306526</v>
+        <v>1.048703741613774</v>
       </c>
       <c r="J22">
-        <v>0.9456497326400246</v>
+        <v>1.023023694317855</v>
       </c>
       <c r="K22">
-        <v>1.038233347409473</v>
+        <v>1.048798075051438</v>
       </c>
       <c r="L22">
-        <v>0.9544511406327321</v>
+        <v>1.029206138197471</v>
       </c>
       <c r="M22">
-        <v>0.9601010760631652</v>
+        <v>1.046198634430984</v>
       </c>
       <c r="N22">
-        <v>0.9829875279012936</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.01150898833275</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.04513549612359</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.045642252430942</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9149551545209317</v>
+        <v>0.9932860169586849</v>
       </c>
       <c r="D23">
-        <v>1.024108341034332</v>
+        <v>1.034622425838214</v>
       </c>
       <c r="E23">
-        <v>0.9413813006443148</v>
+        <v>1.014896534851443</v>
       </c>
       <c r="F23">
-        <v>0.947341492978907</v>
+        <v>1.032123036262546</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043384818678454</v>
+        <v>1.048980230139357</v>
       </c>
       <c r="J23">
-        <v>0.9491741285937518</v>
+        <v>1.023657039217811</v>
       </c>
       <c r="K23">
-        <v>1.038914756993025</v>
+        <v>1.049240177290876</v>
       </c>
       <c r="L23">
-        <v>0.9578686185931823</v>
+        <v>1.029872438932828</v>
       </c>
       <c r="M23">
-        <v>0.963694630205728</v>
+        <v>1.046785184622276</v>
       </c>
       <c r="N23">
-        <v>0.9842663696683527</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011723272127566</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.045599708165702</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.045945341311129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9319218090061123</v>
+        <v>0.9985597199642403</v>
       </c>
       <c r="D24">
-        <v>1.027938177714621</v>
+        <v>1.037574035563696</v>
       </c>
       <c r="E24">
-        <v>0.955772250200394</v>
+        <v>1.018757059879823</v>
       </c>
       <c r="F24">
-        <v>0.962392746818167</v>
+        <v>1.035641219251981</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045051981606987</v>
+        <v>1.050046249906785</v>
       </c>
       <c r="J24">
-        <v>0.9623180595717871</v>
+        <v>1.02611332523457</v>
       </c>
       <c r="K24">
-        <v>1.041491810114895</v>
+        <v>1.050971945743848</v>
       </c>
       <c r="L24">
-        <v>0.9706232769381886</v>
+        <v>1.032462597324562</v>
       </c>
       <c r="M24">
-        <v>0.9771141233572774</v>
+        <v>1.049070067115048</v>
       </c>
       <c r="N24">
-        <v>0.9890359118427413</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012555233450752</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.047408024563898</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.047162363466816</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9499661450913827</v>
+        <v>1.004499442622903</v>
       </c>
       <c r="D25">
-        <v>1.032166847508331</v>
+        <v>1.040926734024358</v>
       </c>
       <c r="E25">
-        <v>0.9711460070698029</v>
+        <v>1.023137208976199</v>
       </c>
       <c r="F25">
-        <v>0.9784775877629995</v>
+        <v>1.039638539801287</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046807301455765</v>
+        <v>1.051219397835956</v>
       </c>
       <c r="J25">
-        <v>0.9763031992607342</v>
+        <v>1.028876325621094</v>
       </c>
       <c r="K25">
-        <v>1.044285523978518</v>
+        <v>1.05292127995406</v>
       </c>
       <c r="L25">
-        <v>0.9842093921391519</v>
+        <v>1.035386661523605</v>
       </c>
       <c r="M25">
-        <v>0.9914194600315279</v>
+        <v>1.051651174135544</v>
       </c>
       <c r="N25">
-        <v>0.9941072242145359</v>
+        <v>1.013490872965175</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.049450775562691</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.048537787066042</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009089277852055</v>
+        <v>1.008685150812709</v>
       </c>
       <c r="D2">
-        <v>1.04350680149051</v>
+        <v>1.040652914223368</v>
       </c>
       <c r="E2">
-        <v>1.026540940027206</v>
+        <v>1.025899599915498</v>
       </c>
       <c r="F2">
-        <v>1.042741916824296</v>
+        <v>1.041386818736298</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052089071053066</v>
+        <v>1.051074316157507</v>
       </c>
       <c r="J2">
-        <v>1.031001487707401</v>
+        <v>1.030609157763725</v>
       </c>
       <c r="K2">
-        <v>1.0543915509953</v>
+        <v>1.051573516661394</v>
       </c>
       <c r="L2">
-        <v>1.037642497567266</v>
+        <v>1.037009529362834</v>
       </c>
       <c r="M2">
-        <v>1.053636251449248</v>
+        <v>1.052298177836055</v>
       </c>
       <c r="N2">
-        <v>1.014208796374713</v>
+        <v>1.015291186668617</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.05102181031141</v>
+        <v>1.049962829179046</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.049529725589923</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04754583800279</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025706473556892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012355249713295</v>
+        <v>1.011892364786005</v>
       </c>
       <c r="D3">
-        <v>1.045371832676339</v>
+        <v>1.04238567037507</v>
       </c>
       <c r="E3">
-        <v>1.028979247495734</v>
+        <v>1.028278614592799</v>
       </c>
       <c r="F3">
-        <v>1.044971122085927</v>
+        <v>1.043540181071122</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052701774238346</v>
+        <v>1.051629130886713</v>
       </c>
       <c r="J3">
-        <v>1.032514672599544</v>
+        <v>1.032063999674289</v>
       </c>
       <c r="K3">
-        <v>1.055455308792697</v>
+        <v>1.052503488577202</v>
       </c>
       <c r="L3">
-        <v>1.039254288857611</v>
+        <v>1.038562012339374</v>
       </c>
       <c r="M3">
-        <v>1.055059192462729</v>
+        <v>1.053644693150608</v>
       </c>
       <c r="N3">
-        <v>1.014720704247236</v>
+        <v>1.015682568613145</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.052147955743392</v>
+        <v>1.051028491256227</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.050279244060766</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.048200488950991</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025857740359001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014436040188728</v>
+        <v>1.013936022776275</v>
       </c>
       <c r="D4">
-        <v>1.046565681047885</v>
+        <v>1.043495320420577</v>
       </c>
       <c r="E4">
-        <v>1.030538810356367</v>
+        <v>1.029800608606559</v>
       </c>
       <c r="F4">
-        <v>1.046398036888329</v>
+        <v>1.044918881301067</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053085789970017</v>
+        <v>1.051976259898941</v>
       </c>
       <c r="J4">
-        <v>1.033477542991571</v>
+        <v>1.032989838951602</v>
       </c>
       <c r="K4">
-        <v>1.056132795920594</v>
+        <v>1.053095675142357</v>
       </c>
       <c r="L4">
-        <v>1.040282117319674</v>
+        <v>1.03955219367188</v>
       </c>
       <c r="M4">
-        <v>1.05596696051083</v>
+        <v>1.054503794705427</v>
       </c>
       <c r="N4">
-        <v>1.015046381445977</v>
+        <v>1.01593161343365</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.052866381578628</v>
+        <v>1.051708402483405</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.050759153067143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.04862017120941</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025951926763428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01530464421512</v>
+        <v>1.014789129050644</v>
       </c>
       <c r="D5">
-        <v>1.047069098590103</v>
+        <v>1.043963522173375</v>
       </c>
       <c r="E5">
-        <v>1.031191860434209</v>
+        <v>1.030437958031795</v>
       </c>
       <c r="F5">
-        <v>1.046996643413967</v>
+        <v>1.045497316465027</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053246186738653</v>
+        <v>1.052121202202842</v>
       </c>
       <c r="J5">
-        <v>1.033879905972509</v>
+        <v>1.033376712451525</v>
       </c>
       <c r="K5">
-        <v>1.056419577232747</v>
+        <v>1.053346750688506</v>
       </c>
       <c r="L5">
-        <v>1.040712316904428</v>
+        <v>1.039966645485574</v>
       </c>
       <c r="M5">
-        <v>1.056347883427144</v>
+        <v>1.054864340608226</v>
       </c>
       <c r="N5">
-        <v>1.015182619714411</v>
+        <v>1.016035796631595</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.053167851408563</v>
+        <v>1.051993745989264</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.050968991200596</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.048805479809098</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025991969311408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0154517787496</v>
+        <v>1.014933561727297</v>
       </c>
       <c r="D6">
-        <v>1.047159003785284</v>
+        <v>1.044047357496264</v>
       </c>
       <c r="E6">
-        <v>1.031303287769674</v>
+        <v>1.030546647998341</v>
       </c>
       <c r="F6">
-        <v>1.047099822772312</v>
+        <v>1.045596996209215</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053275262806872</v>
+        <v>1.052147592516346</v>
       </c>
       <c r="J6">
-        <v>1.033948932997354</v>
+        <v>1.033443039549609</v>
       </c>
       <c r="K6">
-        <v>1.056473078641949</v>
+        <v>1.053394099808357</v>
       </c>
       <c r="L6">
-        <v>1.040786345548585</v>
+        <v>1.040037929163979</v>
       </c>
       <c r="M6">
-        <v>1.056414516724718</v>
+        <v>1.05492744001493</v>
       </c>
       <c r="N6">
-        <v>1.015206187002593</v>
+        <v>1.016053808597397</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.053220586288276</v>
+        <v>1.052043684157383</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.051015437407635</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048848450190799</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026000250302233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014452330541421</v>
+        <v>1.013959273373575</v>
       </c>
       <c r="D7">
-        <v>1.046587298322752</v>
+        <v>1.043518507960357</v>
       </c>
       <c r="E7">
-        <v>1.030552990384589</v>
+        <v>1.029820129674748</v>
       </c>
       <c r="F7">
-        <v>1.046413768386268</v>
+        <v>1.044937939395596</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053094153348885</v>
+        <v>1.051986787567827</v>
       </c>
       <c r="J7">
-        <v>1.033487474257498</v>
+        <v>1.033006553995348</v>
       </c>
       <c r="K7">
-        <v>1.056151356131805</v>
+        <v>1.053115775838745</v>
       </c>
       <c r="L7">
-        <v>1.040293255955597</v>
+        <v>1.039568610382998</v>
       </c>
       <c r="M7">
-        <v>1.055979697744614</v>
+        <v>1.054519816626823</v>
       </c>
       <c r="N7">
-        <v>1.01505027698124</v>
+        <v>1.015962287333901</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.052876462075968</v>
+        <v>1.051721082566624</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.050792094429702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.048656212516949</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025957535799416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01020569249688</v>
+        <v>1.009804081670949</v>
       </c>
       <c r="D8">
-        <v>1.044158128976547</v>
+        <v>1.041266439930474</v>
       </c>
       <c r="E8">
-        <v>1.027375569493812</v>
+        <v>1.026731643522522</v>
       </c>
       <c r="F8">
-        <v>1.043508055655705</v>
+        <v>1.042138853326848</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052306391842531</v>
+        <v>1.051279749245236</v>
       </c>
       <c r="J8">
-        <v>1.031521935227863</v>
+        <v>1.031131661043719</v>
       </c>
       <c r="K8">
-        <v>1.054771413418276</v>
+        <v>1.051915004145525</v>
       </c>
       <c r="L8">
-        <v>1.03819706232972</v>
+        <v>1.03756129429939</v>
       </c>
       <c r="M8">
-        <v>1.05412925008063</v>
+        <v>1.05277674810708</v>
       </c>
       <c r="N8">
-        <v>1.014385567081491</v>
+        <v>1.015510598411512</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.051411979983731</v>
+        <v>1.050341580477236</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.049820881691382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.047812142819505</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025766039575341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002456746470574</v>
+        <v>1.002200056127649</v>
       </c>
       <c r="D9">
-        <v>1.039752276061184</v>
+        <v>1.037176493344199</v>
       </c>
       <c r="E9">
-        <v>1.021623931283257</v>
+        <v>1.021124874098439</v>
       </c>
       <c r="F9">
-        <v>1.038252978653032</v>
+        <v>1.037066552578556</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050811656873757</v>
+        <v>1.049923804091019</v>
       </c>
       <c r="J9">
-        <v>1.0279230479696</v>
+        <v>1.027675363230426</v>
       </c>
       <c r="K9">
-        <v>1.052231720766149</v>
+        <v>1.049693887775548</v>
       </c>
       <c r="L9">
-        <v>1.034375653729783</v>
+        <v>1.03388426660758</v>
       </c>
       <c r="M9">
-        <v>1.050754483835672</v>
+        <v>1.049585572127596</v>
       </c>
       <c r="N9">
-        <v>1.013167186151266</v>
+        <v>1.014589676983296</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.048741113644014</v>
+        <v>1.047816008243789</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.048022082142855</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.046238295086824</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025390688745094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9971417444065438</v>
+        <v>0.9970178058135595</v>
       </c>
       <c r="D10">
-        <v>1.036791453069714</v>
+        <v>1.034440581263753</v>
       </c>
       <c r="E10">
-        <v>1.017735606742029</v>
+        <v>1.0173613001654</v>
       </c>
       <c r="F10">
-        <v>1.034742764980308</v>
+        <v>1.033698025794028</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049775445169869</v>
+        <v>1.048992794850227</v>
       </c>
       <c r="J10">
-        <v>1.025469225868349</v>
+        <v>1.025350245512721</v>
       </c>
       <c r="K10">
-        <v>1.050526749368363</v>
+        <v>1.048214649785683</v>
       </c>
       <c r="L10">
-        <v>1.031791856496634</v>
+        <v>1.031424010013601</v>
       </c>
       <c r="M10">
-        <v>1.048511836977967</v>
+        <v>1.047484388240111</v>
       </c>
       <c r="N10">
-        <v>1.012339278498763</v>
+        <v>1.014082568114244</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.047017137784315</v>
+        <v>1.046204037520302</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.046833160152677</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.045210653339214</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.025136942065634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9950948729522738</v>
+        <v>0.9950609212907532</v>
       </c>
       <c r="D11">
-        <v>1.035865185825353</v>
+        <v>1.033588739729198</v>
       </c>
       <c r="E11">
-        <v>1.016415044693626</v>
+        <v>1.016114631144657</v>
       </c>
       <c r="F11">
-        <v>1.033836150934216</v>
+        <v>1.032857018116939</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049523241229112</v>
+        <v>1.048784929316152</v>
       </c>
       <c r="J11">
-        <v>1.024673144318752</v>
+        <v>1.024640625065541</v>
       </c>
       <c r="K11">
-        <v>1.050141014886837</v>
+        <v>1.047903853266919</v>
       </c>
       <c r="L11">
-        <v>1.031033897481956</v>
+        <v>1.030738915954463</v>
       </c>
       <c r="M11">
-        <v>1.048146984073117</v>
+        <v>1.047184806515167</v>
       </c>
       <c r="N11">
-        <v>1.012095472787101</v>
+        <v>1.014138020692095</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.047160281310588</v>
+        <v>1.046399210878133</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.04659278130555</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.045026486520832</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.025124689526153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.99443755335791</v>
+        <v>0.9944339634656079</v>
       </c>
       <c r="D12">
-        <v>1.035645147998377</v>
+        <v>1.033381721925339</v>
       </c>
       <c r="E12">
-        <v>1.016060135993158</v>
+        <v>1.015782602675901</v>
       </c>
       <c r="F12">
-        <v>1.03372430350495</v>
+        <v>1.032762922770851</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049501415255495</v>
+        <v>1.048773458950884</v>
       </c>
       <c r="J12">
-        <v>1.024479205922859</v>
+        <v>1.024475770398017</v>
       </c>
       <c r="K12">
-        <v>1.05011988753306</v>
+        <v>1.047896157257218</v>
       </c>
       <c r="L12">
-        <v>1.030885984337294</v>
+        <v>1.03061355323076</v>
       </c>
       <c r="M12">
-        <v>1.048232716197404</v>
+        <v>1.047288249819885</v>
       </c>
       <c r="N12">
-        <v>1.01205013108869</v>
+        <v>1.014209705761044</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.047551540142837</v>
+        <v>1.046804727514265</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.046577844011075</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.045021045439211</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.025151943883647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9948120336894284</v>
+        <v>0.9947837705618922</v>
       </c>
       <c r="D13">
-        <v>1.035972952529125</v>
+        <v>1.033671517805971</v>
       </c>
       <c r="E13">
-        <v>1.016432539912179</v>
+        <v>1.016131289205663</v>
       </c>
       <c r="F13">
-        <v>1.034234147095653</v>
+        <v>1.033248471587027</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049667681860349</v>
+        <v>1.048920420559565</v>
       </c>
       <c r="J13">
-        <v>1.024744161337528</v>
+        <v>1.024717107831384</v>
       </c>
       <c r="K13">
-        <v>1.050400128578621</v>
+        <v>1.048138890857361</v>
       </c>
       <c r="L13">
-        <v>1.031208547117159</v>
+        <v>1.03091281101896</v>
       </c>
       <c r="M13">
-        <v>1.048691671827741</v>
+        <v>1.047723258834798</v>
       </c>
       <c r="N13">
-        <v>1.012158038897906</v>
+        <v>1.014265133257807</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.048188892396713</v>
+        <v>1.047423334253686</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.046773523827106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.045189960320406</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.025217840054811</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9955425363107661</v>
+        <v>0.9954724882547276</v>
       </c>
       <c r="D14">
-        <v>1.03645338331383</v>
+        <v>1.03410252755613</v>
       </c>
       <c r="E14">
-        <v>1.017023332318106</v>
+        <v>1.016684796303738</v>
       </c>
       <c r="F14">
-        <v>1.034873961953618</v>
+        <v>1.033852563098405</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049869932775649</v>
+        <v>1.049096016369559</v>
       </c>
       <c r="J14">
-        <v>1.025137854879211</v>
+        <v>1.02507076271779</v>
       </c>
       <c r="K14">
-        <v>1.050735210098602</v>
+        <v>1.048424919721211</v>
       </c>
       <c r="L14">
-        <v>1.031647756547736</v>
+        <v>1.03131534064283</v>
       </c>
       <c r="M14">
-        <v>1.049183016292079</v>
+        <v>1.048179282584584</v>
       </c>
       <c r="N14">
-        <v>1.012303206511838</v>
+        <v>1.014297875687164</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.048749410613619</v>
+        <v>1.047956036428367</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.04701183307346</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.04539372481008</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025282216247561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9959471681195623</v>
+        <v>0.9958555016389192</v>
       </c>
       <c r="D15">
-        <v>1.036697594706017</v>
+        <v>1.03432340132652</v>
       </c>
       <c r="E15">
-        <v>1.017330834636002</v>
+        <v>1.016973447077182</v>
       </c>
       <c r="F15">
-        <v>1.035175853790531</v>
+        <v>1.034136734547728</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049964069806336</v>
+        <v>1.049177279119808</v>
       </c>
       <c r="J15">
-        <v>1.025337411087791</v>
+        <v>1.02524957950144</v>
       </c>
       <c r="K15">
-        <v>1.050890840318099</v>
+        <v>1.048557313039886</v>
       </c>
       <c r="L15">
-        <v>1.031862999296931</v>
+        <v>1.031512023628612</v>
       </c>
       <c r="M15">
-        <v>1.049395136629422</v>
+        <v>1.048373853797041</v>
       </c>
       <c r="N15">
-        <v>1.012373372724275</v>
+        <v>1.014306288523695</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.048954370122248</v>
+        <v>1.048147145808023</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.047127645486653</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.045493681390863</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025308791834388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9981204262419285</v>
+        <v>0.9979274714982689</v>
       </c>
       <c r="D16">
-        <v>1.037894657096258</v>
+        <v>1.035414859271682</v>
       </c>
       <c r="E16">
-        <v>1.018904922806688</v>
+        <v>1.018460319095174</v>
       </c>
       <c r="F16">
-        <v>1.036585187478893</v>
+        <v>1.035463995901798</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050386128489302</v>
+        <v>1.049540985965977</v>
       </c>
       <c r="J16">
-        <v>1.026331791461967</v>
+        <v>1.026146510648055</v>
       </c>
       <c r="K16">
-        <v>1.051577065655053</v>
+        <v>1.049137942368129</v>
       </c>
       <c r="L16">
-        <v>1.032905330213091</v>
+        <v>1.032468355390937</v>
       </c>
       <c r="M16">
-        <v>1.050289043249103</v>
+        <v>1.049186270608063</v>
       </c>
       <c r="N16">
-        <v>1.012705499011401</v>
+        <v>1.014338375060117</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.049622446096601</v>
+        <v>1.048750787610318</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.047615938713116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.045907621497735</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.0254068872161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9994069851793809</v>
+        <v>0.999166661394341</v>
       </c>
       <c r="D17">
-        <v>1.038562474646376</v>
+        <v>1.036030381162736</v>
       </c>
       <c r="E17">
-        <v>1.019804568219554</v>
+        <v>1.019319123991933</v>
       </c>
       <c r="F17">
-        <v>1.037328608148896</v>
+        <v>1.036167616698756</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050601759720401</v>
+        <v>1.049728638969906</v>
       </c>
       <c r="J17">
-        <v>1.026887971161785</v>
+        <v>1.026656901285278</v>
       </c>
       <c r="K17">
-        <v>1.051926538309055</v>
+        <v>1.049434843249185</v>
       </c>
       <c r="L17">
-        <v>1.033474039162114</v>
+        <v>1.032996690935384</v>
       </c>
       <c r="M17">
-        <v>1.050712326024231</v>
+        <v>1.049569882764998</v>
       </c>
       <c r="N17">
-        <v>1.012883993576269</v>
+        <v>1.014374751367048</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.049828859453216</v>
+        <v>1.048925755451538</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.047865573545917</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.046120338437923</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02544809212742</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000047115540219</v>
+        <v>0.9997914188848885</v>
       </c>
       <c r="D18">
-        <v>1.038814837398788</v>
+        <v>1.036269466269737</v>
       </c>
       <c r="E18">
-        <v>1.020191556755445</v>
+        <v>1.019693800014031</v>
       </c>
       <c r="F18">
-        <v>1.037535244397966</v>
+        <v>1.036362369644307</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050649972042155</v>
+        <v>1.04976947390114</v>
       </c>
       <c r="J18">
-        <v>1.027108343025025</v>
+        <v>1.026862308479763</v>
       </c>
       <c r="K18">
-        <v>1.05199560113922</v>
+        <v>1.049490192060724</v>
       </c>
       <c r="L18">
-        <v>1.033670627744683</v>
+        <v>1.033181036302486</v>
       </c>
       <c r="M18">
-        <v>1.050736066253791</v>
+        <v>1.049581632445109</v>
       </c>
       <c r="N18">
-        <v>1.012942656515843</v>
+        <v>1.014377517208347</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.049611764733465</v>
+        <v>1.048698994574047</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.047902944146361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.046146872558622</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025436969370914</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000105090292421</v>
+        <v>0.9998567527585656</v>
       </c>
       <c r="D19">
-        <v>1.038711642506917</v>
+        <v>1.036185400989463</v>
       </c>
       <c r="E19">
-        <v>1.020116486687785</v>
+        <v>1.019627343098986</v>
       </c>
       <c r="F19">
-        <v>1.037261712589207</v>
+        <v>1.036098705070627</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050556054760267</v>
+        <v>1.049684412859857</v>
       </c>
       <c r="J19">
-        <v>1.027029524009482</v>
+        <v>1.026790514002478</v>
       </c>
       <c r="K19">
-        <v>1.051832876037512</v>
+        <v>1.049346094683143</v>
       </c>
       <c r="L19">
-        <v>1.033534056916558</v>
+        <v>1.033052895925</v>
       </c>
       <c r="M19">
-        <v>1.050405564130476</v>
+        <v>1.049260757332139</v>
       </c>
       <c r="N19">
-        <v>1.012896919281791</v>
+        <v>1.014332729380311</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.049027792428613</v>
+        <v>1.048122343065134</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.047794193417784</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.046051920338098</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025384563704663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9985290804413575</v>
+        <v>0.9983488984016274</v>
       </c>
       <c r="D20">
-        <v>1.037592676506238</v>
+        <v>1.03517466616846</v>
       </c>
       <c r="E20">
-        <v>1.018753931301843</v>
+        <v>1.018329859739085</v>
       </c>
       <c r="F20">
-        <v>1.035669796461973</v>
+        <v>1.034576000879983</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050061958718125</v>
+        <v>1.04924365469458</v>
       </c>
       <c r="J20">
-        <v>1.026116821561673</v>
+        <v>1.025943615951556</v>
       </c>
       <c r="K20">
-        <v>1.051005214418045</v>
+        <v>1.048625978992765</v>
       </c>
       <c r="L20">
-        <v>1.032474840886777</v>
+        <v>1.032057880225938</v>
       </c>
       <c r="M20">
-        <v>1.049113150529055</v>
+        <v>1.048036949744278</v>
       </c>
       <c r="N20">
-        <v>1.012559462219219</v>
+        <v>1.014145025907675</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.047482567556287</v>
+        <v>1.046630875828664</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.047212879793818</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.04554703305629</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.025212196641045</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.994492662993479</v>
+        <v>0.994517418798847</v>
       </c>
       <c r="D21">
-        <v>1.035311712694572</v>
+        <v>1.033106236558692</v>
       </c>
       <c r="E21">
-        <v>1.015780275082439</v>
+        <v>1.015533944157909</v>
       </c>
       <c r="F21">
-        <v>1.032931341548978</v>
+        <v>1.032003309160314</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049232934876339</v>
+        <v>1.04853394900127</v>
       </c>
       <c r="J21">
-        <v>1.024222462073728</v>
+        <v>1.024246166476745</v>
       </c>
       <c r="K21">
-        <v>1.049653614620048</v>
+        <v>1.047486421156021</v>
       </c>
       <c r="L21">
-        <v>1.030468728145891</v>
+        <v>1.030226878696583</v>
       </c>
       <c r="M21">
-        <v>1.047314571032871</v>
+        <v>1.046402717861039</v>
       </c>
       <c r="N21">
-        <v>1.011915669204561</v>
+        <v>1.01410220928321</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.046018678958956</v>
+        <v>1.045297013427273</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.046260444278107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.044744838106125</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02500915231362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9919249412936529</v>
+        <v>0.9920783565971316</v>
       </c>
       <c r="D22">
-        <v>1.033868979377498</v>
+        <v>1.031797559921891</v>
       </c>
       <c r="E22">
-        <v>1.013905203190123</v>
+        <v>1.013770618871172</v>
       </c>
       <c r="F22">
-        <v>1.031221301981846</v>
+        <v>1.03039793907283</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048703741613774</v>
+        <v>1.048079965467044</v>
       </c>
       <c r="J22">
-        <v>1.023023694317855</v>
+        <v>1.023170219495385</v>
       </c>
       <c r="K22">
-        <v>1.048798075051438</v>
+        <v>1.046764366366083</v>
       </c>
       <c r="L22">
-        <v>1.029206138197471</v>
+        <v>1.02907412564094</v>
       </c>
       <c r="M22">
-        <v>1.046198634430984</v>
+        <v>1.045390337782483</v>
       </c>
       <c r="N22">
-        <v>1.01150898833275</v>
+        <v>1.014068936728187</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.04513549612359</v>
+        <v>1.044495787321187</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.045642252430942</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.044219710598366</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024879026460275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9932860169586849</v>
+        <v>0.9933594657498366</v>
       </c>
       <c r="D23">
-        <v>1.034622425838214</v>
+        <v>1.032475941272955</v>
       </c>
       <c r="E23">
-        <v>1.014896534851443</v>
+        <v>1.014693442844307</v>
       </c>
       <c r="F23">
-        <v>1.032123036262546</v>
+        <v>1.03123787624525</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048980230139357</v>
+        <v>1.048312401160855</v>
       </c>
       <c r="J23">
-        <v>1.023657039217811</v>
+        <v>1.023727284836609</v>
       </c>
       <c r="K23">
-        <v>1.049240177290876</v>
+        <v>1.047131804029894</v>
       </c>
       <c r="L23">
-        <v>1.029872438932828</v>
+        <v>1.029673128854771</v>
       </c>
       <c r="M23">
-        <v>1.046785184622276</v>
+        <v>1.045915814795695</v>
       </c>
       <c r="N23">
-        <v>1.011723272127566</v>
+        <v>1.014043154277429</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.045599708165702</v>
+        <v>1.044911664737987</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.045945341311129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.044469064206744</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024943319301383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9985597199642403</v>
+        <v>0.998379863742371</v>
       </c>
       <c r="D24">
-        <v>1.037574035563696</v>
+        <v>1.035157956828487</v>
       </c>
       <c r="E24">
-        <v>1.018757059879823</v>
+        <v>1.018333674322773</v>
       </c>
       <c r="F24">
-        <v>1.035641219251981</v>
+        <v>1.034548370819943</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050046249906785</v>
+        <v>1.04922890042499</v>
       </c>
       <c r="J24">
-        <v>1.02611332523457</v>
+        <v>1.025940422435963</v>
       </c>
       <c r="K24">
-        <v>1.050971945743848</v>
+        <v>1.04859456320517</v>
       </c>
       <c r="L24">
-        <v>1.032462597324562</v>
+        <v>1.032046301999385</v>
       </c>
       <c r="M24">
-        <v>1.049070067115048</v>
+        <v>1.047994777029543</v>
       </c>
       <c r="N24">
-        <v>1.012555233450752</v>
+        <v>1.01413795636774</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.047408024563898</v>
+        <v>1.04655701212134</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.047162363466816</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.045495139134369</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.025200353045486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004499442622903</v>
+        <v>1.004194723647173</v>
       </c>
       <c r="D25">
-        <v>1.040926734024358</v>
+        <v>1.038263903213618</v>
       </c>
       <c r="E25">
-        <v>1.023137208976199</v>
+        <v>1.022592173642468</v>
       </c>
       <c r="F25">
-        <v>1.039638539801287</v>
+        <v>1.038398506582684</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051219397835956</v>
+        <v>1.050291334322567</v>
       </c>
       <c r="J25">
-        <v>1.028876325621094</v>
+        <v>1.028581738583974</v>
       </c>
       <c r="K25">
-        <v>1.05292127995406</v>
+        <v>1.050295902309145</v>
       </c>
       <c r="L25">
-        <v>1.035386661523605</v>
+        <v>1.034849613739649</v>
       </c>
       <c r="M25">
-        <v>1.051651174135544</v>
+        <v>1.050428606633939</v>
       </c>
       <c r="N25">
-        <v>1.013490872965175</v>
+        <v>1.014801587280113</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.049450775562691</v>
+        <v>1.048483206548516</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.048537787066042</v>
+        <v>1.04669492589414</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025496890029828</v>
       </c>
     </row>
   </sheetData>
